--- a/finetuning/it_datasets/qa_dataset/qa_it_gabes_dataset.xlsx
+++ b/finetuning/it_datasets/qa_dataset/qa_it_gabes_dataset.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA99"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,7 +561,12 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>question</t>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>choices</t>
         </is>
       </c>
     </row>
@@ -667,12 +672,69 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out El Majless coffee lounge located at Rte de Gabes, Kebili. This top-rated destination is perfect for Cafe lovers. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website at https://www.google.com/maps/place/El+Majless+coffee+lounge/data=!4m7!3m6!1s0x12566e5e13f78853:0x66f8f60e320c55f0!8m2!3d33.7142489!4d8.9732555!16s%2Fg%2F11c74c96yy!19sChIJU4j3E15uVhIR8FUMMg72-GY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 494 420.</t>
+          <t>El Majless coffee lounge is a cafe located at PX7F+M8R El Majless coffee lounge, Rte de Gabes, Kebili. It has a rating of 4.5 out of 5, with 11 reviews and a featured image. It is open from 08:00-23:00 and closed on []. The phone number is 23 494 420. Its main category is Cafe, and its categories are ['Cafe']. It is located at coordinates (33.7053164, 8.9659272).</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated cafe with a cozy ambiance suitable for coffee enthusiasts in Gabes?</t>
+          <t>Day Plan:
+Morning: Explore the scenic nature of Oued Griaa, a charming water oasis with tranquil surroundings.
+Mid-Morning: Try the local cuisine at Pronto Pizza, known for its delicious pizzas and positive reviews.
+Midday: Visit Ras El Oueed, a popular tourist attraction with a vibrant atmosphere and entertainment options.
+Afternoon: Enjoy the afternoon at Plage el Kazma Gabes, a picturesque beach with clear waters and golden sands.
+Evening: Relax at Le grain de café, a cozy cafeteria offering a wide variety of coffee and tea drinks with a welcoming ambiance.
+Night: Experience the cultural immersion of Chez mon ex, a renowned creperie serving delectable crepes in a cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Royale is a highly-rated cafe in Gabes, Tunisia. With a rating of 4.6 out of 5, it offers a variety of cafe-style drinks and food options. The cafe is open from 5:30 AM to 11:30 PM, making it a convenient spot for a morning coffee or an after-dinner treat. Cafe Royale is located at PX8F+9C3 Rte de Gabes, Qibili, and can be contacted by phone at 20 187 027.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+TARTOUGA, a restaurant in Gabès (Tunisia), is rated 4 out of 5 stars on Google by 1 reviewer. Located at coordinates (33.8776521, 10.092417), it is open from 10:00 AM to 11:00 PM.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -778,12 +840,69 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a great cup of coffee, stop by Cafe Royale, located at PX8F+9C3 Rte de Gabes, Qibili. This top-rated cafe is a must-visit spot for coffee lovers. With a rating of 4.6, it's a great place to relax and enjoy a delicious cup of coffee. Cafe Royale is open from 5:30 AM to 11:30 PM during weekdays and has a featured image available at https://lh5.googleusercontent.com/p/AF1QipMZMMQxrrnsWUY4WvK19w_MoppB_ZiAGNaTE3Jo=w426-h240-k-no. For more information, visit their website or call them at 20 187 027.</t>
+          <t>Cafe Royale is a highly-rated cafe in Gabes, Tunisia. With a rating of 4.6 out of 5, it offers a variety of cafe-style drinks and food options. The cafe is open from 5:30 AM to 11:30 PM, making it a convenient spot for a morning coffee or an after-dinner treat. Cafe Royale is located at PX8F+9C3 Rte de Gabes, Qibili, and can be contacted by phone at 20 187 027.</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find a highly-rated cafe with a perfect rating for its exceptional coffee experience?</t>
+          <t>Day Plan:
+Morning: Explore the scenic beauty of Ras el Oued, a popular tourist destination known for its hiking, fishing, and swimming opportunities.
+Mid-Morning: Visit the nearby Zoo Chenenni, home to a variety of animal species, and learn about the local wildlife.
+Midday: Try local cuisine at Le 52, a highly-rated restaurant in Gabes offering delicious pizza, pasta, and meat dishes.
+Afternoon: Relax and enjoy the tranquil atmosphere at Oued Griaa, a charming point of water with a beautiful setting.
+Evening: Head to O'TAKE, a popular cafe and grill restaurant, for dinner and enjoy their delectable dishes and cozy ambiance.
+Night: Experience the lively atmosphere at CUBYGLACONS, a highly-rated restaurant known for its delicious sundaes and sweet treats.</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Royale is a highly-rated cafe in Gabes, Tunisia. With a rating of 4.6 out of 5, it offers a variety of cafe-style drinks and food options. The cafe is open from 5:30 AM to 11:30 PM, making it a convenient spot for a morning coffee or an after-dinner treat. Cafe Royale is located at PX8F+9C3 Rte de Gabes, Qibili, and can be contacted by phone at 20 187 027.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+Le 52 is a restaurant located in Gabes, Tunisia. It offers a variety of dishes including pizza, pasta, and meat dishes. The restaurant has received positive reviews for its food and service. It is closed on Sundays and is open from 12:00 PM to 10:00 PM on all other days of the week.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+So Sweet is a 5-star rated creperie located in Gabes, Tunisia. It is open from 7 am to 3 am and offers a variety of crepes and other sweet treats. The creperie is located at the coordinates (33.8776521, 10.092417).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -885,14 +1004,69 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for something fun to do, check out Costa Cafe crepe located at Rte de Gabes, Kebili. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website at https://www.google.com/maps/place/Costa+Caf%C3%A9+crepe/data=!4m7!3m6!1s0x12566f82576edd21:0x62a6968797ed6b97!8m2!3d33.7114704!4d8.9720476!16s%2Fg%2F11jmpwfzw0!19sChIJId1uV4JvVhIRl2vtl4eWpmI?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Costa Cafe crepe is a cafe located in Gabes, Tunisia, at coordinates (33.8776521, 10.092417). It offers a variety of cafe beverages and has a 4.0 rating based on 2 reviews. It is open from 6:00 AM to midnight every day.</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>Where in Gabes can you visit a top-rated destination with a 4.0 rating, perfect for Cafe enthusiasts and featuring a tempting selection of Cafe?</t>
+          <t>Day Plan:
+Morning: Exploring the beautiful Plage el Kazma Gabes, enjoying the soft white sand, clear blue waters, and stunning views of the Mediterranean Sea.
+Mid-Morning: Visiting the Port de peche de Gabes, learning about the local fishing industry, and admiring the boats and fishing equipment.
+Midday: Trying local cuisine at Restaurant Pizzeria PINO, savoring delicious Italian dishes with authentic flavors.
+Afternoon: Engaging in outdoor activities like swimming, sunbathing, or building sandcastles at Plage el Kazma Gabes, enjoying the warm sunshine and refreshing waters.
+Evening: Experiencing cultural immersion at the Region Maritime de Gabes (OMMP), gaining insights into the local maritime administration's services and operations.
+Night: Relaxing with a delightful dinner at My House Lounge, savoring grilled specialties in a cozy and inviting atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Sky Cafe Lounge is a cafe located in Gabes, Tunisia. It offers a variety of drinks and snacks, and has a cozy atmosphere. The cafe is located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes, and is open from 8am to 10pm every day.
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+Le Royal Gabes is a popular restaurant in Gabes, Tunisia. Located in Ctre de Visite Technique de Gabes, Bouchamma, it is well-rated with a 5.0 score on Google Maps. The restaurant primarily serves as a restaurant, offering a delightful dining experience. Its working hours are from 11:00 AM to 11:00 PM, and it remains closed on specific days of the week. You can contact them at 99 099 695 for inquiries or reservations.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station service Agil GABES VILLE is a gas station located in Gabes, Tunisia. It offers a variety of services to its customers, including gasoline, diesel, and car wash. The station is conveniently located near several major roads, making it easy to access.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -986,14 +1160,11 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great Cafe, check out Cafe EZZAHRA located at 9F3H+VJ7 Cafe EZZAHRA, Route de Gabes,, Medenine. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+EZZAHRA/data=!4m7!3m6!1s0x1255282a283b7a07:0x78a5269b9a4ff8db!8m2!3d33.354659!4d10.4790512!16s%2Fg%2F11c489xfxz!19sChIJB3o7KCooVRIR2_hPmpsmpXg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated cafe with a wide selection of coffee and tea options located in Gabes?</t>
-        </is>
-      </c>
+          <t>Cafe EZZAHRA, located at 9F3H+VJ7 Route de Gabes in Medenine, is a popular cafe offering its customers a wide variety of beverages and snacks. Situated at coordinates (33.3497059, 10.4863079), Cafe EZZAHRA boasts a rating of 4.0 based on 6 reviews, indicating its popularity among locals and visitors alike.</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1097,14 +1268,70 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Rio Cafe located at Rio Cafe, km 1 Rte de Gabes, Sfax 3000.
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from.
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 34.750047, 10.7579758. For more details, call them at 22 301 592.</t>
+          <t>Rio Café is a Mexican restaurant located in Sfax, Tunisia. It offers a variety of Mexican dishes, including tortillas, burritos, and tacos. The restaurant is located at km 1 Rte de Gabes, Sfax 3000.</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find a highly-rated Cafe with a range of options, perfect for Cafe enthusiasts?</t>
+          <t>Day Plan:
+Morning: Exploring the beautiful Plage el Kazma Gabes
+Mid-Morning: Trying local cuisine at Restaurant Palais de la mer
+Midday: Visiting the impressive Hôtel BEN NJIMA
+Afternoon: Enjoying a scenic walk and relaxing at Oued Griaa
+Evening: Indulging in the vibrant atmosphere of My House Lounge
+Night: Experiencing cultural immersion at the Region Maritime de Gabes (OMMP)</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Costa Cafe crepe is a cafe located in Gabes, Tunisia, at coordinates (33.8776521, 10.092417). It offers a variety of cafe beverages and has a 4.0 rating based on 2 reviews. It is open from 6:00 AM to midnight every day.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+Restaurant Palais de la mer is a restaurant located in Gabes, Tunisia with coordinates (33.88997552981, 10.112436063016). This restaurant offers seafood specialties, as indicated by the keyword "poisson" appearing in customer reviews.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Shell is a gas station located in Gabes, Tunisia. It offers 24-hour fuel service, a car wash, and a convenience store. The station is situated on Jardin Public avenue Farhat Hached, near the intersection of Av. Farhat Hachad and shr` frHt Hshd. The Shell station has a rating of 3.2 based on 6 reviews.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1206,14 +1433,11 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a fantastic Cafe experience, Cafe Bonjour on Rte de Gabes is the perfect spot for you. This top-rated destination offers a delightful range of Cafe options to choose from, making it a must-visit for any Cafe lover. With a rating of 4.0, it's a highly recommended spot. Cafe Bonjour is open daily from 6 AM to 11 PM, so you can enjoy their offerings anytime. To get there, use these GPS coordinates: 34.7470235, 10.7601774.</t>
-        </is>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>Where can you find a highly recommended café in Gabes that offers a diverse menu of Café options and is open from 6 AM to 11 PM daily?</t>
-        </is>
-      </c>
+          <t>Cafe Bonjour, a highly-rated cafe located at PPGQ+5PF, Rte de Gabes, Sfax, is a great spot to relax and enjoy a cup of coffee. It operates from 6am to 11pm daily and has earned a 4.0 rating from satisfied customers. You can find additional information on their official website or by visiting their location directly.</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1317,12 +1541,69 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great place to stay, check out Hotel l'Oasis Gabes 4 etoiles located at Av.Habib Thameur, Gabes 6000. This top-rated hotel is perfect for Hotel lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website at http://hoteloasisgabes.com/ or call them at 75 270 381.</t>
+          <t>Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>What is the name and location of the highly-rated hotel with GPS coordinates 33.8759875, 10.0929339 in Gabes that is perfect for Hotel lovers?</t>
+          <t>Day Plan:
+Morning: Explore the Port de peche de Gabes, a bustling fishing port with numerous cafes and restaurants.
+Mid-Morning: Visit the Region Maritime de Gabes (OMMP) for a glimpse into local administration.
+Midday: Savor authentic Turkish cuisine at Sami Restaurant Turc, known for its traditional dishes.
+Afternoon: Unwind at Plage Corniche de Gabes, enjoying stunning Mediterranean views, swimming, or relaxing on the beach.
+Evening: Indulge in a delightful dinner at Chez mon ex, famous for its exceptional crepes.
+Night: Immerse yourself in the vibrant atmosphere at Le Sky Cafe Lounge, offering bar lounge services and a lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.
+Sami Restaurant Turc is a Turkish restaurant located in Gabes, Tunisia. It has a 4.7 rating on Google and is open from 11:00 to 22:00 during the week, but is closed on Sundays. The restaurant is known for its traditional Turkish cuisine and has received positive reviews for its food and service.
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+AGIL is a gas station located in Gabes, Tunisia. It offers a range of services including fuel, auto repair, and car wash. The gas station has a 4.0-star rating based on 19 reviews and is owned by AGIL (proprietaire). It is located at the coordinates (33.8962351, 9.811008) and can be found on Google Maps at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1428,12 +1709,69 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a top-rated hotel, check out Hotel l'Oasis Gabes 4 etoiles located at Av.Habib Thameur, Gabes 6000. This destination is perfect for Hotel lovers and has a rating of 4.3. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website at http://hoteloasisgabes.com/ or call them at 75 270 381.</t>
+          <t>Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated hotel with a 4.3 rating in Gabes, suitable for hotel enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the charming streets and markets of Gabes, immersing yourself in the local culture and picking up unique souvenirs.
+Mid-Morning: Visit the Region Maritime de Gabes (OMMP) for insights into the local administration and public services, followed by a refreshing break at Café Bonjour for a delightful cup of coffee and pastries.
+Midday: Indulge in a delectable lunch at My House Lounge, renowned for its warm ambiance and delicious cuisine.
+Afternoon: Unwind and rejuvenate at a traditional hammam, experiencing the soothing and cleansing benefits of an authentic Moroccan bath ritual.
+Evening: Embark on a culinary adventure at Pizzeria PINO, savoring authentic Italian flavors amidst a charming atmosphere.
+Night: Head to Plage el Kazma Gabes, a stunning beach offering breathtaking views of the Mediterranean Sea, where you can unwind with a leisurely evening stroll or simply soak in the serene ambiance.</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bonjour, a highly-rated cafe located at PPGQ+5PF, Rte de Gabes, Sfax, is a great spot to relax and enjoy a cup of coffee. It operates from 6am to 11pm daily and has earned a 4.0 rating from satisfied customers. You can find additional information on their official website or by visiting their location directly.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+Pizza Chamchat is a restaurant located in Gabes, Tunisia, offering a variety of dishes. It is situated at coordinates (33.8776521, 10.092417) and is open from Monday to Sunday from 10:00 AM to 22:00 PM. With a rating of 4.4, this restaurant has received positive feedback from customers.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1877,69 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great place to stay, consider Hotel l'Oasis Gabes 4 etoiles, located at Av.Habib Thameur, Gabes 6000. This top-rated hotel is perfect for travelers seeking a comfortable and convenient stay. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website at http://hoteloasisgabes.com/ or call them at 75 270 381.</t>
+          <t>Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>Where in Gabes can travelers find a top-rated hotel with a 4.3 rating and convenient location?</t>
+          <t>Day Plan:
+Morning: Explore the historical landmarks of Ras el Oueed, including the ancient Roman fort ruins.
+Mid-Morning: Visit the Region Maritime de Gabes (OMMP) for local administration services and information about the city.
+Midday: Enjoy a delicious lunch of traditional Tunisian cuisine at Cafe-Restaurant Chems, known for its excellent local dishes.
+Afternoon: Relax and enjoy the scenic beauty of Plage Corniche de Gabes, soaking up the sun on the sandy shores or engaging in water-based activities like swimming.
+Evening: Indulge in a delightful dinner at La Fiesta, a highly-rated restaurant specializing in exceptional pizzas.
+Night: Experience the vibrant atmosphere of My House Lounge, where you can enjoy a relaxing drink and savor the city's nightlife.</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Majless coffee lounge is a cafe located at PX7F+M8R El Majless coffee lounge, Rte de Gabes, Kebili. It has a rating of 4.5 out of 5, with 11 reviews and a featured image. It is open from 08:00-23:00 and closed on []. The phone number is 23 494 420. Its main category is Cafe, and its categories are ['Cafe']. It is located at coordinates (33.7053164, 8.9659272).
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+La Fiesta, located in Gabes, Tunisia, is a highly-rated (4.9 stars) restaurant known for its exceptional pizzas. Operating from 10:00 AM to 10:00 PM daily, except for Sundays, La Fiesta is conveniently situated at V4P3+XX9 La Fiesta, shr` lHbyb bwrqyb@ - Avenue Habib Bourguiba.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+AGIL is a gas station located in Gabes, Tunisia. It offers a range of services including fuel, auto repair, and car wash. The gas station has a 4.0-star rating based on 19 reviews and is owned by AGIL (proprietaire). It is located at the coordinates (33.8962351, 9.811008) and can be found on Google Maps at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1646,12 +2041,76 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a top-rated hotel, consider Hotel BEN NJIMA located at V3PR+3MM Hotel BEN NJIMA, nhj `ly jml, Gabes 6002. This 5-star hotel is perfect for travelers seeking a comfortable and convenient stay. With a rating of 5.0, it's a must-visit spot for those looking for a luxurious hotel experience. To get there, use these GPS coordinates: 47.049555, 8.3123493. For more details, visit their website at https://www.google.com/maps/place/H%C3%B4tel+BEN+NJIMA/data=!4m10!3m9!1s0x12556fdad26eee81:0x3ebc572dce1dd2fc!5m2!4m1!1i2!8m2!3d33.8852148!4d10.0916838!16s%2Fg%2F11rrz5wpn!19sChIJge5u0tpvVRIR_NIdzi1XvD4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 75 271 591.</t>
+          <t>**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
-          <t>Where can travelers find a top-rated, 5-star hotel with a convenient location in Gabes?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore the **Plage Corniche de Gabes**, a beautiful beach offering relaxation and stunning views.
+**Mid-Morning:**
+- Visit the **Region Maritime de Gabes (OMMP)** for public services and administrative support.
+**Midday:**
+- Try local cuisine at **Restaurant Pizzeria PINO**, an Italian restaurant serving authentic dishes.
+**Afternoon:**
+- Experience outdoor activities at **Ras El Oueed**, a popular tourist attraction with picturesque scenery and entertainment options.
+**Evening:**
+- Enjoy a guided tour of the **Gare de Gabes**, a historic train station showcasing architectural beauty and transportation history.
+**Night:**
+- Relax with a delicious sundae at **CUBYGLACONS**, a highly recommended spot for sweet treats.</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe EZZAHRA, located at 9F3H+VJ7 Route de Gabes in Medenine, is a popular cafe offering its customers a wide variety of beverages and snacks. Situated at coordinates (33.3497059, 10.4863079), Cafe EZZAHRA boasts a rating of 4.0 based on 6 reviews, indicating its popularity among locals and visitors alike.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.
+Discover "By Omar Coffee Lounge," a must-visit destination located in Gabes. This renowned restaurant invites you to savor delectable cuisine, promising an unforgettable dining experience. Situated at coordinates (33.8776521, 10.092417), "By Omar Coffee Lounge" awaits your presence.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Radio elyssa is a gas station located in Gabes, France, at the coordinates (43.7034285, 7.2661312). It has a rating of 5.0 based on 1 review.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1757,14 +2216,69 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great hotel, check out Hotel l'Oasis Gabes 4 etoiles located at Av.Habib Thameur, Gabes 6000. 
-This top-rated destination is perfect for Hotel lovers and offers a range of Hotel categories to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website at http://hoteloasisgabes.com/ or call them at 75 270 381.</t>
+          <t>Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Where in Gabes is it recommended to find a highly-rated hotel with a variety of categories to choose from?</t>
+          <t>Day Plan:
+Morning: Explore the Port de peche de Gabes, a fishing port with a vibrant atmosphere.
+Mid-Morning: Visit the Region Maritime de Gabes (OMMP) for local administration services and information.
+Midday: Try local cuisine at BIBO, a pizzeria with a 4.6-star rating for its authentic Italian dishes.
+Afternoon: Enjoy scenic views at Ras el Oueed, a popular tourist destination known for its beauty and proximity to the Zoo Chenenni.
+Evening: Participate in "Le grain de café," a popular cafeteria with a cozy atmosphere and delicious coffee and pastries.
+Night: Experience cultural immersion at Chez Kayran, a 4.7-rated restaurant offering a varied menu that reflects local flavors.</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Costa Cafe crepe is a cafe located in Gabes, Tunisia, at coordinates (33.8776521, 10.092417). It offers a variety of cafe beverages and has a 4.0 rating based on 2 reviews. It is open from 6:00 AM to midnight every day.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Chez Kayran is a 4.7-rated restaurant in Gabes, Tunisia, located at coordinates (33.8776521, 10.092417). It is open from 6:00 AM to 1:00 PM, and offers a varied menu not specified in the provided information.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1870,12 +2384,75 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Restaurant Fruit De Mer located at Restaurant Fruit De Mer, Gabes. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:15-23:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Fruit+De+Mer/data=!4m7!3m6!1s0x12556f97c1b79081:0x9ec91aec549d79b9!8m2!3d33.893495!4d10.112805!16s%2Fg%2F11ddwp8y6y!19sChIJgZC3wZdvVRIRuXmdVOwayZ4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 98 507 323.</t>
+          <t>Restaurant Fruit De Mer is a dining establishment in Gabes, Tunisia. It has a 4.0 rating based on 119 reviews, and is open from 11:15 AM to 11:00 PM. The restaurant offers a variety of seafood dishes and is known for its affordable prices, fresh fish, attentive service and family-friendly atmosphere. It is located at Gabes, Tunisia, and can be contacted at 98 507 323.</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Restaurant destination with a 4.0 rating in Gabes?</t>
+          <t>Day Plan:
+**Morning:**
+* Start the day by exploring Plage el Kazma Gabes, a stunning beach with soft white sand and clear blue waters. Enjoy swimming, sunbathing, or building sandcastles.
+**Mid-Morning:**
+* Visit the Ras El Oueed, a popular tourist attraction known for its picturesque scenery. Immerse yourself in the natural beauty of this area and capture some Insta-worthy shots.
+**Midday:**
+* Try local cuisine at Restaurant Fruit De Mer. This restaurant offers a variety of seafood dishes, known for its affordable prices, fresh fish, and family-friendly atmosphere.
+**Afternoon:**
+* Experience cultural immersion at the Region Maritime de Gabes (OMMP). Learn about the history and culture of Gabes and engage with the friendly locals.
+**Evening:**
+* Take a guided tour of the Gare de Gabes, a historic train station that serves as a major transportation hub. Explore its architectural beauty and learn about its significance to the region.
+**Night:**
+* Head to My House Lounge for a relaxing evening. Enjoy a delicious meal and unwind with a drink while soaking up the local ambiance.</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Sky Cafe Lounge is a cafe located in Gabes, Tunisia. It offers a variety of drinks and snacks, and has a cozy atmosphere. The cafe is located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes, and is open from 8am to 10pm every day.
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+Restaurant Fruit De Mer is a dining establishment in Gabes, Tunisia. It has a 4.0 rating based on 119 reviews, and is open from 11:15 AM to 11:00 PM. The restaurant offers a variety of seafood dishes and is known for its affordable prices, fresh fish, attentive service and family-friendly atmosphere. It is located at Gabes, Tunisia, and can be contacted at 98 507 323.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Radio elyssa is a gas station located in Gabes, France, at the coordinates (43.7034285, 7.2661312). It has a rating of 5.0 based on 1 review.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -1981,14 +2558,69 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a great restaurant, check out Restaurant Palais de la mer located at V4V7+GW3 Restaurant Palais de la mer, Av.Habib Thameur. 
-This top-rated restaurant is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:30-23:30. To get there, use these GPS coordinates: 33.88997552981, 10.112436063016. For more details, visit their website or call them at 75 271 142.</t>
+          <t>The Restaurant Palais de la mer in Gabes, Tunisia, with coordinates (33.893769, 10.1147988), offers a specialized culinary experience centered around fish dishes, as highlighted by its reviews. Open from 11:30 to 23:30 during the week, it has received a high rating of 4.5 based on 35 reviews.</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant in Gabes with a variety of cuisines, open from 11:30 AM to 11:30 PM?</t>
+          <t>Day Plan:
+Morning: Explore the scenic beauty of Plage el Kazma Gabes, bask in the sun, and enjoy the crystal-clear waters.
+Mid-Morning: Experience the local culture by visiting the Region Maritime de Gabes (OMMP) to gain insights into the region's maritime affairs.
+Midday: Treat yourself to a culinary adventure at Piccolino, known for its delicious pizzas, burgers, and seafood dishes.
+Afternoon: Immerse yourself in the unique atmosphere of Mchergui farm, a highly-rated tourist attraction offering an unforgettable experience amidst nature.
+Evening: Relish a delightful dinner at Pronto Pizza, savoring the authentic flavors of Italian cuisine and enjoying the warm ambiance.
+Night: Unwind and relax at So Sweet, a 5-star rated creperie, indulging in delectable crepes and sweet treats while enjoying the charming atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Sky Cafe Lounge is a cafe located in Gabes, Tunisia. It offers a variety of drinks and snacks, and has a cozy atmosphere. The cafe is located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes, and is open from 8am to 10pm every day.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.
+Piccolino is a restaurant located in Gabes, Tunisia, offering a diverse menu including pizzas, burgers, salads, and seafood dishes. Situated at 7VW8+QJ7 Rue de Bizerte, it operates daily from 7 AM to 11:45 PM. With a rating of 4.1 based on 136 reviews, it is known for its reasonable prices, attentive service, and delicious sauces.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+So Sweet is a 5-star rated creperie located in Gabes, Tunisia. It is open from 7 am to 3 am and offers a variety of crepes and other sweet treats. The creperie is located at the coordinates (33.8776521, 10.092417).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station de taxi Chenini is a local taxi station located in Gabès, Tunisia. It has been rated 4.0 stars out of 5 by previous customers and is open from 6:00 AM to 6:00 PM. The taxi station is situated at the coordinates (33.87861, 10.0618) and offers taxi services to the local community.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2086,14 +2718,11 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a top-rated place, check out plage el Kazma Gabes located at plage el Kazma Gabes. This destination is perfect for Plage lovers and offers a range of Plage to choose from. With a rating of 4.3, it's a must-visit spot.  To get there, use these GPS coordinates: 33.8776521, 10.092417.</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>Where can I find a highly rated plage with diverse Plage options in Gabes?</t>
-        </is>
-      </c>
+          <t>Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -2189,13 +2818,71 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>If you're in gabes and searching for a top-rated Port, be certain to take a look at Port de peche de Gabes at Port de peche de Gabes. This place is a must-visit spot with a rating of 4.6. Use the coordinates (33.8941017, 10.1138583) to get there using GPS. For more details, take a look at the link below:
-https://www.google.com/maps/place/Port+de+p%C3%AAche+de+Gab%C3%A9s/data=!4m7!3m6!1s0x12556f99bba979ef:0x173467aa5be9c825!8m2!3d33.8957021!4d10.1162302!16s%2Fg%2F1211psly!19sChIJ73mpu5lvVRIRJcjpW6pnNBc?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
-          <t>Where can travelers find a highly rated fishing port in Gabes known for its outstanding 4.6 rating and easily accessible via GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Exploring the Region Maritime de Gabes (OMMP)
+Mid-Morning: Enjoying a relaxing morning coffee at Cafe Royale
+Midday: Trying local cuisine at Restaurant Pizzeria La Perla
+Afternoon: Visiting Plage el Kazma Gabes for sunbathing and swimming
+Evening: Participating in a guided tour of the Mchergui farm
+Night: Experiencing cultural immersion at Oued Griaa</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Royale is a highly-rated cafe in Gabes, Tunisia. With a rating of 4.6 out of 5, it offers a variety of cafe-style drinks and food options. The cafe is open from 5:30 AM to 11:30 PM, making it a convenient spot for a morning coffee or an after-dinner treat. Cafe Royale is located at PX8F+9C3 Rte de Gabes, Qibili, and can be contacted by phone at 20 187 027.
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+Restaurant Pizzeria La Perla is a restaurant located in Gabes, Tunisia (33.8759875, 10.0929339). 
+It has a rating of 4.3 out of 5 and is open from 11:00 to 22:00, except on Sundays. 
+The restaurant offers a variety of dishes and has a featured image of a pizza.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station service Agil GABES VILLE is a gas station located in Gabes, Tunisia. It offers a variety of services to its customers, including gasoline, diesel, and car wash. The station is conveniently located near several major roads, making it easy to access.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2293,14 +2980,70 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out plage corniche de gabes located at plage corniche de gabes. 
-This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. 
-With a rating of 3.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.903174189274, 10.105527429198. For more details, visit their website at https://www.google.com/maps/place/plage+corniche+de+gab%C3%A8s/data=!4m7!3m6!1s0x12556fa213cb1dc1:0x3c2078721885641c!8m2!3d33.8909888!4d10.118692!16s%2Fg%2F11b6b6sz4j!19sChIJwR3LE6JvVRIRHGSFGHJ4IDw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Plage destination in Gabes, offering a wide variety of choices for Plage enthusiasts?</t>
+          <t>Day Plan:
+Morning: Explore the historic ruins of Henchir El Houdha (archaeological site)
+Mid-Morning: Visit Musée Archéologique de Gabès (archaeological museum) to learn about the region's history
+Midday: Try local cuisine at Restaurant Pizzeria PINO (Italian restaurant) for a taste of Gabesine flavors
+Afternoon: Relax and unwind at a traditional hammam (bathhouse) for a rejuvenating experience
+Evening: Enjoy scenic views at Oued Griaa (water point) while taking a leisurely walk
+Night: Experience cultural immersion at a traditional Tunisian music concert at Le grain de café (cafeteria)</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Rio Café is a Mexican restaurant located in Sfax, Tunisia. It offers a variety of Mexican dishes, including tortillas, burritos, and tacos. The restaurant is located at km 1 Rte de Gabes, Sfax 3000.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+The Restaurant Palais de la mer in Gabes, Tunisia, with coordinates (33.893769, 10.1147988), offers a specialized culinary experience centered around fish dishes, as highlighted by its reviews. Open from 11:30 to 23:30 during the week, it has received a high rating of 4.5 based on 35 reviews.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2410,14 +3153,75 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a place related to 'Administration locale', check out Region Maritime de Gabes (OMMP) ljh@ lbHry@ bqbs located at Av.Habib Thameur, Gabes 6000. 
-This top-rated destination is perfect for Administration locale and Administration publique regionale lovers. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:15-12:15, 13:00-17:15, but closed on samedi, dimanche. To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website at http://www.ommp.nat.tn/ or call them at 75 270 969.</t>
+          <t>The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find a highly-rated destination related to Administration locale, with a 5.0 rating and specific operating hours?</t>
+          <t>Day Plan:
+Morning:
+- Explore Hotel l'Oasis Gabes, a 4-star hotel offering stunning views of Gabes.
+Mid-Morning:
+- Try local cuisine at "By Omar Coffee Lounge," known for its delectable dishes.
+Midday:
+- Visit the picturesque Plage Corniche de Gabes, offering stunning sea views and various amenities.
+Afternoon:
+- Engage in outdoor activities like swimming or sunbathing at Plage Corniche de Gabes.
+Evening:
+- Visit Port de peche de Gabes, a well-rated port offering breathtaking views.
+Night:
+- Experience cultural immersion at the Region Maritime de Gabes (OMMP), a local administration building with beautiful architecture.</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Costa Cafe crepe is a cafe located in Gabes, Tunisia, at coordinates (33.8776521, 10.092417). It offers a variety of cafe beverages and has a 4.0 rating based on 2 reviews. It is open from 6:00 AM to midnight every day.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Discover "By Omar Coffee Lounge," a must-visit destination located in Gabes. This renowned restaurant invites you to savor delectable cuisine, promising an unforgettable dining experience. Situated at coordinates (33.8776521, 10.092417), "By Omar Coffee Lounge" awaits your presence.
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station service Agil GABES VILLE is a gas station located in Gabes, Tunisia. It offers a variety of services to its customers, including gasoline, diesel, and car wash. The station is conveniently located near several major roads, making it easy to access.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2519,12 +3323,69 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a fun-filled day out, check out Ras El Oueed located at Ras El Oueed, Zoo Chenenni, Gabes. This top-rated destination, perfect for lovers of tourist attractions, offers a range of experiences to choose from. With a rating of 4.2, Ras El Oueed is a must-visit spot. It's open during these hours: 08:00-01:00. To get there, use these GPS coordinates: 33.87861, 10.0618. For more details, visit the website at https://www.google.com/maps/place/Ras+El+Oueed/data=!4m7!3m6!1s0x125571b3cf9092bd:0x1973856a53a8e8d9!8m2!3d33.8664717!4d10.0450059!16s%2Fg%2F11c2q3h_66!19sChIJvZKQz7NxVRIR2eioU2qFcxk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find Ras El Oueed, a top-rated destination for tourist attractions?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Plage el Kazma Gabes, known for its golden sands and clear waters.
+Mid-Morning: Visit Restaurant Fruit De Mer for a delicious seafood lunch, renowned for its fresh fish options and attentive service.
+Midday: Take a guided tour of the Port de peche de Gabes, a vibrant fishing port offering boat maintenance and fishing charters.
+Afternoon: Engage in outdoor activities like swimming or sunbathing at Plage el Kazma Gabes, savoring the coastal atmosphere.
+Evening: Experience cultural immersion at the local Region Maritime de Gabes (OMMP) building, offering insights into the region's maritime administration.
+Night: Indulge in the local culinary delights at My House Lounge, a highly-rated restaurant offering a cozy atmosphere and delectable grilled dishes.</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Rio Café is a Mexican restaurant located in Sfax, Tunisia. It offers a variety of Mexican dishes, including tortillas, burritos, and tacos. The restaurant is located at km 1 Rte de Gabes, Sfax 3000.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Restaurant Fruit De Mer is located in Gabes with the coordinates (33.8776521, 10.092417) and serves a variety of seafood dishes. Based on customer reviews, the restaurant is particularly known for its reasonable prices, fresh fish options, attentive service, and family-friendly atmosphere.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+AGIL is a gas station located in Gabes, Tunisia. It offers a range of services including fuel, auto repair, and car wash. The gas station has a 4.0-star rating based on 19 reviews and is owned by AGIL (proprietaire). It is located at the coordinates (33.8962351, 9.811008) and can be found on Google Maps at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2622,14 +3483,69 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Mchergui farm located at V3GH+FRR Mchergui farm, Rue de l'oasis, Gabes. 
-This top-rated destination is perfect for Attraction touristique lovers and offers a range of Attraction touristique to choose from. 
-With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 33.86083082856, 10.099978627695. For more details, visit their website at https://www.google.com/maps/place/Mchergui+farm/data=!4m7!3m6!1s0x1255714f9e3bc009:0x8e97e5514fcec17d!8m2!3d33.87625!4d10.0795067!16s%2Fg%2F11v00tj264!19sChIJCcA7nk9xVRIRfcHOT1Hll44?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Mchergui farm is a 4.7-rated tourist attraction located in Gabes, Tunisia. The farm offers a variety of experiences, including guided tours, animal encounters, and educational programs. It is located at the coordinates (33.86083082856, 10.099978627695).</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated tourist attraction in Gabes that offers a range of activities and attractions?</t>
+          <t>Day Plan:
+Morning: Arrive in Gabes. Visit the Plage Corniche de Gabes for stunning views and swimming.
+Mid-Morning: Try local cuisine at Restaurant Palais de la mer for seafood specialties.
+Midday: Visit the Port de peche de Gabes to enjoy the fishing culture and boat activities.
+Afternoon: Explore cultural immersion at the Region Maritime de Gabes (OMMP).
+Evening: Enjoy the scenic views at Ras el Oueed while engaging in hiking or fishing.
+Night: Experience the nightlife at My House Lounge, offering grilled dishes and a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Rio Café is a Mexican restaurant located in Sfax, Tunisia. It offers a variety of Mexican dishes, including tortillas, burritos, and tacos. The restaurant is located at km 1 Rte de Gabes, Sfax 3000.
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+Restaurant Palais de la mer is a restaurant located in Gabes, Tunisia with coordinates (33.88997552981, 10.112436063016). This restaurant offers seafood specialties, as indicated by the keyword "poisson" appearing in customer reviews.
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Radio elyssa is a gas station located in Gabes, France, at the coordinates (43.7034285, 7.2661312). It has a rating of 5.0 based on 1 review.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2727,18 +3643,11 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Port de peche de Gabes located at Port de peche de Gabes. 
-This top-rated destination is perfect for Port lovers and offers a range of Port to choose from. 
-With a rating of 4.6, it's a must-visit spot. 
-To get there, use these GPS coordinates: 33.8941017, 10.1138583. 
-For more details, visit their website at https://www.google.com/maps/place/Port+de+p%C3%AAche+de+Gab%C3%A9s/data=!4m7!3m6!1s0x12556f99bba979ef:0x173467aa5be9c825!8m2!3d33.8957021!4d10.1162302!16s%2Fg%2F1211psly!19sChIJ73mpu5lvVRIRJcjpW6pnNBc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA21" t="inlineStr">
-        <is>
-          <t>Where in Gabes can you find a top-rated destination with a range of Port options, boasting a 4.6 rating for its excellence in Port offerings?</t>
-        </is>
-      </c>
+          <t>The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2838,12 +3747,69 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking to explore a top-rated tourist attraction, head to Ras El Oueed. This must-visit destination offers a range of attractions for all ages. Open from 8 AM to 1 AM, it's easy to find using the GPS coordinates (33.87861, 10.0618). For more details, visit their website at https://www.google.com/maps/place/Ras+El+Oueed/data=!4m7!3m6!1s0x125571b3cf9092bd:0x1973856a53a8e8d9!8m2!3d33.8664717!4d10.0450059!16s%2Fg%2F11c2q3h_66!19sChIJvZKQz7NxVRIR2eioU2qFcxk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>If you're looking for a top-rated tourist destination in Gabes, where can you find a range of attractions for all ages?</t>
+          <t>Day Plan:
+Morning: Explore the historical Port de peche de Gabes and witness the bustling fishing industry.
+Mid-Morning: Immerse yourself in the tranquility of Oued Griaa, a charming oasis with stunning natural beauty.
+Midday: Satisfy your taste buds with an authentic Tunisian lunch at the highly-rated La Fiesta restaurant, known for its exceptional pizzas.
+Afternoon: Spend a relaxing afternoon at Plage el Kazma Gabes, enjoying the warm sun, clear waters, and soft white sand.
+Evening: As the sun sets, head to Ras El Oueed for a picturesque stroll and take in the panoramic views.
+Night: Indulge in a delightful dinner at O'TAKE cafe and grill, sampling their delectable cuisine and cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Royale is a highly-rated cafe in Gabes, Tunisia. With a rating of 4.6 out of 5, it offers a variety of cafe-style drinks and food options. The cafe is open from 5:30 AM to 11:30 PM, making it a convenient spot for a morning coffee or an after-dinner treat. Cafe Royale is located at PX8F+9C3 Rte de Gabes, Qibili, and can be contacted by phone at 20 187 027.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+La Fiesta, located in Gabes, Tunisia, is a highly-rated (4.9 stars) restaurant known for its exceptional pizzas. Operating from 10:00 AM to 10:00 PM daily, except for Sundays, La Fiesta is conveniently situated at V4P3+XX9 La Fiesta, shr` lHbyb bwrqyb@ - Avenue Habib Bourguiba.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+So Sweet is a 5-star rated creperie located in Gabes, Tunisia. It is open from 7 am to 3 am and offers a variety of crepes and other sweet treats. The creperie is located at the coordinates (33.8776521, 10.092417).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Shell is a gas station located in Gabes, Tunisia. It offers 24-hour fuel service, a car wash, and a convenience store. The station is situated on Jardin Public avenue Farhat Hached, near the intersection of Av. Farhat Hachad and shr` frHt Hshd. The Shell station has a rating of 3.2 based on 6 reviews.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -2941,19 +3907,11 @@
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for an exciting experience, head to Mchergui farm, located at Rue de l'oasis. 
-This top-rated tourist attraction offers a unique and immersive experience for visitors. 
-With a rating of 4.7, it's a must-visit spot. 
-The farm is open during weekday hours, but closed on specific days. 
-To get there, use the GPS coordinates: 33.86083082856, 10.099978627695. 
-For more details, visit the owner's website at https://www.google.com/maps/place/Mchergui+farm/data=!4m7!3m6!1s0x1255714f9e3bc009:0x8e97e5514fcec17d!8m2!3d33.87625!4d10.0795067!16s%2Fg%2F11v00tj264!19sChIJCcA7nk9xVRIRfcHOT1Hll44?authuser=0&amp;hl=fr&amp;rclk=1</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>Where in Gabes can you find an exceptional tourist attraction with a top rating, offering a captivating experience on Mchergui farm?</t>
-        </is>
-      </c>
+          <t>Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -3049,14 +4007,69 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out plage el Kazma Gabes located at plage el Kazma Gabes. 
-This top-rated destination is perfect for Plage lovers and offers a range of Plage to choose from. 
-With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.8776521, 10.092417.</t>
+          <t>Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>If you're in Gabes and craving a day of relaxation by the sea, what highly-rated Plage destination with a wide selection of Plage should you visit?</t>
+          <t>Day Plan:
+Morning: Exploring Plage Corniche de Gabes
+Mid-Morning: Trying local cuisine at Restaurant Pizzeria PINO
+Midday: Shopping at hypermarche gabes
+Afternoon: Taking a guided tour of Region Maritime de Gabes (OMMP)
+Evening: Relaxing at Hotel l'Oasis Gabes
+Night: Enjoying scenic views at Ras El Oueed</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe EZZAHRA, located at 9F3H+VJ7 Route de Gabes in Medenine, is a popular cafe offering its customers a wide variety of beverages and snacks. Situated at coordinates (33.3497059, 10.4863079), Cafe EZZAHRA boasts a rating of 4.0 based on 6 reviews, indicating its popularity among locals and visitors alike.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+Cafe Resto Le Prince is a restaurant in Gabes, Tunisia, with a rating of 4.3 out of 5 based on 7 reviews. Its exact location is 33.7053164, 8.9659272. The restaurant offers a variety of dishes and has a cozy ambiance. It is a great place to enjoy a meal with friends or family.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+So Sweet is a 5-star rated creperie located in Gabes, Tunisia. It is open from 7 am to 3 am and offers a variety of crepes and other sweet treats. The creperie is located at the coordinates (33.8776521, 10.092417).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Radio elyssa is a gas station located in Gabes, France, at the coordinates (43.7034285, 7.2661312). It has a rating of 5.0 based on 1 review.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3154,12 +4167,70 @@
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>If you're in gabes  and seeking some maritime adventure, head to Port de peche de Gabes located at Port de peche de Gabes. This highly acclaimed port is perfect for seafaring adventurers. With a 4.6 rating, it's a not-to-be-missed spot. To get there, use these GPS coordinates:  33.8941017, 10.1138583.</t>
+          <t>The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Where in Gabes can you embark on a highly acclaimed maritime adventure?</t>
+          <t>Day Plan:
+Morning: Exploring Le Sky Cafe Lounge, enjoy a cup of coffee and take in the cozy atmosphere. 
+Mid-Morning: Visit the Region Maritime de Gabes (OMMP) for a glimpse into the local administration. 
+Midday: Try local cuisine at Montazah Chems. Enjoy traditional Tunisian dishes and international fare. 
+Afternoon: Relax on Plage el Kazma Gabes with stunning views of the Mediterranean Sea, swim, sunbathe, or build sandcastles. 
+Evening: Enjoy an authentic Italian dinner at Restaurant Pizzeria PINO, savor delicious pizzas and pasta. 
+Night: Experience the vibrant atmosphere at "Le grain de café," indulge in a variety of coffee and tea drinks while enjoying live music.</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Sky Cafe Lounge is a cafe located in Gabes, Tunisia. It offers a variety of drinks and snacks, and has a cozy atmosphere. The cafe is located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes, and is open from 8am to 10pm every day.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+**Montazah Chems** is a restaurant located in Gabes, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located in a convenient location, close to the city center and many of the city's attractions. It has a 4.0 rating on Google, based on 20 reviews, and is a popular spot for locals and tourists alike.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station service Agil GABES VILLE is a gas station located in Gabes, Tunisia. It offers a variety of services to its customers, including gasoline, diesel, and car wash. The station is conveniently located near several major roads, making it easy to access.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3257,12 +4328,70 @@
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out plage corniche de gabes located at plage corniche de gabes. This top-rated destination is perfect for Plage lovers and offers a range of categories. With a rating of 3.7, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 33.903174189274, 10.105527429198. For more details, visit their link at https://www.google.com/maps/place/plage+corniche+de+gab%C3%A8s/data=!4m7!3m6!1s0x12556fa213cb1dc1:0x3c2078721885641c!8m2!3d33.8909888!4d10.118692!16s%2Fg%2F11b6b6sz4j!19sChIJwR3LE6JvVRIRHGSFGHJ4IDw?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated Plage destination in Gabes with a 3.7 rating and GPS coordinates 33.903174189274, 10.105527429198?</t>
+          <t>Day Plan:
+Morning: Explore Plage Corniche de Gabes (Stretch of sandy shores)
+Mid-Morning: Enjoy local cuisine at Sami Restaurant Turc (Turkish restaurant)
+Midday: Visit Mchergui farm (Tourist attraction)
+Afternoon: Relax with a guided tour of Hotel l'Oasis Gabes (4-star hotel)
+Evening: Participate in an event at Region Maritime de Gabes (Local administration building)
+Night: Experience cultural immersion at Le grain de cafe (Cafeteria)</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Costa Cafe crepe is a cafe located in Gabes, Tunisia, at coordinates (33.8776521, 10.092417). It offers a variety of cafe beverages and has a 4.0 rating based on 2 reviews. It is open from 6:00 AM to midnight every day.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.
+Sami Restaurant Turc is a Turkish restaurant located in Gabes, Tunisia. It has a 4.7 rating on Google and is open from 11:00 to 22:00 during the week, but is closed on Sundays. The restaurant is known for its traditional Turkish cuisine and has received positive reviews for its food and service.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a 4.7-rated tourist attraction located in Gabes, Tunisia. The farm offers a variety of experiences, including guided tours, animal encounters, and educational programs. It is located at the coordinates (33.86083082856, 10.099978627695).
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+**Gare Medou Matmata**
+Located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417), Gare Medou Matmata is a petrol station offering a range of services to motorists. It is easily accessible from Avenue Bechir El Jaziri - shr` lbshyr ljzyry. With a rating of 5.0 based on 1 review, Gare Medou Matmata is highly praised for its services.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3356,14 +4485,70 @@
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a nice Point d'eau, check out oued griaa located at oued griaa, Gabes. 
-This top-rated destination is perfect for Point d'eau lovers. 
-With a rating of 3.8, it's a must-visit spot. To get there, use these GPS coordinates: 33.888301388934, 10.106418468977.</t>
+          <t>Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find the highly rated Point d'eau, oued griaa, and what are its GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Plage el Kazma Gabes, soaking in the sun, and enjoying the picturesque golden sands and clear waters at this highly recommended beach.
+Mid-Morning: Take a cultural immersion at the Ras El Oueed, a popular tourist attraction with daily hours, marveling at its historical significance and unique ambiance.
+Midday: Try local cuisine at Pronto Pizza, a highly-rated restaurant known for its delicious pizzas and friendly service.
+Afternoon: Visit the historical landmark Port de peche de Gabes, a port with a high rating, and learn about its significance.
+Evening: Relax with a rejuvenating spa experience at My House Lounge, a café and grill restaurant known for its cozy atmosphere and welcoming ambiance.
+Night: Enjoy scenic views at Oued Griaa, a charming point of water with a beautiful setting, perfect for capturing stunning evening shots.</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Rio Café is a Mexican restaurant located in Sfax, Tunisia. It offers a variety of Mexican dishes, including tortillas, burritos, and tacos. The restaurant is located at km 1 Rte de Gabes, Sfax 3000.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+Restaurant Fruit De Mer is a dining establishment in Gabes, Tunisia. It has a 4.0 rating based on 119 reviews, and is open from 11:15 AM to 11:00 PM. The restaurant offers a variety of seafood dishes and is known for its affordable prices, fresh fish, attentive service and family-friendly atmosphere. It is located at Gabes, Tunisia, and can be contacted at 98 507 323.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Shell is a gas station located in Gabes, Tunisia. It offers 24-hour fuel service, a car wash, and a convenience store. The station is situated on Jardin Public avenue Farhat Hached, near the intersection of Av. Farhat Hachad and shr` frHt Hshd. The Shell station has a rating of 3.2 based on 6 reviews.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3457,15 +4642,11 @@
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a refreshing source of water, check out `wyn@ located at `wyn@, Gabes. 
-This top-rated destination is perfect for Source d'eau lovers and offers a rating of 3.7.  To get there, use these GPS coordinates: 39.631738, -75.657103.</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated (3.7 stars) source of water for a refreshing stop in Gabes?</t>
-        </is>
-      </c>
+          <t>Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -3557,12 +4738,70 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Oued de Gabes located at Oued de Gabes, Gabes. This top-rated destination is perfect for Cours d'eau lovers and offers a range of categories to choose from. With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.9, 10.11667. For more details, visit their website at https://www.google.com/maps/place/Oued+de+Gab%C3%A8s/data=!4m7!3m6!1s0x12556fdb10733d37:0xbf29a80616e9193b!8m2!3d33.8866669!4d10.0895154!16s%2Fg%2F11byvhg3b2!19sChIJNz1zENtvVRIROxnpFgaoKb8?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Oued de Gabes is a river located in Gabes, Tunisia. It offers natural beauty and is a popular spot for locals and tourists alike. The river is surrounded by lush greenery and is a great place to relax and enjoy the scenery. Oued de Gabes is also a popular spot for fishing and birdwatching.</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>Where is the top-rated Cours d'eau destination in Gabes, and what are its GPS coordinates?</t>
+          <t>Day Plan:
+Morning: Explore Ras El Oueed, a popular tourist attraction with a 4.2 rating, offering a variety of activities.
+Mid-Morning: Visit the Gabes train station, a major transportation hub and a popular tourist destination.
+Midday: Try local cuisine at Pronto Pizza, a highly-rated restaurant serving a variety of pizzas with a 4.8/5 stars rating.
+Afternoon: Relax and enjoy the scenic views at Plage Corniche de Gabes, a beautiful beach with stunning views of the Mediterranean Sea.
+Evening: Participate in the local culture at the Oued Griaa, a charming point of water, a popular destination for locals and tourists.
+Night: Experience the lively atmosphere at My House Lounge, a café and grill restaurant with a warm ambiance and positive reviews.</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Royale is a highly-rated cafe in Gabes, Tunisia. With a rating of 4.6 out of 5, it offers a variety of cafe-style drinks and food options. The cafe is open from 5:30 AM to 11:30 PM, making it a convenient spot for a morning coffee or an after-dinner treat. Cafe Royale is located at PX8F+9C3 Rte de Gabes, Qibili, and can be contacted by phone at 20 187 027.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+TARTOUGA, a restaurant in Gabès (Tunisia), is rated 4 out of 5 stars on Google by 1 reviewer. Located at coordinates (33.8776521, 10.092417), it is open from 10:00 AM to 11:00 PM.
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a tourist attraction in Gabes, Tunisia. It is located at the coordinates (33.87861, 10.0618) and offers a variety of activities for visitors. The site is open from 08:00 to 01:00 every day and has received a 4.2 rating from 54 reviews on Google Maps. Visitors can explore the site and its surroundings, and learn about the local history and culture.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+AGIL is a gas station located in Gabes, Tunisia. It offers a range of services including fuel, auto repair, and car wash. The gas station has a 4.0-star rating based on 19 reviews and is owned by AGIL (proprietaire). It is located at the coordinates (33.8962351, 9.811008) and can be found on Google Maps at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3656,14 +4895,70 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out elGualta. 
-This top-rated destination is perfect for Lac lovers and offers a range of categories to choose from. 
-With a rating of 3.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8776521, 10.092417.</t>
+          <t>ElGualta is a lake located in Gabes, Tunisia. It is approximately 3980 meters in size and has an average rating of 3.0 stars. The main category of ElGualta is Lac.</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>Where in Gabès can you experience top-notch lakeside activities with GPS coordinates 33.8776521, 10.092417?</t>
+          <t>Day Plan:
+Morning: Explore the Plage Corniche de Gabes, enjoying its stunning Mediterranean Sea views and amenities.
+Mid-Morning: Visit the Region Maritime de Gabes (OMMP) for local administration services and learn about the city's governance.
+Midday: Try local cuisine at O'TAKE cafe and grill restaurant, savoring their highly-rated dishes.
+Afternoon: Participate in outdoor activities like swimming, sunbathing, or relaxing at the scenic Ras El Oueed tourist attraction.
+Evening: Engage in cultural immersion at the Le grain de café cafeteria, enjoying their cozy atmosphere and delicious coffee and pastries.
+Night: Experience the vibrant atmosphere of La Crepe Rit creperie, sampling their delectable sweet and savory crepes.</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Golf Beach Gabes is a cafe located in Gabes, Tunisia, known for its 4.7-star rating and 24-hour operation. Nestled on Golf Beach in Gabes Plage, it boasts a convenient location close to the coast. Its primary category is cafe, and it offers a welcoming atmosphere for guests.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+PALAIS D'OR. Restaurant located in Gabes, Tunisia (33.8776521, 10.092417), specialized in Plat.. Contact the restaurant at: +21675238240.
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a tourist attraction in Gabes, Tunisia. It is located at the coordinates (33.87861, 10.0618) and offers a variety of activities for visitors. The site is open from 08:00 to 01:00 every day and has received a 4.2 rating from 54 reviews on Google Maps. Visitors can explore the site and its surroundings, and learn about the local history and culture.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+AGIL is a gas station located in Gabes, Tunisia. It offers a range of services including fuel, auto repair, and car wash. The gas station has a 4.0-star rating based on 19 reviews and is owned by AGIL (proprietaire). It is located at the coordinates (33.8962351, 9.811008) and can be found on Google Maps at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3773,12 +5068,69 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out ATLAS World located at ATLAS World, km4 Rte de Gabes, Sfax. This top-rated destination is perfect for Parc de loisirs lovers and offers a range of Parc de loisirs to choose from. With a rating of 3.6, it's a must-visit spot. It's open during these hours: Ouvert 24h/24. To get there, use these GPS coordinates: 34.7470235, 10.7601774. For more details, visit their website at https://www.atlasworldsfax.com/ or call them at 23 003 004.</t>
+          <t>ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated destination in Gabes, perfect for Parc de loisirs enthusiasts, located at ATLAS World with a high rating of 3.6?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring Plage el Kazma Gabes, a popular beach with golden sands and clear waters. Relax and soak in the sun while enjoying the picturesque coastal atmosphere.
+Mid-Morning: Visit the Mchergui farm, a tourist attraction offering guided tours, animal encounters, and educational programs. Learn about the local flora and fauna while interacting with friendly farm animals.
+Midday: Try local cuisine at food club Gabes, a pizzeria with high ratings for its delicious pizzas. Savor the authentic flavors of Tunisian cuisine while enjoying the vibrant atmosphere of the restaurant.
+Afternoon: Discover the cultural heritage of Gabes by visiting the Region Maritime de Gabes (OMMP). Learn about the local administration and its services while immersing yourself in the historical significance of the region.
+Evening: Indulge in a relaxing spa experience at a local hotel. Unwind with a massage or body treatment, rejuvenating your body and mind after a day of exploration.
+Night: Experience the lively ambiance of "O'TAKE," a cafe and grill restaurant. Relish the delectable cuisine and enjoy the warm hospitality offered by the establishment.</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Majless coffee lounge is a cafe located at PX7F+M8R El Majless coffee lounge, Rte de Gabes, Kebili. It has a rating of 4.5 out of 5, with 11 reviews and a featured image. It is open from 08:00-23:00 and closed on []. The phone number is 23 494 420. Its main category is Cafe, and its categories are ['Cafe']. It is located at coordinates (33.7053164, 8.9659272).
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Piccolino is a restaurant located in Gabes, Tunisia, offering a diverse menu including pizzas, burgers, salads, and seafood dishes. Situated at 7VW8+QJ7 Rue de Bizerte, it operates daily from 7 AM to 11:45 PM. With a rating of 4.1 based on 136 reviews, it is known for its reasonable prices, attentive service, and delicious sauces.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a 4.7-rated tourist attraction located in Gabes, Tunisia. The farm offers a variety of experiences, including guided tours, animal encounters, and educational programs. It is located at the coordinates (33.86083082856, 10.099978627695).
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Chenini Nahal, Gabes, Tunisia. It offers fuel, lubricants, and other automotive services. The gas station is well-rated by customers, with an average rating of 5.0 out of 5.0. It is located at latitude 33.8976989 and longitude 10.0824252.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3880,12 +5232,77 @@
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for something fun to do, check out Ras El Oueed located at Ras El Oueed, Zoo Chenenni, Gabes. This top-rated destination is perfect for Attraction touristique lovers and offers a range of categories to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: 08:00-01:00. To get there, use these GPS coordinates: 33.87861, 10.0618. For more details, visit their website at https://www.google.com/maps/place/Ras+El+Oueed/data=!4m7!3m6!1s0x125571b3cf9092bd:0x1973856a53a8e8d9!8m2!3d33.8664717!4d10.0450059!16s%2Fg%2F11c2q3h_66!19sChIJvZKQz7NxVRIR2eioU2qFcxk?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Ras El Oueed is a tourist attraction in Gabes, Tunisia. It is located at the coordinates (33.87861, 10.0618) and offers a variety of activities for visitors. The site is open from 08:00 to 01:00 every day and has received a 4.2 rating from 54 reviews on Google Maps. Visitors can explore the site and its surroundings, and learn about the local history and culture.</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Attraction touristique destination in Gabes, Tunisia, open from 8:00 AM to 1:00 AM?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Take a guided tour of **Gare Medou Matmata**, a highly-rated petrol station showcasing Tunisia's automotive culture.
+**Mid-Morning:**
+- Explore **ATLAS World** amusement park in Sfax, enjoying thrilling rides and family-friendly entertainment.
+**Midday:**
+- Savor a delightful lunch at **Pronto Pizza** in Gabes, known for its delicious pizzas and warm ambience.
+**Afternoon:**
+- Embark on a scenic hike to **Oued Griaa**, a charming water source offering tranquil views and natural beauty.
+**Evening:**
+- Indulge in traditional Tunisian cuisine at **Restaurant Loasis Gabes**, rated 4.0 with a warm and inviting atmosphere.
+**Night:**
+- Relax and rejuvenate at **So Sweet**, a highly-rated creperie serving a variety of sweet treats and offering a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Costa Cafe crepe is a cafe located in Gabes, Tunisia, at coordinates (33.8776521, 10.092417). It offers a variety of cafe beverages and has a 4.0 rating based on 2 reviews. It is open from 6:00 AM to midnight every day.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+Restaurant Loasis Gabes is a restaurant located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417). The restaurant offers a variety of dishes and is rated 4.0 out of 5 stars by its customers. It is open every day except for Sunday and Monday.
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+So Sweet is a 5-star rated creperie located in Gabes, Tunisia. It is open from 7 am to 3 am and offers a variety of crepes and other sweet treats. The creperie is located at the coordinates (33.8776521, 10.092417).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+**Gare Medou Matmata**
+Located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417), Gare Medou Matmata is a petrol station offering a range of services to motorists. It is easily accessible from Avenue Bechir El Jaziri - shr` lbshyr ljzyry. With a rating of 5.0 based on 1 review, Gare Medou Matmata is highly praised for its services.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -3983,14 +5400,11 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a fun attraction, check out Mchergui farm located at Rue de l'oasis. This top-rated destination is perfect for Attraction touristique lovers and offers a range of Attraction touristique to choose from. With a rating of 4.7, it's a must-visit spot with many positive guest reviews mentioning "experience". The link to their website isn't available but you can get more details or call them at for more information.</t>
-        </is>
-      </c>
-      <c r="AA33" t="inlineStr">
-        <is>
-          <t>Where is the top-rated Attraction touristique destination in Gabes that offers a range of choices and is a must-visit spot with positive guest reviews mentioning the "experience"?</t>
-        </is>
-      </c>
+          <t>Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -4086,12 +5500,69 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a quality supermarket, check out Tunisie,Gabes located at W422+M4F Tunisie,Gabes, Gabes. This top-rated destination is perfect for grocery enthusiasts and offers a range of products to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Tunisie,Gab%C3%A8s/data=!4m7!3m6!1s0x12556f0db6babfc1:0xfe70f6706e25fc6c!8m2!3d33.9016819!4d10.1002814!16s%2Fg%2F11tmxhx177!19sChIJwb-6tg1vVRIRbPwlbnD2cP4?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>If you're seeking a high-quality supermarket in Gabes, where can you find a top-rated destination with an exceptional 5.0 rating, offering an extensive product selection?</t>
+          <t>Day Plan:
+Morning: Explore the cultural richness of the Region Maritime de Gabes (OMMP) by taking a guided tour of the local administration building.
+Mid-Morning: Indulge in a taste of Tunisian cuisine at food club Gabes, a highly-rated pizzeria known for its delicious pizzas.
+Midday: Immerse yourself in the tranquility of Oued Griaa, a charming point of water that offers a serene oasis in the heart of the city.
+Afternoon: Visit the Gabes train station, an architectural landmark that serves as a vital transportation hub for the region.
+Evening: Experience the vibrant atmosphere of Le grain de café, a cozy cafeteria renowned for its friendly staff and delightful coffee and tea offerings.
+Night: Relish the authentic flavors of Chez mon ex, a renowned creperie that captivates foodies with its delectable crepes, leaving you with a sweet memory of your time in Gabes.</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe EZZAHRA, located at 9F3H+VJ7 Route de Gabes in Medenine, is a popular cafe offering its customers a wide variety of beverages and snacks. Situated at coordinates (33.3497059, 10.4863079), Cafe EZZAHRA boasts a rating of 4.0 based on 6 reviews, indicating its popularity among locals and visitors alike.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Baniola creperie by RoO, located in Gabes (33.8776521, 10.092417), is a highly-rated restaurant (5.0 stars from 3 reviews) specializing in crepes. With its workday hours from 8 am to midnight, Baniola creperie by RoO offers a convenient dining experience for both breakfast and dinner.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Shell is a gas station located in Gabes, Tunisia. It offers 24-hour fuel service, a car wash, and a convenience store. The station is situated on Jardin Public avenue Farhat Hached, near the intersection of Av. Farhat Hachad and shr` frHt Hshd. The Shell station has a rating of 3.2 based on 6 reviews.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4197,12 +5668,69 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a top-rated Cafe, check out Le Sky Cafe Lounge located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes. This popular destination offers a range of categories like Cafe and Bar lounge to choose from. With a rating of 4.0 based on 64 reviews, it's a must-visit spot. It's open during these hours: 08:00-22:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website at https://www.google.com/maps/place/Le+Sky+Caf%C3%A9+Lounge/data=!4m7!3m6!1s0x12556fa313e84d3d:0x728a5ea8ee08df03!8m2!3d33.8883339!4d10.1160971!16s%2Fg%2F1ptv_zkgs!19sChIJPU3oE6NvVRIRA98I7qheinI?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 070 722.</t>
+          <t>Le Sky Cafe Lounge is a cafe located in Gabes, Tunisia. It offers a variety of drinks and snacks, and has a cozy atmosphere. The cafe is located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes, and is open from 8am to 10pm every day.</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe and Bar lounge with a rating of 4.0 in Gabes?</t>
+          <t>Day Plan:
+Morning: Explore the lively marketplace of Gabes, where you can shop for local crafts and souvenirs.
+Mid-Morning: Visit the Hotel l'Oasis Gabes to relax by their swimming pool and indulge in a delicious meal at their restaurant.
+Midday: Satisfy your taste buds with a flavorful lunch of sandwiches at the highly-rated Restaurant Sahlouba.
+Afternoon: Escape to the picturesque Plage el Kazma Gabes and enjoy the sun, sand, and crystal-clear waters.
+Evening: Embark on a guided tour of the Region Maritime de Gabes to gain insights into the local maritime industry.
+Night: Experience the vibrant nightlife at Le Sky Cafe Lounge, where you can enjoy a delightful drink and ambiance.</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+Restaurant Sahlouba is a highly-rated (4.8/5) restaurant located in Gabes, Tunisia. It specializes in sandwiches, with reviewers particularly praising their delicious offerings. The restaurant can be found at coordinates (33.8776521, 10.092417) and is accessible via the provided link.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4304,14 +5832,11 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a delicious meal, check out My House Lounge located at V3HR+QMP My House Lounge. This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of options to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-23:00. To get there, use these GPS coordinates: 33.8776521, 10.092417.</t>
-        </is>
-      </c>
-      <c r="AA36" t="inlineStr">
-        <is>
-          <t>Where in Gabes can you find a highly-rated Cafe et restaurant de grillades establishment called My House Lounge, known for its delectable dining options?</t>
-        </is>
-      </c>
+          <t>My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -4415,12 +5940,69 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a delicious pizza, check out Pronto Pizza located at V3HV+FQH Pronto pizza, Gabes. This top-rated pizzeria is perfect for pizza lovers and offers a range of pizzas to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 12:00-00:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website or call them at 51 800 001.</t>
+          <t>Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated pizza restaurant (4.8) with a wide selection in Gabes?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Plage Corniche de Gabes beach, offering breathtaking views and inviting swims.
+Mid-Morning: Take a guided tour of the Region Maritime de Gabes (OMMP) for insights into local administration and public services.
+Midday: Savor authentic Tunisian cuisine at the highly-rated Restaurant Palais de la mer, renowned for its fresh seafood specialties.
+Afternoon: Embark on a shopping expedition at Tunisie, Gabes, a supermarket offering a wide selection of local products and souvenirs.
+Evening: Relax and rejuvenate at My House Lounge, a welcoming café and grill with a cozy ambiance and delectable offerings.
+Night: Experience the vibrant nightlife at Cafe Les 4 Saisons, a highly-rated creperie offering mouthwatering crepes and lively ambiance.</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Royale is a highly-rated cafe in Gabes, Tunisia. With a rating of 4.6 out of 5, it offers a variety of cafe-style drinks and food options. The cafe is open from 5:30 AM to 11:30 PM, making it a convenient spot for a morning coffee or an after-dinner treat. Cafe Royale is located at PX8F+9C3 Rte de Gabes, Qibili, and can be contacted by phone at 20 187 027.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Restaurant Palais de la mer is a restaurant located in Gabes, Tunisia with coordinates (33.88997552981, 10.112436063016). This restaurant offers seafood specialties, as indicated by the keyword "poisson" appearing in customer reviews.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+AGIL is a gas station located in Gabes, Tunisia. It offers a range of services including fuel, auto repair, and car wash. The gas station has a 4.0-star rating based on 19 reviews and is owned by AGIL (proprietaire). It is located at the coordinates (33.8962351, 9.811008) and can be found on Google Maps at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4526,12 +6108,70 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great place to eat, check out Restaurant Fruit De Mer located at Restaurant Fruit De Mer, Gabes. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 11:15-23:00, but closed on . To get there, use these GPS coordinates: 33.8776521, 10.092417.</t>
+          <t>Restaurant Fruit De Mer is located in Gabes with the coordinates (33.8776521, 10.092417) and serves a variety of seafood dishes. Based on customer reviews, the restaurant is particularly known for its reasonable prices, fresh fish options, attentive service, and family-friendly atmosphere.</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated restaurant with a variety of food options and a convenient location in Gabes?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Ras el Oueed, enjoying its scenic beauty and historical landmarks.
+Mid-Morning: Visit the Port de peche de Gabes, observing the bustling fishing activities and embarking on a fishing charter.
+Midday: Savor a delicious meal at Pizzeria Pronto Pizza, savoring its highly-rated pizzas and local flavors.
+Afternoon: Take a rejuvenating break at Hotel Ben Njima, indulging in its luxurious amenities and exceptional service.
+Evening: Participate in a guided tour of the Region Maritime de Gabes, gaining insights into local administration and public services.
+Night: Experience cultural immersion at Le grain de café, enjoying its cozy atmosphere and sampling traditional coffee and pastries.</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Royale is a highly-rated cafe in Gabes, Tunisia. With a rating of 4.6 out of 5, it offers a variety of cafe-style drinks and food options. The cafe is open from 5:30 AM to 11:30 PM, making it a convenient spot for a morning coffee or an after-dinner treat. Cafe Royale is located at PX8F+9C3 Rte de Gabes, Qibili, and can be contacted by phone at 20 187 027.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+Pizza Chamchat is a restaurant located in Gabes, Tunisia, offering a variety of dishes. It is situated at coordinates (33.8776521, 10.092417) and is open from Monday to Sunday from 10:00 AM to 22:00 PM. With a rating of 4.4, this restaurant has received positive feedback from customers.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Shell is a gas station located in Gabes, Tunisia. It offers 24-hour fuel service, a car wash, and a convenience store. The station is situated on Jardin Public avenue Farhat Hached, near the intersection of Av. Farhat Hachad and shr` frHt Hshd. The Shell station has a rating of 3.2 based on 6 reviews.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4641,12 +6281,69 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great dining experience, check out Le 52 located at Le 52, 52 shr` lHbyb bwrqyb@ - Avenue Habib Bourguiba, Gabes 6000. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 12:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 33.887350025839, 10.109272723559. For more details, visit their website at https://www.facebook.com/RestoLe52/ or call them at 46 525 252.</t>
+          <t>Le 52 is a restaurant located in Gabes, Tunisia. It offers a variety of dishes including pizza, pasta, and meat dishes. The restaurant has received positive reviews for its food and service. It is closed on Sundays and is open from 12:00 PM to 10:00 PM on all other days of the week.</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated restaurant in Gabes with a rating of 4.3 and a prime location?</t>
+          <t>Day Plan:
+Morning: Exploring Golf Beach Gabes
+Mid-Morning: Trying local cuisine at Restaurant le roi bleu
+Midday: Visiting the Port de peche de Gabes
+Afternoon: Enjoying swimming at Plage el Kazma Gabes
+Evening: Relaxing with a massage at Hotel l'Oasis Gabes
+Night: Participating in an event at Region Maritime de Gabes (OMMP)</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Golf Beach Gabes is a cafe located in Gabes, Tunisia, known for its 4.7-star rating and 24-hour operation. Nestled on Golf Beach in Gabes Plage, it boasts a convenient location close to the coast. Its primary category is cafe, and it offers a welcoming atmosphere for guests.
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+Restaurant le roi bleu is a restaurant located in Gabes, Tunisia, at the coordinates (33.884506881014, 10.1023851976). It is open from 12:00-16:00 and 18:00-21:00, and is closed on Saturdays. The restaurant has a rating of 4.5 stars on Google, and offers a wide variety of dishes.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a tourist attraction in Gabes, Tunisia. It is located at the coordinates (33.87861, 10.0618) and offers a variety of activities for visitors. The site is open from 08:00 to 01:00 every day and has received a 4.2 rating from 54 reviews on Google Maps. Visitors can explore the site and its surroundings, and learn about the local history and culture.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+AGIL is a gas station located in Gabes, Tunisia. It offers a range of services including fuel, auto repair, and car wash. The gas station has a 4.0-star rating based on 19 reviews and is owned by AGIL (proprietaire). It is located at the coordinates (33.8962351, 9.811008) and can be found on Google Maps at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4752,14 +6449,70 @@
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a place to eat, check out PALAIS D'OR located at V4M4+WQW PALAIS D'OR, Gabes. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.1, it's a must-visit spot. It's open during these hours: 09:00-17:00, but closed on . To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website or call them at 75 238 240.</t>
+          <t>PALAIS D'OR. Restaurant located in Gabes, Tunisia (33.8776521, 10.092417), specialized in Plat.. Contact the restaurant at: +21675238240.</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>What is the name of the top-rated restaurant in Gabes, located at V4M4+WQW PALAIS D'OR and open from 09:00-17:00?</t>
+          <t>Day Plan:
+Morning: Exploring Gabes at Plage Corniche de Gabes
+Mid-Morning: Trying local cuisine at Restaurant Pizzeria PINO
+Midday: Visiting the historic Port de peche de Gabes
+Afternoon: Enjoying scenic views at Ras El Oueed
+Evening: Participating in a cooking class at "Le grain de café"
+Night: Relaxing with a massage at Hôtel BEN NJIMA</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe EZZAHRA, located at 9F3H+VJ7 Route de Gabes in Medenine, is a popular cafe offering its customers a wide variety of beverages and snacks. Situated at coordinates (33.3497059, 10.4863079), Cafe EZZAHRA boasts a rating of 4.0 based on 6 reviews, indicating its popularity among locals and visitors alike.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+CONSERVERIE GABES TIC TAC is a restaurant located in Gabes, Tunisia. The restaurant is open from 09:00 to 19:00 and is closed on Fridays. The restaurant has a rating of 5.0 and is located at the coordinates (33.8776521, 10.092417).
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a tourist attraction in Gabes, Tunisia. It is located at the coordinates (33.87861, 10.0618) and offers a variety of activities for visitors. The site is open from 08:00 to 01:00 every day and has received a 4.2 rating from 54 reviews on Google Maps. Visitors can explore the site and its surroundings, and learn about the local history and culture.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -4869,14 +6622,11 @@
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>If you're searching for a must-visit dining destination in Gabes, look no further than Restaurant La Luna Italien Gabes located at 21 Av. Farhat Hachad - shr` frHt Hshd. This top-rated restaurant holds a rating of 4.2 and welcomes patrons 24 hours a day. With its focus on Restaurant cuisine, it offers a delectable range of dining options to choose from. For additional information, visit their website at https://fr-fr.facebook.com/RestaurantLaLuna%3Ffilter%3D3 or contact them via phone at 23 805 263.</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>Where is the highly-rated 24-hour dining destination in Gabes with a focus on Restaurant cuisine that's open 24 hours a day and located at 21 Av. Farhat Hachad - shr` frHt Hshd?</t>
-        </is>
-      </c>
+          <t>Restaurant La Luna Italien Gabes, a highly rated (4.2/5) eatery with a 24/7 opening policy, is situated in the bustling city of Gabes, Tunisia. Nestled in the heart of 21 Av. Farhat Hachad - shr` frHt Hshd, the establishment is easily accessible to locals and visitors alike. Boasting a delectable menu and a cozy ambiance, the restaurant specializes in Italian cuisine, promising an unforgettable culinary experience.</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -4980,12 +6730,69 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a great place to relax, Le Sky Cafe Lounge is the perfect spot. Located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes, this popular destination boasts a 4.0-star rating and offers a cozy atmosphere for enjoying a cup of coffee or catching up with friends. With its convenient hours of operation from 08:00-22:00, you can unwind and enjoy a break from the hustle and bustle of the city. For more information, visit their website or give them a call at 22 070 722.</t>
+          <t>Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>Where is the cozy café with a 4.0-star rating located in Gabes, perfect for unwinding and enjoying a cup of coffee?</t>
+          <t>Day Plan:
+Morning: Explore Plage el Kazma Gabes, a beautiful beach with stunning views and soft, white sand.
+Mid-Morning: Visit Oued Griaa, a charming point of water with a tranquil setting.
+Midday: Try local cuisine at Piccolino, a restaurant offering a diverse menu and reasonable prices.
+Afternoon: Engage in outdoor activities at ATLAS World, an amusement park with rides, games, and a playground.
+Evening: Relax with a spa treatment at My House Lounge, a café and grill restaurant with a cozy ambiance.
+Night: Experience cultural immersion at the Region Maritime de Gabes (OMMP), a local administration building offering public services.</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Piccolino is a restaurant located in Gabes, Tunisia, offering a diverse menu including pizzas, burgers, salads, and seafood dishes. Situated at 7VW8+QJ7 Rue de Bizerte, it operates daily from 7 AM to 11:45 PM. With a rating of 4.1 based on 136 reviews, it is known for its reasonable prices, attentive service, and delicious sauces.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station de taxi Chenini is a local taxi station located in Gabès, Tunisia. It has been rated 4.0 stars out of 5 by previous customers and is open from 6:00 AM to 6:00 PM. The taxi station is situated at the coordinates (33.87861, 10.0618) and offers taxi services to the local community.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5087,14 +6894,71 @@
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for something fun to do, check out My House Lounge located at V3HR+QMP My House Lounge. 
-This top-rated destination is perfect for Cafe et restaurant de grillades and offers a range of Cafe et restaurant de grillades to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open during these hours: 08:00-23:00, but closed on []. To get there, use these GPS coordinates: 33.8776521, 10.092417.</t>
+          <t>My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find the highly rated My House Lounge, a top destination for Cafe et restaurant de grillades?</t>
+          <t>Day Plan:
+Morning: Exploring **Plage Corniche de Gabes**
+Mid-Morning: Trying local cuisine at **Restaurant Pizzeria La Perla**
+Midday: Visiting **Port de peche de Gabes**
+Afternoon: Enjoying sunbathing and swimming at **Plage Corniche de Gabes**
+Evening: Relaxing with a massage at **My House Lounge**
+Night: Participating in a lively music event at **Le grain de café**</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe EZZAHRA, located at 9F3H+VJ7 Route de Gabes in Medenine, is a popular cafe offering its customers a wide variety of beverages and snacks. Situated at coordinates (33.3497059, 10.4863079), Cafe EZZAHRA boasts a rating of 4.0 based on 6 reviews, indicating its popularity among locals and visitors alike.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Restaurant Pizzeria La Perla is a restaurant located in Gabes, Tunisia (33.8759875, 10.0929339). 
+It has a rating of 4.3 out of 5 and is open from 11:00 to 22:00, except on Sundays. 
+The restaurant offers a variety of dishes and has a featured image of a pizza.
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+AGIL is a gas station located in Gabes, Tunisia. It offers a range of services including fuel, auto repair, and car wash. The gas station has a 4.0-star rating based on 19 reviews and is owned by AGIL (proprietaire). It is located at the coordinates (33.8962351, 9.811008) and can be found on Google Maps at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5196,13 +7060,71 @@
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a delicious Italian meal, look no further than Restaurant Pizzeria Pino. Located at 144 shr` lHbyb bwrqyb@ - Avenue Habib Bourguiba, this top-rated destination is perfect for those who love Italian cuisine. 
-With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: (33.887350025839, 10.109272723559). For more details, visit their website or call them at 75 272 010.</t>
+          <t>Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Italian restaurant in Gabes, with GPS coordinates (33.887350025839, 10.109272723559) and a 4.1 rating, perfect for a delicious Italian meal?</t>
+          <t>Day Plan:
+Morning: Exploring Plage Corniche de Gabes
+Mid-Morning: Trying local cuisine at Restaurant Pizzeria La Perla
+Midday: Relaxing with a massage at a spa in Hotel l'Oasis Gabes
+Afternoon: Taking a guided tour of the Region Maritime de Gabes
+Evening: Enjoying a romantic dinner at BIBO
+Night: Participating in a guided stargazing event at Mchergui farm</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+Restaurant Pizzeria La Perla is a restaurant located in Gabes, Tunisia (33.8759875, 10.0929339). 
+It has a rating of 4.3 out of 5 and is open from 11:00 to 22:00, except on Sundays. 
+The restaurant offers a variety of dishes and has a featured image of a pizza.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+So Sweet is a 5-star rated creperie located in Gabes, Tunisia. It is open from 7 am to 3 am and offers a variety of crepes and other sweet treats. The creperie is located at the coordinates (33.8776521, 10.092417).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5308,12 +7230,76 @@
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great Restaurant experience, check out Restaurant Palais de la mer located at V4V7+GW3 Restaurant Palais de la mer, Av.Habib Thameur, Gabes. This top-rated destination is perfect for those who love Restaurant and offers a range of Restaurant categories to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 11:30-23:30, but closed on []. To get there, use these GPS coordinates: 33.88997552981, 10.112436063016. For more details, visit their website at  or call them at 75 271 142.</t>
+          <t>Restaurant Palais de la mer is a restaurant located in Gabes, Tunisia with coordinates (33.88997552981, 10.112436063016). This restaurant offers seafood specialties, as indicated by the keyword "poisson" appearing in customer reviews.</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>Where can you find a top-rated Restaurant serving a variety of Restaurant categories in Gabes with a rating of 4.5 and GPS coordinates 33.88997552981, 10.112436063016?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Exploring the picturesque Ras El Oueed, capturing the stunning views of the natural oasis.
+**Mid-Morning:**
+- Indulging in a breakfast treat at O'TAKE, savoring the delectable offerings amidst a cozy ambiance.
+**Midday:**
+- Visiting the fascinating Port de peche de Gabes, witnessing the bustling atmosphere of the local fishing industry.
+**Afternoon:**
+- Relaxing on the sandy shores of Plage Corniche de Gabes, enjoying the coastal breeze and soaking up the sun.
+**Evening:**
+- Sampling traditional Tunisian cuisine at Montazah Chems, delighting in the authentic flavors and warm hospitality.
+**Night:**
+- Exploring the cultural heritage of Gabes at the Region Maritime de Gabes (OMMP), gaining insights into the region's history.</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Costa Cafe crepe is a cafe located in Gabes, Tunisia, at coordinates (33.8776521, 10.092417). It offers a variety of cafe beverages and has a 4.0 rating based on 2 reviews. It is open from 6:00 AM to midnight every day.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+**Montazah Chems** is a restaurant located in Gabes, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located in a convenient location, close to the city center and many of the city's attractions. It has a 4.0 rating on Google, based on 20 reviews, and is a popular spot for locals and tourists alike.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5419,14 +7405,75 @@
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Restaurant le roi bleu located at 27 Avenue Mongi Slim. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 12:00-16:00, 18:00-21:00, but closed on samedi. To get there, use these GPS coordinates: 33.884506881014, 10.1023851976. For more details, visit their link at https://www.google.com/maps/place/Restaurant+le+roi+bleu/data=!4m7!3m6!1s0x12556f4c9adc4ac7:0x467e0a3ab30abfb5!8m2!3d33.8847659!4d10.1023035!16s%2Fg%2F11s0y_s2ft!19sChIJx0rcmkxvVRIRtb8KszoKfkY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 896 185.</t>
+          <t>Restaurant le roi bleu is a restaurant located in Gabes, Tunisia, at the coordinates (33.884506881014, 10.1023851976). It is open from 12:00-16:00 and 18:00-21:00, and is closed on Saturdays. The restaurant has a rating of 4.5 stars on Google, and offers a wide variety of dishes.</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find a top-rated Restaurant destination with a range of options, located at specific coordinates and open during specific hours?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical region of Gabes by visiting the Region Maritime de Gabes (OMMP).
+**Mid-Morning:**
+* Visit the Plage el Kazma Gabes for a relaxing walk along the beautiful beach.
+**Midday:**
+* Try the local cuisine at the highly-rated Cafe Resto Le Prince.
+**Afternoon:**
+* Experience cultural immersion at the Mchergui farm, offering a unique and unforgettable experience.
+**Evening:**
+* Head to O'TAKE for a delicious dinner at a highly-rated cafe and grill restaurant.
+**Night:**
+* Visit the nearby Chez Mon Ex creperie, known for its delectable crepes and cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bonjour, a highly-rated cafe located at PPGQ+5PF, Rte de Gabes, Sfax, is a great spot to relax and enjoy a cup of coffee. It operates from 6am to 11pm daily and has earned a 4.0 rating from satisfied customers. You can find additional information on their official website or by visiting their location directly.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.
+Cafe Resto Le Prince is a restaurant in Gabes, Tunisia, with a rating of 4.3 out of 5 based on 7 reviews. Its exact location is 33.7053164, 8.9659272. The restaurant offers a variety of dishes and has a cozy ambiance. It is a great place to enjoy a meal with friends or family.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station service Agil GABES VILLE is a gas station located in Gabes, Tunisia. It offers a variety of services to its customers, including gasoline, diesel, and car wash. The station is conveniently located near several major roads, making it easy to access.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5532,12 +7579,69 @@
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great pizzeria, check out BIBO located at Rue Ibn Khaldoun. This top-rated destination is perfect for pizza lovers and offers a range of pizzas to choose from. With a rating of 4.6, it's a must-visit spot. It's open 24 hours a day, but closed on unspecified days. To get there, use these GPS coordinates: 33.86387169541, 10.113266931251. For more details, visit their website or call them at 58 999 100.</t>
+          <t>BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>If you're in Gabes craving pizza and seeking a highly acclaimed pizzeria, where should you go and what sets this destination apart?</t>
+          <t>Day Plan:
+Morning: Start the day with a visit to the historical Ras El Oueed, exploring its cultural significance.
+Mid-Morning: Head to the charming Plage el Kazma Gabes and enjoy the picturesque beach, indulge in sunbathing, or take a refreshing swim in the clear waters.
+Midday: Savor the local cuisine at Restaurant Pizzeria PINO, where you can relish authentic Italian flavors for lunch.
+Afternoon: Discover the maritime heritage of Gabes at the Port de peche de Gabes, where you can observe the bustling fishing industry.
+Evening: Experience the vibrant ambiance of My House Lounge, where you can relax and enjoy a coffee or a meal while taking in the cozy atmosphere.
+Night: Conclude the day with a delightful dinner at Pronto Pizza, known for its delicious pizzas and highly rated menu.</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Majless coffee lounge is a cafe located at PX7F+M8R El Majless coffee lounge, Rte de Gabes, Kebili. It has a rating of 4.5 out of 5, with 11 reviews and a featured image. It is open from 08:00-23:00 and closed on []. The phone number is 23 494 420. Its main category is Cafe, and its categories are ['Cafe']. It is located at coordinates (33.7053164, 8.9659272).
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+Discover "By Omar Coffee Lounge," a must-visit destination located in Gabes. This renowned restaurant invites you to savor delectable cuisine, promising an unforgettable dining experience. Situated at coordinates (33.8776521, 10.092417), "By Omar Coffee Lounge" awaits your presence.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a tourist attraction in Gabes, Tunisia. It is located at the coordinates (33.87861, 10.0618) and offers a variety of activities for visitors. The site is open from 08:00 to 01:00 every day and has received a 4.2 rating from 54 reviews on Google Maps. Visitors can explore the site and its surroundings, and learn about the local history and culture.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5643,12 +7747,69 @@
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Montazah Chems (CIEL) located at Montazah Chems (CIEL), mntzh lshms bnzl lshms mn jh@ nzl lwH@, Av.Habib Thameur, Gabes 6000. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant, Centre aere et de loisirs pour enfants, Salon de the to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 07:15-01:00. To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website or call them at 24 858 757.</t>
+          <t>**Montazah Chems** is a restaurant located in Gabes, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located in a convenient location, close to the city center and many of the city's attractions. It has a 4.0 rating on Google, based on 20 reviews, and is a popular spot for locals and tourists alike.</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>What top-rated destination in Gabes offers a variety of activities, making it a must-visit spot for Restaurant lovers in the Montazah Chems (CIEL) area?</t>
+          <t>Day Plan:
+Morning: Exploring El Majless coffee lounge
+Mid-Morning: Trying local cuisine at Restaurant RAPIDO
+Midday: Visiting Port de peche de Gabes
+Afternoon: Enjoying sunbathing and swimming at Plage el Kazma Gabes
+Evening: Relaxing with a massage at Mchergui farm
+Night: Experiencing cultural immersion at Oued Griaa</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Majless coffee lounge is a cafe located at PX7F+M8R El Majless coffee lounge, Rte de Gabes, Kebili. It has a rating of 4.5 out of 5, with 11 reviews and a featured image. It is open from 08:00-23:00 and closed on []. The phone number is 23 494 420. Its main category is Cafe, and its categories are ['Cafe']. It is located at coordinates (33.7053164, 8.9659272).
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Restaurant RAPIDO is a restaurant located in Gabes at the coordinates (33.8776521, 10.092417). It has a rating of 4.6 out of 5 and offers a variety of dining options. The restaurant is open 7 days a week and offers takeout and delivery services.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a 4.7-rated tourist attraction located in Gabes, Tunisia. The farm offers a variety of experiences, including guided tours, animal encounters, and educational programs. It is located at the coordinates (33.86083082856, 10.099978627695).
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station de taxi Chenini is a local taxi station located in Gabès, Tunisia. It has been rated 4.0 stars out of 5 by previous customers and is open from 6:00 AM to 6:00 PM. The taxi station is situated at the coordinates (33.87861, 10.0618) and offers taxi services to the local community.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5754,12 +7915,69 @@
       </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>If you find yourself in the city of gabes and seeking a delightful experience, drop by Golf Beach gabes located at Golf Beach gabes, Gabes Gabes plage Gabes sud, 6000. With a superb rating of 4.7 and a focus on Cafe, it's a popular destination among those who share this passion. You can visit them anytime as they are open 24 hours a day, 7 days a week. To reach Golf Beach gabes, you can use these GPS coordinates: (33.8702921, 10.1094721). For further details, you can contact them at 29 148 443.</t>
+          <t>Golf Beach Gabes is a cafe located in Gabes, Tunisia, known for its 4.7-star rating and 24-hour operation. Nestled on Golf Beach in Gabes Plage, it boasts a convenient location close to the coast. Its primary category is cafe, and it offers a welcoming atmosphere for guests.</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find an exceptional cafe experience at a highly rated establishment known for its Cafe focus?</t>
+          <t>Day Plan:
+* Morning: Guided tour of **Port of Gabes** (learn about the fishing industry and admire the vessels)
+* Mid-Morning: Breakfast at the seafront café **Golf Beach Gabes** (enjoy panoramic views while savoring local cuisine)
+* Midday: Exploring **Plage Corniche de Gabes** (swim, sunbathe, or stroll along the picturesque beach)
+* Afternoon: Visit the historical **Region Maritime de Gabes (OMMP)** (learn about the maritime heritage of the region)
+* Evening: Dinner at the acclaimed **Restaurant Pizzeria PINO** (indulge in authentic Italian dishes)
+* Night: Enjoy a leisurely walk along the vibrant **Gabes Marina** (admire the twinkling lights and lively atmosphere)</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Golf Beach Gabes is a cafe located in Gabes, Tunisia, known for its 4.7-star rating and 24-hour operation. Nestled on Golf Beach in Gabes Plage, it boasts a convenient location close to the coast. Its primary category is cafe, and it offers a welcoming atmosphere for guests.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+CONSERVERIE GABES TIC TAC is a restaurant located in Gabes, Tunisia. The restaurant is open from 09:00 to 19:00 and is closed on Fridays. The restaurant has a rating of 5.0 and is located at the coordinates (33.8776521, 10.092417).
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+So Sweet is a 5-star rated creperie located in Gabes, Tunisia. It is open from 7 am to 3 am and offers a variety of crepes and other sweet treats. The creperie is located at the coordinates (33.8776521, 10.092417).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -5857,14 +8075,11 @@
       </c>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out the Restaurant Sahlouba located at V3MR+F4H Restaurant Sahlouba, Gabes. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.8, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Sahlouba/data=!4m7!3m6!1s0x12556fda99000d7b:0x73f82e86f4c84586!8m2!3d33.8836788!4d10.0903697!16s%2Fg%2F11dfr22p8d!19sChIJew0AmdpvVRIRhkXI9IYu-HM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at None.</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>Where in Gabes can you find a top-rated Restaurant called Restaurant Sahlouba?</t>
-        </is>
-      </c>
+          <t>Restaurant Sahlouba is a highly-rated (4.8/5) restaurant located in Gabes, Tunisia. It specializes in sandwiches, with reviewers particularly praising their delicious offerings. The restaurant can be found at coordinates (33.8776521, 10.092417) and is accessible via the provided link.</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -5964,12 +8179,69 @@
       </c>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>Discover Le grain de cafe, a top-rated Cafeteria located at Rue Boulbaba Mrabet, Gabes. With a remarkable rating of 4.8, it's a must-visit spot for coffee lovers. Operating hours are from 06:30 to 22:00, ensuring ample time to indulge in your caffeine fix. For more information, explore their website at [website link] or directly contact them at the provided phone number.</t>
+          <t>"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>Where can you find Le grain de cafe, a highly-rated Cafeteria open from 6:30 AM to 10:00 PM?</t>
+          <t>Day Plan:
+Morning: Explore the stunning Plage el Kazma Gabes, known for its white sandy beach, clear blue waters, and picturesque views.
+Mid-Morning: Indulge in a delightful Turkish breakfast at Sami Restaurant Turc, known for its authentic Turkish cuisine and warm hospitality.
+Midday: Immerse yourself in history by visiting the Hotel l'Oasis Gabes, a 4-star hotel with a rich cultural heritage, and experience its luxurious amenities.
+Afternoon: Satisfy your cravings with a delicious lunch at Pronto Pizza, renowned for its delectable pizzas and excellent service.
+Evening: Stroll through the local market, Tunisie, Gabes, to discover unique souvenirs and local products while supporting the local economy.
+Night: Experience the vibrant nightlife at Le grain de café, a charming cafeteria with a cozy atmosphere and a wide selection of beverages and snacks.</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.
+Sami Restaurant Turc is a Turkish restaurant located in Gabes, Tunisia. It has a 4.7 rating on Google and is open from 11:00 to 22:00 during the week, but is closed on Sundays. The restaurant is known for its traditional Turkish cuisine and has received positive reviews for its food and service.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station de taxi Chenini is a local taxi station located in Gabès, Tunisia. It has been rated 4.0 stars out of 5 by previous customers and is open from 6:00 AM to 6:00 PM. The taxi station is situated at the coordinates (33.87861, 10.0618) and offers taxi services to the local community.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6075,10 +8347,75 @@
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a top-rated Creperie, Chez mon ex is a must-visit spot. Located at Chez mon ex, it's open from 10:30-23:00 during the week but closed on Sundays. With a 4.8 rating, this top destination is perfect for Creperie lovers. For more information, call 53 000 551.</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr"/>
+          <t>Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Exploring the historical "Hôtel BEN NJIMA"
+Mid-Morning: Trying local cuisine at "BIBO", a highly-rated pizzeria
+Midday: Relaxing with a cup of coffee at "Cafe Bonjour", a highly-rated cafe
+Afternoon: Enjoying scenic views at "Plage el Kazma Gabes"
+Evening: Participating in an event or activity at "ATLAS World", an amusement park
+Night: Exploring the local culture at "Le grain de café", a cafeteria</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bonjour, a highly-rated cafe located at PPGQ+5PF, Rte de Gabes, Sfax, is a great spot to relax and enjoy a cup of coffee. It operates from 6am to 11pm daily and has earned a 4.0 rating from satisfied customers. You can find additional information on their official website or by visiting their location directly.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+Restaurant Pizzeria La Perla is a restaurant located in Gabes, Tunisia (33.8759875, 10.0929339). 
+It has a rating of 4.3 out of 5 and is open from 11:00 to 22:00, except on Sundays. 
+The restaurant offers a variety of dishes and has a featured image of a pizza.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+**Gare Medou Matmata**
+Located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417), Gare Medou Matmata is a petrol station offering a range of services to motorists. It is easily accessible from Avenue Bechir El Jaziri - shr` lbshyr ljzyry. With a rating of 5.0 based on 1 review, Gare Medou Matmata is highly praised for its services.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -6182,12 +8519,69 @@
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a top-notch diner experience, head to Cafe-Restaurant Chems at V4Q8+X82. This highly-rated destination with a 4.6 rating has been delighting locals and visitors alike with its delectable cuisine and friendly service. It is open daily from 07:45 AM to 11:25 PM. For more information, visit their website or give them a call at 22 851 403.</t>
+          <t>Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find a highly-rated diner, Cafe-Restaurant Chems, known for its delicious food and welcoming atmosphere, open late into the evening?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Plage el Kazma Gabes, rated 4.3 stars, and enjoy the golden sands and clear waters.
+Mid-Morning: Visit the Port de peche de Gabes to witness the bustling fishing activities and learn about the local marine industry.
+Midday: Try local cuisine at Le 52, a renowned restaurant serving delicious pizza, pasta, and meat dishes.
+Afternoon: Explore the charming "Oued Griaa", a natural oasis, and immerse yourself in its tranquil beauty.
+Evening: Enjoy scenic views at Golf Beach Gabes, located on the coast, and savor a delightful dinner while admiring the sunset.
+Night: Experience cultural immersion at "Le grain de café," a cozy cafeteria offering a variety of coffee and tea options.</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Golf Beach Gabes is a cafe located in Gabes, Tunisia, known for its 4.7-star rating and 24-hour operation. Nestled on Golf Beach in Gabes Plage, it boasts a convenient location close to the coast. Its primary category is cafe, and it offers a welcoming atmosphere for guests.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Le 52 is a restaurant located in Gabes, Tunisia. It offers a variety of dishes including pizza, pasta, and meat dishes. The restaurant has received positive reviews for its food and service. It is closed on Sundays and is open from 12:00 PM to 10:00 PM on all other days of the week.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Radio elyssa is a gas station located in Gabes, France, at the coordinates (43.7034285, 7.2661312). It has a rating of 5.0 based on 1 review.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6293,14 +8687,11 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out FRESCO-GABES located at FRESCO-GABES, Gabes. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:00-00:00, but closed on []. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website or call them at 26 129 127.</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>Where can you find a highly-rated Creperie destination in Gabes with exceptional customer reviews?</t>
-        </is>
-      </c>
+          <t>FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -6400,14 +8791,11 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great place to eat, check out La Fiesta located at V4P3+XX9 La Fiesta, shr` lHbyb bwrqyb@ - Avenue Habib Bourguiba. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.9, it's a must-visit spot. It's open during these hours: 10:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 33.841505750435, 10.117775925957. For more details, visit their website at https://www.google.com/maps/place/La+Fiesta/data=!4m7!3m6!1s0x12556fbf332dff43:0xcb2a07bedc15f603!8m2!3d33.8874204!4d10.1049963!16s%2Fg%2F11g_93t95!19sChIJQ_8tM79vVRIRA_YV3L4HKss?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>Where can you find La Fiesta, a highly-rated dining destination in Gabes with a 4.9 rating?</t>
-        </is>
-      </c>
+          <t>La Fiesta, located in Gabes, Tunisia, is a highly-rated (4.9 stars) restaurant known for its exceptional pizzas. Operating from 10:00 AM to 10:00 PM daily, except for Sundays, La Fiesta is conveniently situated at V4P3+XX9 La Fiesta, shr` lHbyb bwrqyb@ - Avenue Habib Bourguiba.</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -6511,18 +8899,11 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a tasty fast food spot, head to el ksour located at V3PV+2PP el ksour. 
-This top-rated destination is perfect for fast food lovers and offers a variety of options to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 10:00-22:30. 
-To get there, use these GPS coordinates: 33.8776521, 10.092417. 
-For more details, visit their website at https://www.google.com/maps/place/el+ksour/data=!4m7!3m6!1s0x12556f89e84c199d:0x9b2eb6711b2c44d5!8m2!3d33.8850961!4d10.0943258!16s%2Fg%2F11qh8rggnm!19sChIJnRlM6IlvVRIR1UQsG3G2Lps?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 761 469.</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated fast food spot with a convenient location and extended hours in Gabes?</t>
-        </is>
-      </c>
+          <t>el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -6626,14 +9007,11 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Pizza Chamchat located at V3HR+8WX Pizza Chamchat, Gabes. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.4, it's a must-visit spot. It's open during these hours: 10:00-22:00, but closed on []. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website or call them at 28 543 843.</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>Which top-rated dining establishment is a recommended destination in Gabes, offering a high rating and a wide selection of eateries?</t>
-        </is>
-      </c>
+          <t>Pizza Chamchat is a restaurant located in Gabes, Tunisia, offering a variety of dishes. It is situated at coordinates (33.8776521, 10.092417) and is open from Monday to Sunday from 10:00 AM to 22:00 PM. With a rating of 4.4, this restaurant has received positive feedback from customers.</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -6737,12 +9115,76 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>If you're in Gabes and craving some delicious food, head to Sami Restaurant Turc mT`m trky. This top-rated restaurant is perfect for Restaurant lovers, serving up a range of delectable dishes. With a rating of 4.7, it's a must-visit spot. It's open from 11:00-22:00 during the week, but closed on Sundays. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more information, visit their website or call them at 58 661 263.</t>
+          <t>Sami Restaurant Turc is a Turkish restaurant located in Gabes, Tunisia. It has a 4.7 rating on Google and is open from 11:00 to 22:00 during the week, but is closed on Sundays. The restaurant is known for its traditional Turkish cuisine and has received positive reviews for its food and service.</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find a highly-rated restaurant with a 4.7 rating, serving delicious food?</t>
+          <t>**Day Plan:**
+**Morning:**
+- Explore Plage Corniche de Gabes: Stroll along the sandy shores, soak up the sun, and immerse yourself in the local beach culture.
+**Mid-Morning:**
+- Visit Ras el Oueed: Embark on a scenic hike to discover the natural beauty, historical landmarks, and proximity to the Zoo Chenenni.
+**Midday:**
+- Try local cuisine at Pronto Pizza: Savor delicious and highly-rated pizzas in the lively atmosphere of this popular restaurant.
+**Afternoon:**
+- Enjoy recreational activities at ATLAS World: Engage in thrilling rides, games, and family-friendly attractions at this amusement park.
+**Evening:**
+- Visit "Le grain de café": Unwind in the cozy ambiance of this café, indulge in a variety of coffee and tea drinks, and savor delectable pastries and sandwiches.
+**Night:**
+- Experience cultural immersion at La Crepe Rit: Delight in both sweet and savory crepes at this highly-rated creperie, immersing yourself in the local culinary traditions.</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Golf Beach Gabes is a cafe located in Gabes, Tunisia, known for its 4.7-star rating and 24-hour operation. Nestled on Golf Beach in Gabes Plage, it boasts a convenient location close to the coast. Its primary category is cafe, and it offers a welcoming atmosphere for guests.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+Piccolino is a restaurant located in Gabes, Tunisia, offering a diverse menu including pizzas, burgers, salads, and seafood dishes. Situated at 7VW8+QJ7 Rue de Bizerte, it operates daily from 7 AM to 11:45 PM. With a rating of 4.1 based on 136 reviews, it is known for its reasonable prices, attentive service, and delicious sauces.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+**Gare Medou Matmata**
+Located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417), Gare Medou Matmata is a petrol station offering a range of services to motorists. It is easily accessible from Avenue Bechir El Jaziri - shr` lbshyr ljzyry. With a rating of 5.0 based on 1 review, Gare Medou Matmata is highly praised for its services.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6844,12 +9286,69 @@
       </c>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>If you're in gabes and searching for a Restaurant spot, visit Chapati Mahdia at V3PW+22Q Chapati Mahdia, Av. Farhat Hachad - shr` frHt Hshd. This 4.5-rated destination is perfect for Restaurant lovers. It's open during these hours: 09:00-19:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, click https://www.google.com/maps/place/Chapati+Mahdia/data=!4m7!3m6!1s0x12556fc5a92bfbd3:0x47e373254a969981!8m2!3d33.8850788!4d10.0951049!16s%2Fg%2F11dfjy_8k8!19sChIJ0_srqcVvVRIRgZmWSiVz40c?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Chapati Mahdia**, located in Gabes (lat: 33.8776521, lon: 10.092417), is a highly-rated (4.5 stars from 6 reviews) restaurant that operates from 09:00 to 19:00 every day of the week. It specializes in providing a dining experience with its main category being Restaurant and its only subcategory being Restaurant.</t>
         </is>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant (4.5 stars) in Gabes while enjoying the ambiance of an Avenue?</t>
+          <t>Day Plan:
+Morning: Explore the Port de peche de Gabes, a bustling fishing port that offers a glimpse into the local fishing industry.
+Mid-Morning: Visit the Region Maritime de Gabes (OMMP) for a guided tour of the local administration building and learn about the region's maritime affairs.
+Midday: Satisfy your taste buds with a delightful lunch at Restaurant Pizzeria PINO, known for its authentic Italian cuisine.
+Afternoon: Take a break from the urban hustle and unwind at Plage el Kazma Gabes, a picturesque beach with golden sands and clear waters, perfect for sunbathing, swimming, and enjoying the coastal ambiance.
+Evening: Experience the lively atmosphere of Le 52, a popular restaurant serving a delectable selection of dishes, including pizza, pasta, and meat dishes.
+Night: Immerse yourself in the traditional Tunisian ambiance at My House Lounge, a welcoming café and grill restaurant that offers a cozy atmosphere and a warm, friendly vibe.</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Sky Cafe Lounge is a cafe located in Gabes, Tunisia. It offers a variety of drinks and snacks, and has a cozy atmosphere. The cafe is located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes, and is open from 8am to 10pm every day.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Le 52 is a restaurant located in Gabes, Tunisia. It offers a variety of dishes including pizza, pasta, and meat dishes. The restaurant has received positive reviews for its food and service. It is closed on Sundays and is open from 12:00 PM to 10:00 PM on all other days of the week.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+So Sweet is a 5-star rated creperie located in Gabes, Tunisia. It is open from 7 am to 3 am and offers a variety of crepes and other sweet treats. The creperie is located at the coordinates (33.8776521, 10.092417).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station service Agil GABES VILLE is a gas station located in Gabes, Tunisia. It offers a variety of services to its customers, including gasoline, diesel, and car wash. The station is conveniently located near several major roads, making it easy to access.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -6955,12 +9454,75 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Chez Kayran. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.7, it's a must-visit spot. It's open during these hours: 06:00-13:00, but closed on []. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website at [nan] or call them at 23 421 773.</t>
+          <t>Chez Kayran is a 4.7-rated restaurant in Gabes, Tunisia, located at coordinates (33.8776521, 10.092417). It is open from 6:00 AM to 1:00 PM, and offers a varied menu not specified in the provided information.</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
-          <t>What top-rated restaurant destination in Gabes offers a variety of dining options and boasts a high rating of 4.7?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore the Region Maritime de Gabes (OMMP) to learn about local administration and services.
+**Mid-Morning:**
+* Visit Oued Griaa, a charming water point with scenic beauty and local popularity.
+**Midday:**
+* Try local cuisine at Restaurant Pizzeria PINO, offering a variety of Italian dishes.
+**Afternoon:**
+* Head to Plage Corniche de Gabes for relaxation and coastal adventures on the beach.
+**Evening:**
+* Enjoy an evening at Le Sky Cafe Lounge, a cafe offering bar lounge services with a vibrant atmosphere.
+**Night:**
+* Experience cultural immersion and savor traditional Tunisian dishes at TARTOUGA, a restaurant praised for its authentic cuisine.</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+TARTOUGA, a restaurant in Gabès (Tunisia), is rated 4 out of 5 stars on Google by 1 reviewer. Located at coordinates (33.8776521, 10.092417), it is open from 10:00 AM to 11:00 PM.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a 4.7-rated tourist attraction located in Gabes, Tunisia. The farm offers a variety of experiences, including guided tours, animal encounters, and educational programs. It is located at the coordinates (33.86083082856, 10.099978627695).
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7062,15 +9624,69 @@
       </c>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Restaurant RAPIDO located at V3PR+2J8 Restaurant RAPIDO, Gabes. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.6, it's a must-visit spot. To get there, use these GPS coordinates: 33.8776521, 10.092417. 
-For more details, visit their link at https://www.google.com/maps/place/Restaurant+RAPIDO/data=!4m7!3m6!1s0x12556f90cc28d653:0xab428a1510f23f46!8m2!3d33.8850482!4d10.0915903!16s%2Fg%2F11fct8gl1j!19sChIJU9YozJBvVRIRRj_yEBWKQqs?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 28 404 458.</t>
+          <t>Restaurant RAPIDO is a restaurant located in Gabes at the coordinates (33.8776521, 10.092417). It has a rating of 4.6 out of 5 and offers a variety of dining options. The restaurant is open 7 days a week and offers takeout and delivery services.</t>
         </is>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find a highly-rated restaurant destination with GPS coordinates of 33.8776521, 10.092417?</t>
+          <t>Day Plan:
+Morning: Explore the ruins of an ancient Roman fort at Ras el Oueed, known for its scenic beauty and proximity to the Zoo Chenenni.
+Mid-Morning: Visit the Region Maritime de Gabes (OMMP), a local administration building that offers a glimpse into the local governance and provides various public services.
+Midday: Enjoy a delicious lunch at O'TAKE, a cafe and grill restaurant with high ratings and a welcoming atmosphere.
+Afternoon: Head to the Port de peche de Gabes, a picturesque port with a 4.6-star rating, and immerse yourself in the local maritime culture.
+Evening: Take a leisurely stroll through the stalls of food club Gabes, a pizzeria with excellent reviews, and savor the flavors of local cuisine.
+Night: Relax and unwind at Cafe Les 4 Saisons, a highly rated Creperie known for its delectable crepes and friendly service.</t>
+        </is>
+      </c>
+      <c r="AB61" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+PALAIS D'OR. Restaurant located in Gabes, Tunisia (33.8776521, 10.092417), specialized in Plat.. Contact the restaurant at: +21675238240.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Radio elyssa is a gas station located in Gabes, France, at the coordinates (43.7034285, 7.2661312). It has a rating of 5.0 based on 1 review.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7176,12 +9792,76 @@
       </c>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Le Royal Gabes located at Le Royal Gabes, Ctre de Visite Technique de Gabes, Bouchamma. This top-rated destination is perfect for Restaurant lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 11:00-23:00. To get there, use these GPS coordinates: 33.90248, 10.05976. For more details, visit their website at https://www.google.com/maps/place/Le+Royal+Gabes/data=!4m7!3m6!1s0x12556f965c167c35:0xb6ad953e2c36e4cc!8m2!3d33.8948132!4d10.1103909!16s%2Fg%2F11c54nrvdh!19sChIJNXwWXJZvVRIRzOQ2LD6VrbY?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 99 099 695.</t>
+          <t>Le Royal Gabes is a popular restaurant in Gabes, Tunisia. Located in Ctre de Visite Technique de Gabes, Bouchamma, it is well-rated with a 5.0 score on Google Maps. The restaurant primarily serves as a restaurant, offering a delightful dining experience. Its working hours are from 11:00 AM to 11:00 PM, and it remains closed on specific days of the week. You can contact them at 99 099 695 for inquiries or reservations.</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find Le Royal Gabes, a highly-rated destination for Restaurant lovers, offering a 5.0 rating and an unforgettable dining experience?</t>
+          <t>Day Plan:
+Morning:
+- Visit Hotel l'Oasis Gabes and enjoy their amenities.
+Mid-Morning:
+- Explore Plage Corniche de Gabes and relax on the sandy shores.
+Midday:
+- Try local cuisine at Restaurant Sahlouba, known for its delicious sandwiches.
+Afternoon:
+- Take a stroll through the charming Oued Griaa, a natural oasis with serene surroundings.
+Evening:
+- Explore the scenic views and cultural immersion at the Region Maritime de Gabes (OMMP).
+Night:
+- Experience the vibrant nightlife at O'TAKE, a cafe and grill restaurant with a cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB62" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bonjour, a highly-rated cafe located at PPGQ+5PF, Rte de Gabes, Sfax, is a great spot to relax and enjoy a cup of coffee. It operates from 6am to 11pm daily and has earned a 4.0 rating from satisfied customers. You can find additional information on their official website or by visiting their location directly.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Restaurant Sahlouba is a highly-rated (4.8/5) restaurant located in Gabes, Tunisia. It specializes in sandwiches, with reviewers particularly praising their delicious offerings. The restaurant can be found at coordinates (33.8776521, 10.092417) and is accessible via the provided link.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+**Gare Medou Matmata**
+Located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417), Gare Medou Matmata is a petrol station offering a range of services to motorists. It is easily accessible from Avenue Bechir El Jaziri - shr` lbshyr ljzyry. With a rating of 5.0 based on 1 review, Gare Medou Matmata is highly praised for its services.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7287,14 +9967,11 @@
       </c>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a delicious meal, check out Baniola creperie by RoO at V4M2+VWW. This top-rated restaurant is perfect for food lovers and offers a range of dishes to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 08:00-00:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website at https://www.google.com/maps/place/Baniola+creperie+by+RoO/data=!4m7!3m6!1s0x12556fc79d20e43d:0x841adb0cb126223e!8m2!3d33.8847461!4d10.10233!16s%2Fg%2F11hblxww2m!19sChIJPeQgncdvVRIRPiImsQzbGoQ?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 24 361 854.</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>Where in Gabes can you find a top-rated creperie with exceptional dishes and a 5.0 rating, making it a must-visit culinary destination?</t>
-        </is>
-      </c>
+          <t>Baniola creperie by RoO, located in Gabes (33.8776521, 10.092417), is a highly-rated restaurant (5.0 stars from 3 reviews) specializing in crepes. With its workday hours from 8 am to midnight, Baniola creperie by RoO offers a convenient dining experience for both breakfast and dinner.</t>
+        </is>
+      </c>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -7398,14 +10075,69 @@
       </c>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for something fun to do, check out O'TAKE located at Rue tayeb mhiri. 
-This top-rated destination is perfect for Cafe et restaurant de grillades lovers and offers a range of Cafe et restaurant de grillades to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-23:00, but closed on dimanche. To get there, use these GPS coordinates: 33.8838235, 10.1011829. For more details, visit their website at https://www.google.com/maps/place/O%27TAK%C3%89/data=!4m7!3m6!1s0x12556fbdfc26bc4b:0x4abf134d321ff9d0!8m2!3d33.879516!4d10.0979621!16s%2Fg%2F11tbwhk1x6!19sChIJS7wm_L1vVRIR0PkfMk0Tv0o?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 20 271 286.</t>
+          <t>O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated Cafe et restaurant de grillades destination in Gabes that's open late and offers a welcoming ambiance?</t>
+          <t>Day Plan:
+Morning: Exploring the 4-star Hotel l'Oasis Gabes - Enjoy its luxurious amenities, including a swimming pool, restaurant, and bar.
+Mid-Morning: Visiting Le Sky Cafe Lounge - Savor a delightful breakfast while taking in the stunning views of Gabes.
+Midday: Trying local cuisine at Restaurant Fruit De Mer - Indulge in a fresh seafood lunch, renowned for its reasonable prices and warm ambiance.
+Afternoon: Enjoying Plage Corniche de Gabes - Relax on the sandy shores, soak up the sun, and immerse yourself in the local beach culture.
+Evening: Experiencing cultural immersion at the Region Maritime de Gabes (OMMP) - Discover the local administration building and gain insights into the city's governance.
+Night: Dining at Restaurant Pizzeria PINO - Relish authentic Italian cuisine, including flavorful pizzas, pastas, and salads, in a cozy and welcoming setting.</t>
+        </is>
+      </c>
+      <c r="AB64" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+Restaurant Fruit De Mer is located in Gabes with the coordinates (33.8776521, 10.092417) and serves a variety of seafood dishes. Based on customer reviews, the restaurant is particularly known for its reasonable prices, fresh fish options, attentive service, and family-friendly atmosphere.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a 4.7-rated tourist attraction located in Gabes, Tunisia. The farm offers a variety of experiences, including guided tours, animal encounters, and educational programs. It is located at the coordinates (33.86083082856, 10.099978627695).
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Shell is a gas station located in Gabes, Tunisia. It offers 24-hour fuel service, a car wash, and a convenience store. The station is situated on Jardin Public avenue Farhat Hached, near the intersection of Av. Farhat Hachad and shr` frHt Hshd. The Shell station has a rating of 3.2 based on 6 reviews.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7507,12 +10239,69 @@
       </c>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a delightful dining experience, check out Kessa Sandwich located at V3PW+4FG Kessa Sandwich, Gabes. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 09:30-22:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their link at https://www.google.com/maps/place/Kessa+Sandwich/data=!4m7!3m6!1s0x12556fc5ca8447e5:0x51f3144c9053d0b6!8m2!3d33.8853035!4d10.0962045!16s%2Fg%2F11d_csyjps!19sChIJ5UeEysVvVRIRttBTkEwU81E?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Kessa Sandwich is a restaurant located in Gabes, Tunisia. It is a highly-rated restaurant with a 4.0 rating on Google. The restaurant is open daily from 9:30 AM to 10:00 PM and offers a variety of dishes. Kessa Sandwich is located at V3PW+4FG Kessa Sandwich, Gabes, Tunisia.</t>
         </is>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated dining spot with a range of cuisine options in Gabes?</t>
+          <t>Day Plan:
+Morning: Explore the charming streets of Gabes and visit historical sites like the Region Maritime de Gabes.
+Mid-Morning: Try local cuisine at "By Omar Coffee Lounge" for a delightful culinary experience.
+Midday: Take a relaxing stroll along the scenic Plage el Kazma Gabes, soaking in the sun and enjoying the tranquil atmosphere.
+Afternoon: Engage in a guided tour of Mchergui farm, discovering the region's agricultural heritage and connecting with nature.
+Evening: Head to Hotel l'Oasis Gabes for a luxurious evening, savoring delicious dishes at their restaurant while admiring the sunset views.
+Night: Immerse yourself in the lively ambiance of My House Lounge, enjoying live music, local beverages, and socializing with locals.</t>
+        </is>
+      </c>
+      <c r="AB65" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Golf Beach Gabes is a cafe located in Gabes, Tunisia, known for its 4.7-star rating and 24-hour operation. Nestled on Golf Beach in Gabes Plage, it boasts a convenient location close to the coast. Its primary category is cafe, and it offers a welcoming atmosphere for guests.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Discover "By Omar Coffee Lounge," a must-visit destination located in Gabes. This renowned restaurant invites you to savor delectable cuisine, promising an unforgettable dining experience. Situated at coordinates (33.8776521, 10.092417), "By Omar Coffee Lounge" awaits your presence.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a 4.7-rated tourist attraction located in Gabes, Tunisia. The farm offers a variety of experiences, including guided tours, animal encounters, and educational programs. It is located at the coordinates (33.86083082856, 10.099978627695).
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station de taxi Chenini is a local taxi station located in Gabès, Tunisia. It has been rated 4.0 stars out of 5 by previous customers and is open from 6:00 AM to 6:00 PM. The taxi station is situated at the coordinates (33.87861, 10.0618) and offers taxi services to the local community.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7622,10 +10411,71 @@
       </c>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out So Sweet located at 6011, So Sweet, nhj l`rwsy Hdd, Gabes. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 07:00-03:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website at https://www.facebook.com/So.SweetISETGabes/ or call them at 26 021 221.</t>
-        </is>
-      </c>
-      <c r="AA66" t="inlineStr"/>
+          <t>So Sweet is a 5-star rated creperie located in Gabes, Tunisia. It is open from 7 am to 3 am and offers a variety of crepes and other sweet treats. The creperie is located at the coordinates (33.8776521, 10.092417).</t>
+        </is>
+      </c>
+      <c r="AA66" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Explore the beautiful Plage el Kazma Gabes, enjoying the stunning Mediterranean views and engaging in activities like swimming or sunbathing.
+Mid-Morning: Visit Hotel l'Oasis Gabes, a 4-star hotel conveniently located near the beach, for a relaxing break with refreshing beverages.
+Midday: Try local cuisine at Le 52, a restaurant offering a variety of dishes, including pizza, pasta, and meat options, to savor the flavors of Gabes.
+Afternoon: Take a guided tour of the historic Gare de Gabes, a train station that serves as a transportation hub and a popular tourist destination.
+Evening: Enjoy scenic views at Oued Griaa, a charming point of water with a tranquil setting, immersing yourself in the beauty of nature.
+Night: Relax with a soothing massage at My House Lounge, accompanied by delectable grilled dishes and a cozy ambiance to end the day on a rejuvenating note.</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Costa Cafe crepe is a cafe located in Gabes, Tunisia, at coordinates (33.8776521, 10.092417). It offers a variety of cafe beverages and has a 4.0 rating based on 2 reviews. It is open from 6:00 AM to midnight every day.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.
+Le 52 is a restaurant located in Gabes, Tunisia. It offers a variety of dishes including pizza, pasta, and meat dishes. The restaurant has received positive reviews for its food and service. It is closed on Sundays and is open from 12:00 PM to 10:00 PM on all other days of the week.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station de taxi Chenini is a local taxi station located in Gabès, Tunisia. It has been rated 4.0 stars out of 5 by previous customers and is open from 6:00 AM to 6:00 PM. The taxi station is situated at the coordinates (33.87861, 10.0618) and offers taxi services to the local community.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -7729,12 +10579,71 @@
       </c>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Restaurant Pizzeria La Perla mT`m llw'lw'@ located at V4Q2+3G9 Restaurant Pizzeria La Perla mT`m llw'lw'@, shr` lHbyb bwrqyb@ - Avenue Habib Bourguiba, Gabes 6000. This top-rated destination is perfect for Restaurant lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 11:00-22:00, but closed on dimanche. To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website at https://www.google.com/maps/place/Restaurant+Pizzeria+La+Perla+%D9%85%D8%B7%D8%B9%D9%85+%D8%A7%D9%84%D9%84%D8%A4%D9%84%D8%A4%D8%A9%E2%80%AD/data=!4m7!3m6!1s0x12556fc73367f2f9:0x87a6da101ffce5b0!8m2!3d33.8876736!4d10.1013447!16s%2Fg%2F11c5b33s68!19sChIJ-fJnM8dvVRIRsOX8HxDapoc?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 23 452 275.</t>
+          <t>Restaurant Pizzeria La Perla is a restaurant located in Gabes, Tunisia (33.8759875, 10.0929339). 
+It has a rating of 4.3 out of 5 and is open from 11:00 to 22:00, except on Sundays. 
+The restaurant offers a variety of dishes and has a featured image of a pizza.</t>
         </is>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated destination perfect for Restaurant enthusiasts, located in Gabes and offering a 4.3 rating?</t>
+          <t>Day Plan:
+Morning: Start your day by exploring the Port de peche de Gabes, a bustling fishing port offering a glimpse into the local industry.
+Mid-Morning: Immerse yourself in the history and culture of the region with a visit to Ras El Oueed, followed by a serene walk through the charming Oued Griaa.
+Midday: Experience the flavors of Gabese cuisine by trying local dishes at Restaurant Pizzeria PINO or food club Gabes.
+Afternoon: After lunch, enjoy the sun and sand at Plage el Kazma Gabes, a beautiful beach with crystal-clear waters.
+Evening: Take a leisurely walk through the city center, browsing the local shops and markets, and soak in the vibrant atmosphere of Gabes.
+Night: Indulge in a relaxing evening at Café EZZAHRA, a popular spot to unwind with a beverage and enjoy the cozy ambiance.</t>
+        </is>
+      </c>
+      <c r="AB67" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe EZZAHRA, located at 9F3H+VJ7 Route de Gabes in Medenine, is a popular cafe offering its customers a wide variety of beverages and snacks. Situated at coordinates (33.3497059, 10.4863079), Cafe EZZAHRA boasts a rating of 4.0 based on 6 reviews, indicating its popularity among locals and visitors alike.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+**Montazah Chems** is a restaurant located in Gabes, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located in a convenient location, close to the city center and many of the city's attractions. It has a 4.0 rating on Google, based on 20 reviews, and is a popular spot for locals and tourists alike.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a tourist attraction in Gabes, Tunisia. It is located at the coordinates (33.87861, 10.0618) and offers a variety of activities for visitors. The site is open from 08:00 to 01:00 every day and has received a 4.2 rating from 54 reviews on Google Maps. Visitors can explore the site and its surroundings, and learn about the local history and culture.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Chenini Nahal, Gabes, Tunisia. It offers fuel, lubricants, and other automotive services. The gas station is well-rated by customers, with an average rating of 5.0 out of 5.0. It is located at latitude 33.8976989 and longitude 10.0824252.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -7836,14 +10745,11 @@
       </c>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Cafe Les 4 Saisons located at Rue Maarifa, Gabes. This top-rated destination is perfect for Creperie lovers and offers a range of Creperie to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-00:00. To get there, use these GPS coordinates: 33.883678857736, 10.092652406397.</t>
-        </is>
-      </c>
-      <c r="AA68" t="inlineStr">
-        <is>
-          <t>Where in Gabes can you find a highly-rated Creperie called Cafe Les 4 Saisons that is open until midnight?</t>
-        </is>
-      </c>
+          <t>Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.</t>
+        </is>
+      </c>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -7943,14 +10849,69 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>If you're in Gabes and in search of a great Restaurant experience, look no further than By Omar Coffee lounge, located at V3JR+4W4, Gabes. 
-This top-rated spot is perfect for Restaurant enthusiasts and scored an impressive 5.0 rating. Calling at 28 738 719 will connect you directly to the establishment. 
-For further details, feel free to visit their website or use the provided GPS coordinates to get there easily: 33.8776521, 10.092417.</t>
+          <t>Discover "By Omar Coffee Lounge," a must-visit destination located in Gabes. This renowned restaurant invites you to savor delectable cuisine, promising an unforgettable dining experience. Situated at coordinates (33.8776521, 10.092417), "By Omar Coffee Lounge" awaits your presence.</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant experience with a 5.0 rating in Gabes that offers convenient access via GPS coordinates or phone call?</t>
+          <t>Day Plan:
+Morning: Explore Plage Corniche de Gabes and enjoy the refreshing ocean breeze and sun-kissed landscapes.
+Mid-Morning: Visit the nearby Mchergui farm for a unique and unforgettable experience.
+Midday: Try local cuisine at the highly-rated CONSERVERIE GABES TIC TAC, known for its delicious offerings.
+Afternoon: Take a guided tour of the Region Maritime de Gabes to learn about the local maritime administration.
+Evening: Engage in outdoor activities like cycling or jogging at the picturesque Oued Griaa.
+Night: Relax with a soothing massage at a local spa or hotel to unwind after a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB69" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Golf Beach Gabes is a cafe located in Gabes, Tunisia, known for its 4.7-star rating and 24-hour operation. Nestled on Golf Beach in Gabes Plage, it boasts a convenient location close to the coast. Its primary category is cafe, and it offers a welcoming atmosphere for guests.
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+CONSERVERIE GABES TIC TAC is a restaurant located in Gabes, Tunisia. The restaurant is open from 09:00 to 19:00 and is closed on Fridays. The restaurant has a rating of 5.0 and is located at the coordinates (33.8776521, 10.092417).
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station de taxi Chenini is a local taxi station located in Gabès, Tunisia. It has been rated 4.0 stars out of 5 by previous customers and is open from 6:00 AM to 6:00 PM. The taxi station is situated at the coordinates (33.87861, 10.0618) and offers taxi services to the local community.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8052,13 +11013,76 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>If you're in Gabes, head over to CUBYGLACONS located at 42 RUE KSANTINA. 
-Famous for sundae, it's a top-rated hotspot with a rating of 5.0. Open between 07:00-21:00, you can call them at 24 910 887 for any queries</t>
+          <t>CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
-          <t>Where in Gabes can you experience a highly-rated sundae treat and enjoy a top-rated experience?</t>
+          <t>Day Plan:
+Morning:
+- Take a guided tour of Ras El Oueed, a popular tourist attraction with stunning views and a 4.2 rating.
+Mid-Morning:
+- Visit the Plage Corniche de Gabes, a beautiful beach with restaurants, cafes, and shops. Enjoy the Mediterranean Sea views and relax on the sandy shores.
+Midday:
+- Try local cuisine at Restaurant Pizzeria PINO, an Italian restaurant offering a variety of delicious dishes.
+Afternoon:
+- Visit the Gabes train station, a major transportation hub and a popular tourist destination.
+Evening:
+- Explore the Gare Medou Matmata petrol station, highly praised for its services and located conveniently.
+Night:
+- Relax at My House Lounge, a café and grill restaurant with a cozy ambiance and a 4.0 rating.</t>
+        </is>
+      </c>
+      <c r="AB70" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bonjour, a highly-rated cafe located at PPGQ+5PF, Rte de Gabes, Sfax, is a great spot to relax and enjoy a cup of coffee. It operates from 6am to 11pm daily and has earned a 4.0 rating from satisfied customers. You can find additional information on their official website or by visiting their location directly.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+Restaurant La Luna Italien Gabes, a highly rated (4.2/5) eatery with a 24/7 opening policy, is situated in the bustling city of Gabes, Tunisia. Nestled in the heart of 21 Av. Farhat Hachad - shr` frHt Hshd, the establishment is easily accessible to locals and visitors alike. Boasting a delectable menu and a cozy ambiance, the restaurant specializes in Italian cuisine, promising an unforgettable culinary experience.
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+**Gare Medou Matmata**
+Located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417), Gare Medou Matmata is a petrol station offering a range of services to motorists. It is easily accessible from Avenue Bechir El Jaziri - shr` lbshyr ljzyry. With a rating of 5.0 based on 1 review, Gare Medou Matmata is highly praised for its services.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8164,12 +11188,75 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great place to eat, check out TARTOUGA located at V3HR+QGR TARTOUGA, Gabes. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 10:00-23:00. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, visit their website at https://www.google.com/maps/place/TARTOUGA/data=!4m7!3m6!1s0x12556fe2c2efbf37:0x28ef41cd16c0c5f5!8m2!3d33.8794874!4d10.0912749!16s%2Fg%2F11gv03l6dz!19sChIJN7_vwuJvVRIR9cXAFs1B7yg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 232 549.</t>
+          <t>TARTOUGA, a restaurant in Gabès (Tunisia), is rated 4 out of 5 stars on Google by 1 reviewer. Located at coordinates (33.8776521, 10.092417), it is open from 10:00 AM to 11:00 PM.</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
-          <t>If you find yourself in Gabes and crave an exceptional culinary experience, where can you visit a top-rated destination specializing in Restaurant options and boasting a stellar 4.0 rating?</t>
+          <t>Day Plan:
+Morning:
+- Discover the tranquil beauty of Oued Griaa, a charming point of water.
+Mid-Morning:
+- Explore the historical and cultural significance of the Region Maritime de Gabes (OMMP).
+Midday:
+- Savor the delicious flavors of local cuisine at Piccolino, known for its pizzas, burgers, salads, and seafood dishes.
+Afternoon:
+- Escape to the sandy shores of Plage Corniche de Gabes, perfect for relaxation and sun-soaked adventures.
+Evening:
+- Immerse yourself in the cozy ambiance of My House Lounge, enjoying their delightful menu and warm hospitality.
+Night:
+- Experience the vibrant atmosphere and authentic flavors of Tunisian cuisine at Restaurant Pizzeria PINO.</t>
+        </is>
+      </c>
+      <c r="AB71" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Majless coffee lounge is a cafe located at PX7F+M8R El Majless coffee lounge, Rte de Gabes, Kebili. It has a rating of 4.5 out of 5, with 11 reviews and a featured image. It is open from 08:00-23:00 and closed on []. The phone number is 23 494 420. Its main category is Cafe, and its categories are ['Cafe']. It is located at coordinates (33.7053164, 8.9659272).
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.
+Piccolino is a restaurant located in Gabes, Tunisia, offering a diverse menu including pizzas, burgers, salads, and seafood dishes. Situated at 7VW8+QJ7 Rue de Bizerte, it operates daily from 7 AM to 11:45 PM. With a rating of 4.1 based on 136 reviews, it is known for its reasonable prices, attentive service, and delicious sauces.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+AGIL is a gas station located in Gabes, Tunisia. It offers a range of services including fuel, auto repair, and car wash. The gas station has a 4.0-star rating based on 19 reviews and is owned by AGIL (proprietaire). It is located at the coordinates (33.8962351, 9.811008) and can be found on Google Maps at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8267,12 +11354,70 @@
       </c>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out food club Gabes located at V4P4+2GQ food club Gabes, nhj lmqwmyn, Gabes. This top-rated destination is perfect for Pizzeria lovers. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8776521, 10.092417.</t>
+          <t>food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>Where can you find a highly-acclaimed Pizzeria with a 5.0 rating in Gabes, perfect for food enthusiasts?</t>
+          <t>Day Plan:
+**Morning:** Start your day by exploring the lush greenery of Oued Griaa, a captivating point of water boasting a serene atmosphere. Take a leisurely stroll, immersing yourself in the tranquility of nature and capturing the beauty of your surroundings.
+**Mid-Morning:** Visit the Region Maritime de Gabes (OMMP) and delve into the local administration's services. If your timing aligns, engage with the friendly staff and gain insights into the city's affairs.
+**Midday:** Indulge in a delightful culinary experience at Chez mon ex, a renowned creperie serving authentic and savory crepes. Relish the flavorsome delights and savor the cozy ambiance of this charming establishment.
+**Afternoon:** Head to the picturesque Plage el Kazma Gabes and bask in the Mediterranean sun. Unwind on the golden sands, take a refreshing dip in the clear waters, and soak up the vibrant coastal atmosphere.
+**Evening:** Experience the cultural richness of Gabes at Ras el Oueed, a popular tourist destination known for its scenic beauty. Embark on a guided tour of the historical landmarks, including the ruins of an ancient Roman fort, and delve into the region's captivating history.
+**Night:** As the sun sets, gather at Cafe-Restaurant Chems for a delightful dining experience. Relish the exquisite dishes offered in a convivial atmosphere, savoring the flavors of Gabese cuisine while engaging in lively conversations.</t>
+        </is>
+      </c>
+      <c r="AB72" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Golf Beach Gabes is a cafe located in Gabes, Tunisia, known for its 4.7-star rating and 24-hour operation. Nestled on Golf Beach in Gabes Plage, it boasts a convenient location close to the coast. Its primary category is cafe, and it offers a welcoming atmosphere for guests.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+Discover "By Omar Coffee Lounge," a must-visit destination located in Gabes. This renowned restaurant invites you to savor delectable cuisine, promising an unforgettable dining experience. Situated at coordinates (33.8776521, 10.092417), "By Omar Coffee Lounge" awaits your presence.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Radio elyssa is a gas station located in Gabes, France, at the coordinates (43.7034285, 7.2661312). It has a rating of 5.0 based on 1 review.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8378,12 +11523,69 @@
       </c>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>If you're in Gabes and seeking a delicious dining experience, CONSERVERIE GABES TIC TAC is a highly recommended restaurant located at V475+67P CONSERVERIE GABES TIC TAC, Av. Abou El Kacem Chebbi, Gabes. It has earned a superb rating of 5.0, making it a must-try destination. The restaurant is open from 09:00 to 19:00 during weekdays and welcomes you to savor its culinary delights. For more information, please visit their website or contact them at 50 501 722.</t>
+          <t>CONSERVERIE GABES TIC TAC is a restaurant located in Gabes, Tunisia. The restaurant is open from 09:00 to 19:00 and is closed on Fridays. The restaurant has a rating of 5.0 and is located at the coordinates (33.8776521, 10.092417).</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>What is the name and location of the 5.0-rated restaurant known for its exceptional dining experience in Gabes?</t>
+          <t>Day Plan:
+Morning: Exploring the scenic Plage Corniche de Gabes
+Mid-Morning: Trying local cuisine at Baniola creperie by RoO, known for its highly-rated crepes
+Midday: Visiting the historical and cultural Ras el Oueed, including the ruins of an ancient Roman fort
+Afternoon: Enjoying a swim and sunbathing at the beautiful Plage Corniche de Gabes
+Evening: Relaxing with a cup of coffee at "Le grain de café", known for its cozy atmosphere and friendly staff
+Night: Experiencing the vibrant atmosphere of Gabes Plage, with its lively cafes and restaurants, such as Golf Beach Gabes</t>
+        </is>
+      </c>
+      <c r="AB73" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Golf Beach Gabes is a cafe located in Gabes, Tunisia, known for its 4.7-star rating and 24-hour operation. Nestled on Golf Beach in Gabes Plage, it boasts a convenient location close to the coast. Its primary category is cafe, and it offers a welcoming atmosphere for guests.
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+Baniola creperie by RoO, located in Gabes (33.8776521, 10.092417), is a highly-rated restaurant (5.0 stars from 3 reviews) specializing in crepes. With its workday hours from 8 am to midnight, Baniola creperie by RoO offers a convenient dining experience for both breakfast and dinner.
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8485,14 +11687,69 @@
       </c>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a good place to eat, check out Restaurant Loasis Gabes located at V3PX+59C Restaurant Loasis Gabes, Av. Farhat Hachad - shr` frHt Hshd, Gabes. 
-This top-rated destination is perfect for Restaurant lovers. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.8776521, 10.092417. For more details, call them at 75 273 087.</t>
+          <t>Restaurant Loasis Gabes is a restaurant located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417). The restaurant offers a variety of dishes and is rated 4.0 out of 5 stars by its customers. It is open every day except for Sunday and Monday.</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>Which high-rated (4.0) restaurant located at GPS coordinates 33.8776521, 10.092417 in Gabes specializes in Restaurant cuisine?</t>
+          <t>Day Plan:
+Morning: Explore the historical sights of Gabes by visiting the Region Maritime de Gabes (OMMP) for local administration and the Gare de Gabes for transportation services.
+Mid-Morning: Immerse in the natural beauty by exploring Oued Griaa, a charming point of water with picturesque surroundings.
+Midday: Delight in the local cuisine at Restaurant Pizzeria PINO, renowned for its delicious Italian delicacies.
+Afternoon: Take a guided tour of Mchergui farm, a top-rated tourist attraction offering unique experiences with animals and educational programs.
+Evening: Head to CUBYGLACONS for a refreshing treat, savoring their highly rated sundaes.
+Night: Experience the vibrant nightlife culture at O'TAKE, a trendy cafe and grill restaurant, or enjoy the cozy ambiance of "Le grain de café" for a relaxing evening with aromatic coffee and delectable pastries.</t>
+        </is>
+      </c>
+      <c r="AB74" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Rio Café is a Mexican restaurant located in Sfax, Tunisia. It offers a variety of Mexican dishes, including tortillas, burritos, and tacos. The restaurant is located at km 1 Rte de Gabes, Sfax 3000.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+Le 52 is a restaurant located in Gabes, Tunisia. It offers a variety of dishes including pizza, pasta, and meat dishes. The restaurant has received positive reviews for its food and service. It is closed on Sundays and is open from 12:00 PM to 10:00 PM on all other days of the week.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a 4.7-rated tourist attraction located in Gabes, Tunisia. The farm offers a variety of experiences, including guided tours, animal encounters, and educational programs. It is located at the coordinates (33.86083082856, 10.099978627695).
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Shell is a gas station located in Gabes, Tunisia. It offers 24-hour fuel service, a car wash, and a convenience store. The station is situated on Jardin Public avenue Farhat Hached, near the intersection of Av. Farhat Hachad and shr` frHt Hshd. The Shell station has a rating of 3.2 based on 6 reviews.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8594,14 +11851,11 @@
       </c>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Cafe resto le prince located at PX8G+X53 Cafe resto le prince, Rte de Gabes, Kebili. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 33.7053164, 8.9659272. For more details, visit their website or call them at 98 435 177.</t>
-        </is>
-      </c>
-      <c r="AA75" t="inlineStr">
-        <is>
-          <t>Where can you find a highly rated (4.3) Cafe resto le prince offering a variety of Restaurant options, located in Gabes and perfect for Restaurant enthusiasts?</t>
-        </is>
-      </c>
+          <t>Cafe Resto Le Prince is a restaurant in Gabes, Tunisia, with a rating of 4.3 out of 5 based on 7 reviews. Its exact location is 33.7053164, 8.9659272. The restaurant offers a variety of dishes and has a cozy ambiance. It is a great place to enjoy a meal with friends or family.</t>
+        </is>
+      </c>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -8697,12 +11951,70 @@
       </c>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Pizza pesto located at 9F2P+672 Pizza pesto, Rue de Gabes, Medenine. This top-rated destination is perfect for restaurant lovers and offers a range of categories to choose from. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website</t>
+          <t>Pizza Pesto is a 4-star rated restaurant located in the city of Gabès, Tunisia at the coordinates (33.3497059, 10.4863079). Featuring a main category of Restaurant, it also offers a variety of cuisines, with 3 reviews to its name.</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated restaurant offering diverse cuisine options in Gabes, Tunisia?</t>
+          <t>Day Plan:
+Morning: Explore the historic El Majless coffee lounge and savor the aroma of local coffee.
+Mid-Morning: Immerse yourself in the tranquillity of Oued Griaa, admiring its enchanting natural beauty.
+Midday: Delight in traditional Turkish cuisine at Sami Restaurant Turc, tantalizing your taste buds with authentic flavors.
+Afternoon: Stroll along the picturesque Plage Corniche de Gabes, embracing the invigorating ocean breeze and engaging in recreational activities.
+Evening: Experience the vibrant cultural heritage of Gabes at "Le grain de café," immersing yourself in local traditions and savoring delectable pastries.
+Night: Relish the flavors of Pronto Pizza, indulging in a culinary feast that showcases the region's culinary delights.</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Majless coffee lounge is a cafe located at PX7F+M8R El Majless coffee lounge, Rte de Gabes, Kebili. It has a rating of 4.5 out of 5, with 11 reviews and a featured image. It is open from 08:00-23:00 and closed on []. The phone number is 23 494 420. Its main category is Cafe, and its categories are ['Cafe']. It is located at coordinates (33.7053164, 8.9659272).
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+Sami Restaurant Turc is a Turkish restaurant located in Gabes, Tunisia. It has a 4.7 rating on Google and is open from 11:00 to 22:00 during the week, but is closed on Sundays. The restaurant is known for its traditional Turkish cuisine and has received positive reviews for its food and service.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a 4.7-rated tourist attraction located in Gabes, Tunisia. The farm offers a variety of experiences, including guided tours, animal encounters, and educational programs. It is located at the coordinates (33.86083082856, 10.099978627695).
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Radio elyssa is a gas station located in Gabes, France, at the coordinates (43.7034285, 7.2661312). It has a rating of 5.0 based on 1 review.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8800,13 +12112,76 @@
       </c>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great Creperie, check out la crepe rit located at route de gabes km2. 
-This top-rated destination has a rating of 5.0. To get there, use these GPS coordinates: 33.3497059, 10.4863079. For more details, visit their website at https://www.google.com/maps/place/la+cr%C3%AApe+rit/data=!4m7!3m6!1s0x1255295bd4d04013:0x138e2052b784acb3!8m2!3d33.363532!4d10.463694!16s%2Fg%2F11j22yzn3j!19sChIJE0DQ1FspVRIRs6yEt1IgjhM?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated (5.0) Creperie called La Crepe Rit while exploring Gabes, accessible through specific GPS coordinates?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the historical Hotel l'Oasis Gabes for its stunning architecture and amenities.
+**Mid-Morning:**
+* Indulge in a flavorful local breakfast at Restaurant Fruit De Mer, known for its fresh seafood and affordable prices.
+**Midday:**
+* Visit the Plage Corniche de Gabes for breathtaking views of the Mediterranean Sea and enjoy a leisurely stroll along the beach.
+**Afternoon:**
+* Take a guided tour of the Port de peche de Gabes to learn about the local fishing industry and observe the bustling atmosphere.
+* Explore the traditional Region Maritime de Gabes (OMMP), admiring its architectural beauty and public services.
+**Evening:**
+* Experience a romantic dinner at Le Sky Cafe Lounge, savoring local cuisine and sipping refreshing cocktails while enjoying live music.
+**Night:**
+* Dance the night away at My House Lounge, a lively nightclub known for its vibrant atmosphere and electrifying music.</t>
+        </is>
+      </c>
+      <c r="AB77" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+Restaurant Fruit De Mer is a dining establishment in Gabes, Tunisia. It has a 4.0 rating based on 119 reviews, and is open from 11:15 AM to 11:00 PM. The restaurant offers a variety of seafood dishes and is known for its affordable prices, fresh fish, attentive service and family-friendly atmosphere. It is located at Gabes, Tunisia, and can be contacted at 98 507 323.
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -8912,12 +12287,75 @@
       </c>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a great place to eat, check out Piccolino located at Rue de Bizerte, Gabes. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.1, it's a must-visit spot. It's open during these hours: 07:00-23:45. To get there, use these GPS coordinates: 33.887314892123, 10.097416422319. For more details, visit their website at https://www.google.com/maps/place/Piccolino/data=!4m7!3m6!1s0x12e31fecc36ef0e1:0xaf4c45e81e1846d0!8m2!3d37.2969052!4d9.8665507!16s%2Fg%2F11fn9_n2ky!19sChIJ4fBuw-wf4xIR0EYYHuhFTK8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 50 359 103.</t>
+          <t>Piccolino is a restaurant located in Gabes, Tunisia, offering a diverse menu including pizzas, burgers, salads, and seafood dishes. Situated at 7VW8+QJ7 Rue de Bizerte, it operates daily from 7 AM to 11:45 PM. With a rating of 4.1 based on 136 reviews, it is known for its reasonable prices, attentive service, and delicious sauces.</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find Piccolino, a top-rated restaurant destination for Restaurant lovers with a 4.1 rating?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the stunning Plage Corniche de Gabes, enjoying its beautiful scenery and various amenities.
+**Mid-Morning:**
+* Indulge in delicious local cuisine at Restaurant RAPIDO, savoring the flavors and culinary delights of the region.
+**Midday:**
+* Visit the Port de peche de Gabes, immersing yourself in the bustling atmosphere of a working fishing port.
+**Afternoon:**
+* Take a refreshing break at O'TAKE, enjoying a delightful cafe or grill meal while relishing the cozy ambiance.
+**Evening:**
+* Witness the vibrant nightlife at Ras El Oueed, experiencing the lively tourist attractions and the vibrant local culture.
+**Night:**
+* Unwind and relax at So Sweet, indulging in their delectable crepes and sweet treats while enjoying the sweet vibes of the creperie.</t>
+        </is>
+      </c>
+      <c r="AB78" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Costa Cafe crepe is a cafe located in Gabes, Tunisia, at coordinates (33.8776521, 10.092417). It offers a variety of cafe beverages and has a 4.0 rating based on 2 reviews. It is open from 6:00 AM to midnight every day.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.
+Restaurant RAPIDO is a restaurant located in Gabes at the coordinates (33.8776521, 10.092417). It has a rating of 4.6 out of 5 and offers a variety of dining options. The restaurant is open 7 days a week and offers takeout and delivery services.
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+So Sweet is a 5-star rated creperie located in Gabes, Tunisia. It is open from 7 am to 3 am and offers a variety of crepes and other sweet treats. The creperie is located at the coordinates (33.8776521, 10.092417).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station de taxi Chenini is a local taxi station located in Gabès, Tunisia. It has been rated 4.0 stars out of 5 by previous customers and is open from 6:00 AM to 6:00 PM. The taxi station is situated at the coordinates (33.87861, 10.0618) and offers taxi services to the local community.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9025,12 +12463,69 @@
           <t>gabes</t>
         </is>
       </c>
-      <c r="Z79" t="inlineStr">
-        <is>
-          <t>If you're in gabes and looking for a reliable stop, check out TotalEnergies - GABES located at Route de Tunis, Chenini Nahal. This top-rated destination is perfect for Station-service lovers and offers a range of services to choose from. With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 33.8603277, 10.1270737. For more details, visit their website at https://services.totalenergies.tn/ or call them at 75 350 017.</t>
-        </is>
-      </c>
-      <c r="AA79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr">
+        <is>
+          <t>Day Plan:
+Morning: Explore Plage Corniche de Gabes for its sandy shores and refreshing ocean breeze. Take a leisurely walk along the beach, enjoying the coastal atmosphere and capturing the scenic beauty.
+Mid-Morning: Visit Restaurant Pizzeria PINO for an authentic Italian culinary experience. Delight in delicious pizzas, pastas, and salads while soaking in the vibrant ambiance of this local restaurant.
+Midday: Discover the Port de peche de Gabes, a hub for the fishing industry. Witness the bustling activities of fishermen and explore the array of amenities, including the fish market and cafes.
+Afternoon: Head to Ras El Oueed, a captivating tourist attraction known for its historical significance. Delve into the local history and culture by engaging with friendly locals and exploring the site's captivating surroundings.
+Evening: Enjoy dinner at My House Lounge, a highly-rated dining establishment. Savor delectable grilled dishes and a warm ambiance while immersing yourself in the culinary flavors of Gabes.
+Night: Indulge in a sweet treat at CUBYGLACONS. Located in the heart of the city, this local favorite offers refreshing sundaes that are the perfect end to a day of exploration.</t>
+        </is>
+      </c>
+      <c r="AB79" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Golf Beach Gabes is a cafe located in Gabes, Tunisia, known for its 4.7-star rating and 24-hour operation. Nestled on Golf Beach in Gabes Plage, it boasts a convenient location close to the coast. Its primary category is cafe, and it offers a welcoming atmosphere for guests.
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+Restaurant La Luna Italien Gabes, a highly rated (4.2/5) eatery with a 24/7 opening policy, is situated in the bustling city of Gabes, Tunisia. Nestled in the heart of 21 Av. Farhat Hachad - shr` frHt Hshd, the establishment is easily accessible to locals and visitors alike. Boasting a delectable menu and a cozy ambiance, the restaurant specializes in Italian cuisine, promising an unforgettable culinary experience.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a tourist attraction in Gabes, Tunisia. It is located at the coordinates (33.87861, 10.0618) and offers a variety of activities for visitors. The site is open from 08:00 to 01:00 every day and has received a 4.2 rating from 54 reviews on Google Maps. Visitors can explore the site and its surroundings, and learn about the local history and culture.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Radio elyssa is a gas station located in Gabes, France, at the coordinates (43.7034285, 7.2661312). It has a rating of 5.0 based on 1 review.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -9126,13 +12621,70 @@
       </c>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a reliable station, check out Staroil Gabes located at V3RH+FQ9 Staroil Gabes, Chenini Nahal. 
-This top-rated destination is perfect for station lovers and has a rating of 5.0, making it a must-visit spot. For more details, visit their website at  https://www.google.com/maps/place/Staroil+Gabes/data=!4m7!3m6!1s0x1255702094f0b715:0xb771a54f2bcab786!8m2!3d33.8911632!4d10.0794813!16s%2Fg%2F11f53yrjp0!19sChIJFbfwlCBwVRIRhrfKK0-lcbc?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Staroil Gabes is a gas station located in Chenini Nahal, Gabes, Tunisia. It offers fuel, lubricants, and other automotive services. The gas station is well-rated by customers, with an average rating of 5.0 out of 5.0. It is located at latitude 33.8976989 and longitude 10.0824252.</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated station with a rating of 5.0 in the Gabes area?</t>
+          <t>Day Plan:
+Morning: Exploring Golf Beach Gabes while admiring its stunning coastal scenery.
+Mid-Morning: Trying local cuisine at Pizza Pesto, savoring the flavors of Gabès.
+Midday: Visiting Hôtel BEN NJIMA, experiencing its luxurious accommodations and exceptional service.
+Afternoon: Enjoying the refreshing ocean breeze and indulging in coastal adventures at Plage Corniche de Gabes.
+Evening: Relaxing with a revitalizing spa treatment at My House Lounge, rejuvenating mind and body.
+Night: Experiencing the vibrant nightlife at BIBO, savoring its delectable pizzas and Italian specialties.</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Golf Beach Gabes is a cafe located in Gabes, Tunisia, known for its 4.7-star rating and 24-hour operation. Nestled on Golf Beach in Gabes Plage, it boasts a convenient location close to the coast. Its primary category is cafe, and it offers a welcoming atmosphere for guests.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+Pizza Pesto is a 4-star rated restaurant located in the city of Gabès, Tunisia at the coordinates (33.3497059, 10.4863079). Featuring a main category of Restaurant, it also offers a variety of cuisines, with 3 reviews to its name.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Radio elyssa is a gas station located in Gabes, France, at the coordinates (43.7034285, 7.2661312). It has a rating of 5.0 based on 1 review.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9242,12 +12794,75 @@
       </c>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a reliable train station, check out Gare de Gabes located at Avenue Mongi Slim. This top-rated destination is perfect for travelers seeking a convenient transportation hub. With a rating of 3.2, it's a must-visit spot open 24 hours a day. For more details, visit their website at http://www.sncft.com.tn/. or call them at 75 274 248.</t>
+          <t>The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.</t>
         </is>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find a renowned train station known for its convenience and high rating?</t>
+          <t>Day Plan:
+Morning:
+- Explore the Plage Corniche de Gabes beach for stunning coastal views and relaxation.
+Mid-Morning:
+- Visit Le grain de café for a delightful selection of coffee and tea beverages, along with pastries and sandwiches.
+Midday:
+- Indulge in local cuisine at Restaurant Pizzeria PINO, renowned for its authentic Italian dishes and welcoming atmosphere.
+Afternoon:
+- Discover the natural beauty of Oued Griaa, a charming water source with tranquil surroundings.
+Evening:
+- Experience traditional flavors at Restaurant le roi bleu, offering a wide variety of dishes and a cozy ambiance.
+Night:
+- Relax and rejuvenate at My House Lounge, featuring a cozy atmosphere and a warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Sky Cafe Lounge is a cafe located in Gabes, Tunisia. It offers a variety of drinks and snacks, and has a cozy atmosphere. The cafe is located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes, and is open from 8am to 10pm every day.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.
+Restaurant le roi bleu is a restaurant located in Gabes, Tunisia, at the coordinates (33.884506881014, 10.1023851976). It is open from 12:00-16:00 and 18:00-21:00, and is closed on Saturdays. The restaurant has a rating of 4.5 stars on Google, and offers a wide variety of dishes.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a 4.7-rated tourist attraction located in Gabes, Tunisia. The farm offers a variety of experiences, including guided tours, animal encounters, and educational programs. It is located at the coordinates (33.86083082856, 10.099978627695).
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station de taxi Chenini is a local taxi station located in Gabès, Tunisia. It has been rated 4.0 stars out of 5 by previous customers and is open from 6:00 AM to 6:00 PM. The taxi station is situated at the coordinates (33.87861, 10.0618) and offers taxi services to the local community.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9337,13 +12952,69 @@
       </c>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a transportation company, check out Station Bus Gabes located at V3JP+WG2 Station Bus Gabes, Av.de la Republique - shr` ljumhwryW@, Gabes. 
-With a rating of 2.8, it's a must-visit spot. It's open 24/7. For more details, visit their website at https://www.google.com/maps/place/Station+Bus+Gabes/data=!4m7!3m6!1s0x12556fd74ad8dbc7:0x6955b44e8917a6b5!8m2!3d33.8822654!4d10.0862649!16s%2Fg%2F11dx9dhz94!19sChIJx9vYStdvVRIRtaYXiU60VWk?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Station Bus Gabes is a bus station located on Av.de la Republique in Gabes, Tunisia. It offers bus services to various destinations in the region. The bus station has a rating of 2.8 based on 28 reviews.</t>
         </is>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
-          <t>Where can you find a 24/7 transportation company in Gabes with a 2.8 rating?</t>
+          <t>Day Plan:
+Morning: Explore the fascinating Ras el Oueed, renowned for its scenic beauty and proximity to the Zoo Chenenni. Immerse yourself in the area's rich history and enjoy the tranquil ambiance.
+Mid-Morning: Visit the Region Maritime de Gabes (OMMP) to gain insights into local administration and public services. Engage with friendly locals and learn about the region's governance.
+Midday: Indulge in a delightful culinary experience at Restaurant Palais de la mer, specializing in seafood delicacies. Savor the authentic flavors of Gabes while enjoying the warm ambiance of the restaurant.
+Afternoon: Embark on a refreshing visit to Plage Corniche de Gabes, a haven for beachgoers. Relax on the sandy shores, soak up the sun, and immerse yourself in the vibrant local beach culture.
+Evening: Experience the vibrant atmosphere at Le Sky Cafe Lounge, offering a blend of café and bar lounge services. Sip on refreshing beverages, savor light bites, and enjoy live music or entertainment.
+Night: Wind down your day with a relaxing evening at My House Lounge, a charming café et restaurant de grillades. Treat yourself to delectable grilled dishes and unwind in the cozy ambiance, perfect for a delightful end to your day in Gabes.</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+Restaurant Palais de la mer is a restaurant located in Gabes, Tunisia with coordinates (33.88997552981, 10.112436063016). This restaurant offers seafood specialties, as indicated by the keyword "poisson" appearing in customer reviews.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station de taxi Chenini is a local taxi station located in Gabès, Tunisia. It has been rated 4.0 stars out of 5 by previous customers and is open from 6:00 AM to 6:00 PM. The taxi station is situated at the coordinates (33.87861, 10.0618) and offers taxi services to the local community.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9441,12 +13112,69 @@
       </c>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Gabes located at Avenue Mongi Slim. This top-rated destination is perfect for Gare lovers and offers a range of Gare to choose from. With a rating of 3.1, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Gabes/data=!4m7!3m6!1s0x12556fc671c21183:0xaa3dd00b07bd7aee!8m2!3d33.8843785!4d10.0993771!16s%2Fg%2F1tz7qyyh!19sChIJgxHCccZvVRIR7nq9BwvQPao?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.</t>
         </is>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
-          <t>What top-rated destination in Gabes offers a variety of Gare experiences?</t>
+          <t>Day Plan:
+Morning: Exploring the historical Port de peche de Gabes and learning about its fishing industry.
+Mid-Morning: Visit the Region Maritime de Gabes (OMMP) to learn about local administration and public services.
+Midday: Try local cuisine at "O'TAKE", a highly-rated cafe and grill restaurant offering delicious food and a warm atmosphere.
+Afternoon: Enjoy scenic views and fresh air at Plage Corniche de Gabes, a beautiful beach with ample amenities and stunning Mediterranean Sea views.
+Evening: Explore the cultural heritage of Gabes at Ras el Oueed, a popular tourist destination known for its scenic beauty and historical landmarks, including the ruins of an ancient Roman fort.
+Night: Indulge in a delectable dinner at "Chez mon ex," a renowned creperie serving authentic and savory crepes in a cozy and inviting ambiance.</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Majless coffee lounge is a cafe located at PX7F+M8R El Majless coffee lounge, Rte de Gabes, Kebili. It has a rating of 4.5 out of 5, with 11 reviews and a featured image. It is open from 08:00-23:00 and closed on []. The phone number is 23 494 420. Its main category is Cafe, and its categories are ['Cafe']. It is located at coordinates (33.7053164, 8.9659272).
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+Discover "By Omar Coffee Lounge," a must-visit destination located in Gabes. This renowned restaurant invites you to savor delectable cuisine, promising an unforgettable dining experience. Situated at coordinates (33.8776521, 10.092417), "By Omar Coffee Lounge" awaits your presence.
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Shell is a gas station located in Gabes, Tunisia. It offers 24-hour fuel service, a car wash, and a convenience store. The station is situated on Jardin Public avenue Farhat Hached, near the intersection of Av. Farhat Hachad and shr` frHt Hshd. The Shell station has a rating of 3.2 based on 6 reviews.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9544,12 +13272,70 @@
       </c>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a Gare routiere, check out station de lowage et bus GABES located at station de lowage et bus GABES, Av.de la Republique - shr` ljumhwryW@, Gabes. This top-rated destination is perfect for Gare routiere lovers and offers a range of Gare routiere to choose from. With a rating of 2.8, it's a must-visit spot. To get there, use these GPS coordinates: 33.881272555513, 10.090208387711.</t>
+          <t>**Gare routière et de taxi-bus de Gabès**
+Située en bordure de l'Avenue de la République, cette gare routière offre un accès facile au transport en commun pour les habitants et les visiteurs de Gabès. Elle propose des services de lowage (taxi-bus) vers diverses destinations de la région, ainsi que des liaisons par bus longue distance. La gare dispose d'une grande cour pour le stationnement des véhicules. Sa cote de 2,8 sur 5 étoiles reflète un niveau de satisfaction moyen parmi les utilisateurs.</t>
         </is>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Gare routiere with a variety of options in Gabes?</t>
+          <t>Day Plan:
+Morning: Explore the lively streets of Gabes and visit the local market for souvenirs and local produce.
+Mid-Morning: Visit the historical landmarks in Gabes, including the Hotel l'Oasis Gabes, a 4-star hotel with a rich history and stunning architecture.
+Midday: Indulge in the local cuisine at Pronto Pizza, known for its delicious pizzas and excellent service, as evidenced by its high rating and positive reviews.
+Afternoon: Experience the beauty of nature by visiting Plage Corniche de Gabes, a picturesque beach with soft sands and breathtaking coastal views. Enjoy various beach activities, relax, and soak up the sun.
+Evening: Immerse yourself in art and culture with a guided tour of the Region Maritime de Gabes (OMMP), a local administration building with a unique architectural design. Learn about the history and significance of the building.
+Night: Head to My House Lounge, a cozy and welcoming café and grill restaurant, to unwind and enjoy a delightful dinner. Savor the flavorful dishes while relishing the warm ambiance.</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Costa Cafe crepe is a cafe located in Gabes, Tunisia, at coordinates (33.8776521, 10.092417). It offers a variety of cafe beverages and has a 4.0 rating based on 2 reviews. It is open from 6:00 AM to midnight every day.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+Baniola creperie by RoO, located in Gabes (33.8776521, 10.092417), is a highly-rated restaurant (5.0 stars from 3 reviews) specializing in crepes. With its workday hours from 8 am to midnight, Baniola creperie by RoO offers a convenient dining experience for both breakfast and dinner.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Shell is a gas station located in Gabes, Tunisia. It offers 24-hour fuel service, a car wash, and a convenience store. The station is situated on Jardin Public avenue Farhat Hached, near the intersection of Av. Farhat Hachad and shr` frHt Hshd. The Shell station has a rating of 3.2 based on 6 reviews.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9647,12 +13433,71 @@
       </c>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a reliable gas station, check out AGIL. This top-rated destination is perfect for those looking to refuel their vehicles and offers a range of services to choose from. With a rating of 4.0, it's a must-visit spot for all your gas station needs. Its address is V3MP+HCG AGIL, and coordinates are (33.8962351, 9.811008). For more details, visit their website at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>AGIL is a gas station located in Gabes, Tunisia. It offers a range of services including fuel, auto repair, and car wash. The gas station has a 4.0-star rating based on 19 reviews and is owned by AGIL (proprietaire). It is located at the coordinates (33.8962351, 9.811008) and can be found on Google Maps at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated gas station with a wide range of services in the Gabes area?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Ras El Oueed, a scenic spot with breathtaking views.
+Mid-Morning: Take a guided tour of the Region Maritime de Gabes (OMMP) to gain insights into local administration and maritime affairs.
+Midday: Indulge in a delightful lunch at My House Lounge, known for its delectable cuisine and comfortable ambiance.
+Afternoon: Enjoy outdoor adventures at Plage el Kazma Gabes, a captivating beach offering swimming, sunbathing, and coastal relaxation.
+Evening: Immerse yourself in the vibrant atmosphere of Le Sky Cafe Lounge, where you can unwind with a drink and savor the cozy ambiance.
+Night: Experience the lively cultural scene at "La Crepe Rit," a creperie renowned for its mouthwatering crepes.</t>
+        </is>
+      </c>
+      <c r="AB85" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Sky Cafe Lounge is a cafe located in Gabes, Tunisia. It offers a variety of drinks and snacks, and has a cozy atmosphere. The cafe is located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes, and is open from 8am to 10pm every day.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+**Chapati Mahdia**, located in Gabes (lat: 33.8776521, lon: 10.092417), is a highly-rated (4.5 stars from 6 reviews) restaurant that operates from 09:00 to 19:00 every day of the week. It specializes in providing a dining experience with its main category being Restaurant and its only subcategory being Restaurant.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+**Gare Medou Matmata**
+Located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417), Gare Medou Matmata is a petrol station offering a range of services to motorists. It is easily accessible from Avenue Bechir El Jaziri - shr` lbshyr ljzyry. With a rating of 5.0 based on 1 review, Gare Medou Matmata is highly praised for its services.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9750,12 +13595,82 @@
       </c>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a reliable gas station, look no further than Station service Agil GABES VILLE, located on Rue El Hbib Chagra. This highly-rated spot has a rating of 4.1 and offers all the essential services you need. It's open 24/7, so you can refuel your vehicle anytime. To get there, use the GPS coordinates: (33.8759875, 10.0929339).</t>
+          <t>Station service Agil GABES VILLE is a gas station located in Gabes, Tunisia. It offers a variety of services to its customers, including gasoline, diesel, and car wash. The station is conveniently located near several major roads, making it easy to access.</t>
         </is>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated gas station that offers 24/7 convenience in Gabes, with a rating of 4.1 and precise GPS coordinates?</t>
+          <t>Day Plan:
+**Morning:**
+- Exploring the colorful alleys and vibrant streets of Gabes
+- Visit the Gabes train station, a historic landmark, to admire its architecture and learn about its significance in local transportation.
+**Mid-Morning:**
+- Indulge in a delightful breakfast at Le Sky Cafe Lounge, known for its cozy ambiance and diverse menu.
+- Experience the flavors of local cuisine at Montazah Chems, a local favorite offering a tantalizing selection of traditional and international dishes.
+**Midday:**
+- Take a refreshing dip and enjoy water sports at Plage el Kazma Gabes, a popular beach with golden sands and inviting waters.
+- Embark on a guided tour of the Port de peche de Gabes, a bustling fishing port, and learn about the local fishing industry.
+**Afternoon:**
+- Spend some time exploring the Region Maritime de Gabes (OMMP), a local administration building offering insights into the region's governance and public services.
+- Visit the Mchergui farm, a popular tourist attraction known for its picturesque surroundings and engaging activities.
+**Evening:**
+- Admire the tranquil beauty of Oued Griaa, a natural oasis offering a serene atmosphere and scenic views.
+- Unwind with a relaxing massage at a local spa or hotel, treating yourself to a moment of rejuvenation and pampering.
+**Night:**
+- Engage in the vibrant nightlife at My House Lounge, a café and grill restaurant known for its lively atmosphere and delicious food.
+- Experience the fast-paced energy of el ksour, a fast-food restaurant offering a taste of local culinary delights.</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Sky Cafe Lounge is a cafe located in Gabes, Tunisia. It offers a variety of drinks and snacks, and has a cozy atmosphere. The cafe is located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes, and is open from 8am to 10pm every day.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+**Montazah Chems** is a restaurant located in Gabes, Tunisia. It offers a variety of dishes, including traditional Tunisian cuisine and international fare. The restaurant is located in a convenient location, close to the city center and many of the city's attractions. It has a 4.0 rating on Google, based on 20 reviews, and is a popular spot for locals and tourists alike.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Shell is a gas station located in Gabes, Tunisia. It offers 24-hour fuel service, a car wash, and a convenience store. The station is situated on Jardin Public avenue Farhat Hached, near the intersection of Av. Farhat Hachad and shr` frHt Hshd. The Shell station has a rating of 3.2 based on 6 reviews.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9857,14 +13772,76 @@
       </c>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking to refuel, check out Station de louage Matmata located at V3MR+W87 Station de louage Matmata, Gabes. 
-This highly-rated station is perfect for drivers and offers a range of services to choose from. 
-With a rating of 3.0, it's a must-visit spot. It's open during these hours: 06:00-17:00. To get there, use these GPS coordinates: 33.8894028, 9.8000244.</t>
+          <t>The Station de louage Matmata is a gas station located in Gabes, Tunisia, at the coordinates (33.8894028, 9.8000244). It offers various services, including fuel, oil changes, and tire repairs. The station is open from 6:00 AM to 5:00 PM and is closed on weekends.</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>Where can travelers find a highly-rated gas station with a range of services in Gabes that is open from 6 AM to 5 PM?</t>
+          <t>Day Plan:
+**Morning:**
+* Explore Le Sky Cafe Lounge and savor the local café and bar lounge atmosphere while enjoying the vibrant city life.
+**Mid-Morning:**
+* Take a refreshing walk along Plage Corniche de Gabes, immersing yourself in the local beach culture and admiring the picturesque coastal landscapes.
+**Midday:**
+* Visit the highly-rated Chez Kayran for an authentic taste of Gabese cuisine, tantalizing your taste buds with their diverse menu.
+**Afternoon:**
+* Discover the hidden gem of Oued Griaa, a charming point of water that offers a serene natural retreat amidst the bustling city.
+**Evening:**
+* Indulge in the delightful ambiance of My House Lounge, enjoying their cozy atmosphere and satisfying your culinary cravings with their café and grill menu.
+**Night:**
+* Experience the lively nightlife at ClubyGlaçons, savoring their delectable sundaes and immersing yourself in the energetic atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB87" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Chez Kayran is a 4.7-rated restaurant in Gabes, Tunisia, located at coordinates (33.8776521, 10.092417). It is open from 6:00 AM to 1:00 PM, and offers a varied menu not specified in the provided information.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+**Gare Medou Matmata**
+Located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417), Gare Medou Matmata is a petrol station offering a range of services to motorists. It is easily accessible from Avenue Bechir El Jaziri - shr` lbshyr ljzyry. With a rating of 5.0 based on 1 review, Gare Medou Matmata is highly praised for its services.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -9974,12 +13951,70 @@
       </c>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a convenient stop, check out Shell located on Av. Farhat Hachad - shr` frHt Hshd. This top-rated station is perfect for those who need to refuel their vehicles and offers a range of services to choose from, including a car wash and a mini-market. With a rating of 3.2, it's a highly recommended spot. It's open 24 hours a day, 7 days a week. To get there, use these GPS coordinates: 33.8759875, 10.0929339.</t>
+          <t>Shell is a gas station located in Gabes, Tunisia. It offers 24-hour fuel service, a car wash, and a convenience store. The station is situated on Jardin Public avenue Farhat Hached, near the intersection of Av. Farhat Hachad and shr` frHt Hshd. The Shell station has a rating of 3.2 based on 6 reviews.</t>
         </is>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
-          <t>What is the highly-rated Shell station in Gabes that offers a convenient stop with services like a car wash and a mini-market?</t>
+          <t>Day Plan:
+Morning: Explore Plage el Kazma Gabes, enjoying the stunning views, swimming in the clear blue waters, and building sandcastles.
+Mid-Morning: Try local cuisine at BIBO, offering a wide variety of pizzas and Italian dishes, with a 4.6-star rating.
+Midday: Visit the Gare de Gabes, a major transportation hub with shops, restaurants, and cafes, offering a glimpse into the local lifestyle.
+Afternoon: Enjoy scenic views at Oued Griaa, a charming water point with tranquility and natural beauty.
+Evening: Relax with a delicious dinner at Chez mon ex, renowned for its authentic and savory crepes, with an impressive 4.8 rating.
+Night: Experience the vibrant nightlife at My House Lounge, a popular café and restaurant with live music and a lively atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB88" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Rio Café is a Mexican restaurant located in Sfax, Tunisia. It offers a variety of Mexican dishes, including tortillas, burritos, and tacos. The restaurant is located at km 1 Rte de Gabes, Sfax 3000.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+Pizza Pesto is a 4-star rated restaurant located in the city of Gabès, Tunisia at the coordinates (33.3497059, 10.4863079). Featuring a main category of Restaurant, it also offers a variety of cuisines, with 3 reviews to its name.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Station de taxi Chenini is a local taxi station located in Gabès, Tunisia. It has been rated 4.0 stars out of 5 by previous customers and is open from 6:00 AM to 6:00 PM. The taxi station is situated at the coordinates (33.87861, 10.0618) and offers taxi services to the local community.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10077,12 +14112,69 @@
       </c>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>If you're in Gabes looking for a bus station, check out Station Bus 1 et 6 located at Station Bus 1 et 6, Gabes. This top-rated destination is perfect for bus station lovers and offers a range of categories to choose from. With a rating of 2.8, it's a must-visit spot. To get there, use these GPS coordinates: 36.7222643, 10.1675788. For more details, visit their website at https://www.google.com/maps/place/Station+Bus+1+et+6/data=!4m7!3m6!1s0x12556fce1dd4b885:0x1aa8b9f691a0fae5!8m2!3d33.8784993!4d10.0920957!16s%2Fg%2F1q5gm4bf1!19sChIJhbjUHc5vVRIR5fqgkfa5qBo?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Bus 1 et 6 is a bus station situated in Gabes, Tunisia. With a rating of 2.8 out of 5, this public transport hub offers connections to various destinations. Located at 36.7222643 longitude and 10.1675788 latitude, the station provides a convenient gateway for travelers seeking efficient and affordable transportation options.</t>
         </is>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
-          <t>What is the top-rated bus station with a range of categories in Gabes?</t>
+          <t>**Day Plan:**
+**Morning:** Begin your day by exploring the local market for authentic Tunisian souvenirs and fresh produce.
+**Mid-Morning:** Visit the historical and cultural site of Ras el Oueed, known for its scenic beauty and Roman ruins.
+**Midday:** Indulge in a delightful lunch of local cuisine at Restaurant Fruit De Mer, renowned for its fresh fish and family-friendly atmosphere.
+**Afternoon:** Experience the vibrant atmosphere at the Plage Corniche de Gabes, where you can swim, sunbathe, and enjoy stunning Mediterranean views.
+**Evening:** Take a guided tour of the Region Maritime de Gabes (OMMP) for a glimpse into the local maritime industry.
+**Night:** Unwind at My House Lounge, a cozy café with a warm ambiance and delectable grilled dishes.</t>
+        </is>
+      </c>
+      <c r="AB89" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Rio Café is a Mexican restaurant located in Sfax, Tunisia. It offers a variety of Mexican dishes, including tortillas, burritos, and tacos. The restaurant is located at km 1 Rte de Gabes, Sfax 3000.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+Restaurant Fruit De Mer is a dining establishment in Gabes, Tunisia. It has a 4.0 rating based on 119 reviews, and is open from 11:15 AM to 11:00 PM. The restaurant offers a variety of seafood dishes and is known for its affordable prices, fresh fish, attentive service and family-friendly atmosphere. It is located at Gabes, Tunisia, and can be contacted at 98 507 323.
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10180,12 +14272,69 @@
       </c>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a reliable gas station nearby, make sure to check out Staroil Gabes. Located at V3RH+FQ9 Staroil Gabes, Chenini Nahal, they're highly-rated and offer top-notch services for all your fueling needs. With a rating of 5 stars, you can be sure you're getting the best. For more details, visit the link https://www.google.com/maps/place/Staroil+Gabes/data=!4m7!3m6!1s0x1255702094f0b715:0xb771a54f2bcab786!8m2!3d33.8911632!4d10.0794813!16s%2Fg%2F11f53yrjp0!19sChIJFbfwlCBwVRIRhrfKK0-lcbc?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find a highly-rated Staroil gas station with exceptional 5-star services?</t>
+          <t>Day Plan:
+Morning: Start the day by exploring the bustling local market, browsing colorful stalls and soaking up the vibrant atmosphere.
+Mid-Morning: Immerse yourself in the city's rich history with a visit to the Gabes Regional Museum. Discover ancient artifacts and learn about the region's past and cultural heritage.
+Midday: Indulge in a delightful lunch at Cafe Resto Le Prince, renowned for its authentic Tunisian cuisine and cozy ambiance. Savor traditional dishes while enjoying the warm hospitality.
+Afternoon: Escape the midday heat with a relaxing stroll along Plage el Kazma Gabes, a picturesque beach with golden sands and crystal-clear waters. Unwind, soak up the sun, and enjoy the soothing sound of waves.
+Evening: Experience the city's lively nightlife at Le Sky Cafe Lounge. Sip on refreshing cocktails, enjoy live music, and mingle with locals in a vibrant and energetic atmosphere.
+Night: Conclude the day with a memorable dinner at BIBO, a pizzeria known for its delectable pizzas and Italian specialties. Relish authentic flavors and savor the perfect ending to your day in Gabes.</t>
+        </is>
+      </c>
+      <c r="AB90" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a range of amenities, including a swimming pool, a restaurant, and a bar. The hotel is located near the beach and offers easy access to the city center.
+Cafe Resto Le Prince is a restaurant in Gabes, Tunisia, with a rating of 4.3 out of 5 based on 7 reviews. Its exact location is 33.7053164, 8.9659272. The restaurant offers a variety of dishes and has a cozy ambiance. It is a great place to enjoy a meal with friends or family.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm is a tourist attraction located in gabes, Tunisia. Its precise coordinates are (33.86083082856, 10.099978627695). It has a rating of 4.7 based on 20 reviews, and its main category is tourist attraction.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Chenini Nahal, Gabes, Tunisia. It offers fuel, lubricants, and other automotive services. The gas station is well-rated by customers, with an average rating of 5.0 out of 5.0. It is located at latitude 33.8976989 and longitude 10.0824252.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10279,12 +14428,70 @@
       </c>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>If you're in Gabes and looking for a reliable station, check out Station louage located at V4F2+35V Station louage. This popular destination is perfect for anyone in need of gas and offers a range of services to choose from. With a rating of 3.0, it's a must-visit spot for locals and travelers alike. To get there, use these GPS coordinates: 33.8894028, 9.8000244.</t>
+          <t>Station louage is a gas station located in Gabes, Tunisia. It offers fuel services and is conveniently positioned at the following coordinates (33.8894028, 9.8000244), making it easily accessible to the local community and travelers alike.</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>What is the name and location of the popular gas station with a 3.0 rating that offers a range of services in Gabes?</t>
+          <t>Day Plan:
+Morning: Explore the lively streets of Gabes by visiting Oued Griaa, a picturesque point of water with a tranquil atmosphere.
+Mid-Morning: Indulge in the local cuisine at Restaurant RAPIDO, known for its exceptional dining options and takeout services.
+Midday: Pay a visit to the Port de peche de Gabes, a bustling fishing port where you can witness the local fishing industry in action.
+Afternoon: Immerse yourself in the excitement of CUBYGLACONS, a highly-rated restaurant specializing in delectable sundaes, perfect for satisfying your sweet cravings.
+Evening: Take a leisurely stroll through the charming My House Lounge, an inviting cafe and restaurant, to unwind and savor the ambiance.
+Night: Experience the vibrant atmosphere of BIBO, a popular pizzeria, and indulge in its wide selection of pizzas and authentic Italian dishes.</t>
+        </is>
+      </c>
+      <c r="AB91" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe EZZAHRA, located at 9F3H+VJ7 Route de Gabes in Medenine, is a popular cafe offering its customers a wide variety of beverages and snacks. Situated at coordinates (33.3497059, 10.4863079), Cafe EZZAHRA boasts a rating of 4.0 based on 6 reviews, indicating its popularity among locals and visitors alike.
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+Restaurant RAPIDO is a restaurant located in Gabes at the coordinates (33.8776521, 10.092417). It has a rating of 4.6 out of 5 and offers a variety of dining options. The restaurant is open 7 days a week and offers takeout and delivery services.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Mchergui farm, located in Gabes, Tunisia (33.860831, 10.099979), is a highly-rated (4.7 stars from 20 reviews) tourist attraction. Visitors can expect a unique and unforgettable experience, as highlighted by its positive reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a Cafe et restaurant de grillades located in gabes with the coordinates (33.8776521, 10.092417). My House Lounge got a rating of 4.0 thanks to 50 reviews, and is open from 08:00-23:00, except for .
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+**Gare Medou Matmata**
+Located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417), Gare Medou Matmata is a petrol station offering a range of services to motorists. It is easily accessible from Avenue Bechir El Jaziri - shr` lbshyr ljzyry. With a rating of 5.0 based on 1 review, Gare Medou Matmata is highly praised for its services.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10382,12 +14589,69 @@
       </c>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>If you're in gabes and searching for where you can catch a bus, mHT@ lHflt - Hdyq@ 2 mrs is one of the best bus stops situated on the Avenue Mongi Slim. It has been rated a 2.7 by 3 users. Their GPS coordinates for easier navigation are (33.884506881014, 10.1023851976).</t>
+          <t>This bus stop is located on Avenue Mongi Slim in Gabes, Tunisia. It has a 2.7-star rating on Google Maps, based on 3 reviews. It is one of the main stops in the city, and is a convenient way to get around. The stop is located near several shops and restaurants, making it a great place to take a break and have a bite to eat.</t>
         </is>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
-          <t>What is the unique feature of the bus stop located at mHT@ lHflt - Hdyq@ 2 mrs in Gabes?</t>
+          <t>Day Plan:
+Morning: Explore the picturesque Plage Corniche de Gabes, soaking in the sun-kissed landscapes and indulging in leisurely coastal strolls.
+Mid-Morning: Visit the historical Ras el Oueed, where you can immerse yourself in the region's cultural heritage amidst ancient Roman ruins and scenic vistas.
+Midday: Savory your taste buds with a delightful culinary experience at Restaurant Fruit De Mer, renowned for its fresh seafood and family-friendly ambiance.
+Afternoon: Venture to My House Lounge, a charming café and grill, to savor delectable local cuisine and beverages while enjoying the cozy atmosphere.
+Evening: Engage in a delightful shopping spree at Tunisie, Gabes, a well-regarded supermarket, where you can find a wide range of local products and souvenirs.
+Night: Immerse yourself in the vibrant nightlife scene at Pronto Pizza, savoring mouthwatering pizzas and enjoying live entertainment while mingling with locals.</t>
+        </is>
+      </c>
+      <c r="AB92" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Rio Café is a Mexican restaurant located in Sfax, Tunisia. It offers a variety of Mexican dishes, including tortillas, burritos, and tacos. The restaurant is located at km 1 Rte de Gabes, Sfax 3000.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.
+Restaurant Fruit De Mer is a dining establishment in Gabes, Tunisia. It has a 4.0 rating based on 119 reviews, and is open from 11:15 AM to 11:00 PM. The restaurant offers a variety of seafood dishes and is known for its affordable prices, fresh fish, attentive service and family-friendly atmosphere. It is located at Gabes, Tunisia, and can be contacted at 98 507 323.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+Pronto Pizza serves you a variety of Pizzas. Located in Gabes, Pronto Pizza enjoys a 4.8/5 stars rating and 151 reviews. The restaurant is open from 12:00 to 00:00. The pricing of their menus is considered to be in the average.
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+AGIL is a gas station located in Gabes, Tunisia. It offers a range of services including fuel, auto repair, and car wash. The gas station has a 4.0-star rating based on 19 reviews and is owned by AGIL (proprietaire). It is located at the coordinates (33.8962351, 9.811008) and can be found on Google Maps at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10493,12 +14757,70 @@
       </c>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>If you're in Gabes and in search of a reliable fuel station, visit Station de taxi Chenini at V3MQ+3PV Station de taxi Chenini, Gabes. With a 4.0-star rating, this top-rated spot is ideal for vehicle owners. Operating hours are from 6 AM to 6 PM on weekdays. To reach the station, utilize the GPS coordinates: (33.87861, 10.0618). For further information, contact them at 52 684 125.</t>
+          <t>Station de taxi Chenini is a local taxi station located in Gabès, Tunisia. It has been rated 4.0 stars out of 5 by previous customers and is open from 6:00 AM to 6:00 PM. The taxi station is situated at the coordinates (33.87861, 10.0618) and offers taxi services to the local community.</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>Where can you find a highly-rated fuel station with convenient operating hours in Gabes?</t>
+          <t>Day Plan:
+Morning: Exploring the scenic beauty of Ras el Oueed. Engage in activities like hiking, fishing, and swimming.
+Mid-Morning: Visit the ruins of an ancient Roman fort at Ras el Oueed, immersing yourself in the historical significance of the region.
+Midday: Savor the flavors of local cuisine at Chez mon ex, renowned for its authentic and savory crepes.
+Afternoon: Head to Plage el Kazma Gabes for a relaxing afternoon. Bask in the sun, swim in the clear waters, and enjoy the coastal atmosphere.
+Evening: Experience the lively ambiance of My House Lounge. Enjoy a cup of coffee or a delicious meal while taking in the cozy atmosphere.
+Night: Embark on a guided tour of the Gabes train station. Learn about its architectural and historical significance, and immerse yourself in the local culture.</t>
+        </is>
+      </c>
+      <c r="AB93" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Bonjour, a highly-rated cafe located at PPGQ+5PF, Rte de Gabes, Sfax, is a great spot to relax and enjoy a cup of coffee. It operates from 6am to 11pm daily and has earned a 4.0 rating from satisfied customers. You can find additional information on their official website or by visiting their location directly.
+**Hôtel BEN NJIMA**
+Situated in Gabes, within the vicinity of the city's core, Hôtel BEN NJIMA boasts a 5-star rating, earning acclaim for its exceptional service. The hotel's prime location at coordinates (47.049555, 8.3123493) makes it easily accessible for guests. The establishment is renowned for its luxurious accommodations and warm hospitality, making it a perfect haven for both leisure and business travelers alike.
+Restaurant Fruit De Mer is located in Gabes with the coordinates (33.8776521, 10.092417) and serves a variety of seafood dishes. Based on customer reviews, the restaurant is particularly known for its reasonable prices, fresh fish options, attentive service, and family-friendly atmosphere.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Chenini Nahal, Gabes, Tunisia. It offers fuel, lubricants, and other automotive services. The gas station is well-rated by customers, with an average rating of 5.0 out of 5.0. It is located at latitude 33.8976989 and longitude 10.0824252.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10596,12 +14918,71 @@
       </c>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Arret l'artisanat located at Av. Farhat Hachad - shr` frHt Hshd, Gabes 6000. This top-rated destination is perfect for Arret de transports en commun lovers and offers a range of Arret de transports en commun to choose from. With a rating of 3.0, it's a must-visit spot. It's open during these hours: , but closed on []. To get there, use these GPS coordinates: 33.8759875, 10.0929339. For more details, visit their website at or call them at .</t>
+          <t>**Arrêt l'Artisanat**
+Located at Av. Farhat Hachad in Gabes, Arrêt l'Artisanat is a public transportation stop offering convenient access to the city's transit system. While not much descriptive information is available, its location makes it a practical choice for commuters and visitors navigating the area.</t>
         </is>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
-          <t>What is the must-visit spot in Gabes for Arret de transports en commun lovers, located on Av. Farhat Hachad - shr` frHt Hshd?</t>
+          <t>Day Plan:
+Morning: Explore the historical Hotel l'Oasis Gabes with its impressive architecture and elegant ambiance.
+Mid-Morning: Visit the Le Sky Cafe Lounge for a delightful coffee break and panoramic views of the city.
+Midday: Indulge in traditional Tunisian cuisine at Restaurant Pizzeria PINO, known for its authentic flavors and warm hospitality.
+Afternoon: Take a refreshing stroll along the stunning Plage Corniche de Gabes, soaking up the sun and enjoying the mesmerizing views of the Mediterranean Sea.
+Evening: Engage in some thrilling water sports or simply relax on the pristine sands of Ras El Oueed, a popular tourist spot with picturesque landscapes.
+Night: Head to BIBO, a charming pizzeria, for an unforgettable dining experience, savoring the delectable wood-fired pizzas and cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB94" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Le Sky Cafe Lounge is a cafe located in Gabes, Tunisia. It offers a variety of drinks and snacks, and has a cozy atmosphere. The cafe is located at V4Q8+8CQ Le Sky Cafe Lounge, Rte de la plage, Gabes, and is open from 8am to 10pm every day.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+Restaurant La Luna Italien Gabes, a highly rated (4.2/5) eatery with a 24/7 opening policy, is situated in the bustling city of Gabes, Tunisia. Nestled in the heart of 21 Av. Farhat Hachad - shr` frHt Hshd, the establishment is easily accessible to locals and visitors alike. Boasting a delectable menu and a cozy ambiance, the restaurant specializes in Italian cuisine, promising an unforgettable culinary experience.
+The Plage Corniche de Gabes is a popular beach destination located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and has a variety of amenities, including restaurants, cafes, and shops. The beach is also a great place to swim, sunbathe, and relax. It is easily accessible, being situated at the coordinates (33.903174189274, 10.105527429198). With its beautiful scenery and convenient location, Plage Corniche de Gabes is a must-visit for anyone traveling to the region.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+**Gare Medou Matmata**
+Located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417), Gare Medou Matmata is a petrol station offering a range of services to motorists. It is easily accessible from Avenue Bechir El Jaziri - shr` lbshyr ljzyry. With a rating of 5.0 based on 1 review, Gare Medou Matmata is highly praised for its services.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10699,13 +15080,69 @@
       </c>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Station Bus 1 et 6 located at Avenue Mongi Slim, Gabes. 
-This top-rated destination is perfect for Gare routiere lovers. With a rating of 2.0, it's a must-visit spot. To get there, use these GPS coordinates: 33.884506881014, 10.1023851976. For more details, visit their link at https://www.google.com/maps/place/Station+Bus+1+et+6/data=!4m7!3m6!1s0x12556fc5d1983509:0x46ec917e2843f250!8m2!3d33.8849413!4d10.0969586!16s%2Fg%2F1q5gkmb04!19sChIJCTWY0cVvVRIRUPJDKH6R7EY?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Station Bus 1 et 6 is a bus station located in Avenue Mongi Slim, Gabes. It is easily accessible by car and public transportation. The station offers a variety of services to travelers, including ticket sales, baggage storage, and currency exchange. It is also a convenient starting point for exploring the city of Gabes.</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>Where can you find a popular Gare routiere with a rating of 2.0 in Gabes, perfect for those interested in Station Bus 1 et 6?</t>
+          <t>Day Plan:
+Morning: Explore the scenic beauty of Plage Corniche de Gabes.
+Mid-Morning: Indulge in the authentic flavors of local cuisine at Restaurant Pizzeria PINO.
+Midday: Discover the historical significance and cultural treasures at the Region Maritime de Gabes.
+Afternoon: Escape into the serene oasis of Ras el Oueed, enjoying its picturesque landscapes and engaging in recreational activities.
+Evening: Head to Chez mon ex, renowned for its exceptional crepes, offering a delightful dining experience.
+Night: Experience the vibrant ambiance of My House Lounge, where you can relax and enjoy the cozy atmosphere.</t>
+        </is>
+      </c>
+      <c r="AB95" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Costa Cafe crepe is a cafe located in Gabes, Tunisia, at coordinates (33.8776521, 10.092417). It offers a variety of cafe beverages and has a 4.0 rating based on 2 reviews. It is open from 6:00 AM to midnight every day.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.
+Pizza Pesto is a 4-star rated restaurant located in the city of Gabès, Tunisia at the coordinates (33.3497059, 10.4863079). Featuring a main category of Restaurant, it also offers a variety of cuisines, with 3 reviews to its name.
+**Plage Corniche de Gabes** presents a haven for beachgoers in the captivating city of Gabes. With a rating of 3.7, based on feedback from 13 reviewers, you'll discover a stretch of sandy shores, a perfect setting for relaxation and coastal adventures. Immerse yourself in the local beach culture, revel in the sun-kissed landscapes, and create lasting memories amidst the refreshing ocean breeze. Located conveniently at the coordinates (33.903174189274, 10.105527429198), this exquisite beach awaits your arrival.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+AGIL is a gas station located in Gabes, Tunisia. It offers a range of services including fuel, auto repair, and car wash. The gas station has a 4.0-star rating based on 19 reviews and is owned by AGIL (proprietaire). It is located at the coordinates (33.8962351, 9.811008) and can be found on Google Maps at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10807,12 +15244,71 @@
       </c>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>If you're in gabes and seeking a top-notch Station-service, check out Gare Medou Matmata located at Avenue Bechir El Jaziri - shr` lbshyr ljzyry, Gabes. It boasts a 5.0 rating and offers a range of services. Call them at 97 568 696 for more details or navigate using these GPS coordinates: 33.8776521, 10.092417.</t>
+          <t>**Gare Medou Matmata**
+Located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417), Gare Medou Matmata is a petrol station offering a range of services to motorists. It is easily accessible from Avenue Bechir El Jaziri - shr` lbshyr ljzyry. With a rating of 5.0 based on 1 review, Gare Medou Matmata is highly praised for its services.</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>Where can you find a highly rated Station-service with a 5.0 rating in Gabes, and what makes it special?</t>
+          <t>Day Plan:
+Morning: Explore Gabes' vibrant souk for unique souvenirs and local products.
+Mid-Morning: Indulge in a traditional Tunisian breakfast at Cafe-Restaurant Chems, known for its delicious and authentic dishes.
+Midday: Visit the Gare de Gabes, a historic train station that serves as a transportation hub and a popular tourist destination. Take a guided tour to learn about its architectural significance and role in the region's history.
+Afternoon: Discover the natural beauty of Oued Griaa, a picturesque water source surrounded by lush greenery. Relax on its banks and enjoy the tranquil atmosphere.
+Evening: Take a stroll along Plage el Kazma Gabes, a beautiful beach with soft white sand and clear waters. Enjoy swimming, sunbathing, or building sandcastles as you soak up the Mediterranean sun.
+Night: Head to BIBO for an authentic Italian dining experience. Its extensive menu of pizzas and other Italian dishes will tantalize your taste buds and create a memorable evening.</t>
+        </is>
+      </c>
+      <c r="AB96" t="inlineStr">
+        <is>
+          <t>Given these locations:
+El Majless coffee lounge is a cafe located at PX7F+M8R El Majless coffee lounge, Rte de Gabes, Kebili. It has a rating of 4.5 out of 5, with 11 reviews and a featured image. It is open from 08:00-23:00 and closed on []. The phone number is 23 494 420. Its main category is Cafe, and its categories are ['Cafe']. It is located at coordinates (33.7053164, 8.9659272).
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+Restaurant RAPIDO is a restaurant located in Gabes at the coordinates (33.8776521, 10.092417). It has a rating of 4.6 out of 5 and offers a variety of dining options. The restaurant is open 7 days a week and offers takeout and delivery services.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+The Port de peche de Gabes is a fishing port located in Gabes, Tunisia. It is situated at the mouth of the Wadi Gabes, and it serves as a major hub for the fishing industry in the region. The port offers a variety of amenities to fishermen, including a fish market, a repair yard, and a fueling station. The port is also home to a number of restaurants and cafes, making it a popular destination for both locals and tourists. Its coordinates are (33.8941017, 10.1138583).
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+FRESCO-GABES is a Creperie located in Gabes, Tunisia with the coordinates (33.8776521, 10.092417). It operates daily from 08:00-00:00. The place has a rating of 4.6 stars based on 10 reviews on Google.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+**Gare Medou Matmata**
+Located in Gabes, Tunisia, at the coordinates (33.8776521, 10.092417), Gare Medou Matmata is a petrol station offering a range of services to motorists. It is easily accessible from Avenue Bechir El Jaziri - shr` lbshyr ljzyry. With a rating of 5.0 based on 1 review, Gare Medou Matmata is highly praised for its services.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -10910,12 +15406,69 @@
       </c>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for a top-rated Station-service, check out Radio elyssa located at Radio elyssa, teboulbou , Gabes, France, 6000. This must-visit spot has a rating of 5.0. To get there, use these GPS coordinates: 43.7034285, 7.2661312. For more details, visit their website at https://www.google.com/maps/place/Radio+elyssa/data=!4m7!3m6!1s0x12556f8ce5d9fa33:0x22d4bed3aae0af5d!8m2!3d33.8530342!4d10.1073907!16s%2Fg%2F11qpph6cc_!19sChIJM_rZ5YxvVRIRXa_gqtO-1CI?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Radio elyssa is a gas station located in Gabes, France, at the coordinates (43.7034285, 7.2661312). It has a rating of 5.0 based on 1 review.</t>
         </is>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find a highly-rated Station-service with a 5.0 rating and precise GPS coordinates for easy navigation?</t>
+          <t>Day Plan:
+Morning: Visit the scenic Ras el Oueed, known for its natural beauty and historical significance.
+Mid-Morning: Explore the Port de peche de Gabes, a fishing port where you can witness the local fishing industry and enjoy the coastal atmosphere.
+Midday: Try local cuisine at Restaurant Pizzeria PINO, known for its authentic Italian dishes.
+Afternoon: Enjoy swimming and sunbathing at Plage el Kazma Gabes, a popular beach offering picturesque views.
+Evening: Explore the Region Maritime de Gabes (OMMP) for a glimpse into local administration and public services.
+Night: Relax with a refreshing drink and enjoy the cozy atmosphere at My House Lounge, a popular café and grill.</t>
+        </is>
+      </c>
+      <c r="AB97" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Cafe Royale is a highly-rated cafe in Gabes, Tunisia. With a rating of 4.6 out of 5, it offers a variety of cafe-style drinks and food options. The cafe is open from 5:30 AM to 11:30 PM, making it a convenient spot for a morning coffee or an after-dinner treat. Cafe Royale is located at PX8F+9C3 Rte de Gabes, Qibili, and can be contacted by phone at 20 187 027.
+Located in Gabes, Tunisia, the 4-star Hotel l'Oasis Gabes offers a luxurious stay with its 182 guest rooms. Guests can enjoy a range of amenities, including a swimming pool, restaurant, and bar. The hotel is conveniently located near the city center and the beach, making it an ideal base for exploring Gabes. Overall, it has received a 4.3 rating based on many positive reviews.
+The Restaurant Palais de la mer in Gabes, Tunisia, with coordinates (33.893769, 10.1147988), offers a specialized culinary experience centered around fish dishes, as highlighted by its reviews. Open from 11:30 to 23:30 during the week, it has received a high rating of 4.5 based on 35 reviews.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+The Port de peche de Gabes is a port located in Gabes, Tunisia. It is a fishing port and is located at coordinates (33.8941017, 10.1138583). The port offers a variety of services to fishermen, including boat maintenance, repairs, and fuel. It is also a popular spot for fishing enthusiasts and offers a variety of fishing charters.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Cafe Les 4 Saisons is a highly rated Creperie located in Gabes, Tunisia. It is known for its delicious crepes and friendly service. The cafe is open from 6am to midnight, and is closed on Sundays. It is located at V3MR+9C5 Cafe Les 4 Saisons, Rue Maarifa, Gabes.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Gabes at 33.8976989, 10.0824252. It offers a variety of services including fuel, car wash, and auto repair.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11009,12 +15562,69 @@
       </c>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>If you're in gabes, Gare routiere de Kebili located at Route de Gabes, P16, 4200 is a great spot for Gare routiere lovers. With a rating of 3.4, it's a popular choice among locals and travelers alike. To get there, use these GPS coordinates: 33.7261487, 8.9802199.</t>
+          <t>The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.</t>
         </is>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find a highly-rated Gare routiere with GPS coordinates 33.7261487, 8.9802199?</t>
+          <t>Day Plan:
+Morning: Explore the scenic Plage el Kazma Gabes for its picturesque golden sands and clear waters.
+Mid-Morning: Visit the historical Hotel l'Oasis Gabes to admire its 4-star amenities and elegant architecture.
+Midday: Try the local cuisine at the highly-rated My House Lounge, known for its warm ambiance and delicious food.
+Afternoon: Engage in outdoor activities at Ras El Oueed, a popular tourist attraction offering stunning landscapes and a vibrant atmosphere.
+Evening: Enjoy scenic views at Port de peche de Gabes, a 4.6-star rated port with picturesque surroundings.
+Night: Experience cultural immersion at Le grain de café, a local cafeteria serving a wide variety of coffee and tea drinks in a cozy setting.</t>
+        </is>
+      </c>
+      <c r="AB98" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia. It offers a wide range of services, including a swimming pool, restaurant and bar. The hotel is conveniently located a stone's throw from the ocean and close to many of the city's attractions. With a rating of 4.3/5 based on 182 reviews, the hotel is a popular choice for travelers.
+Discover "By Omar Coffee Lounge," a must-visit destination located in Gabes. This renowned restaurant invites you to savor delectable cuisine, promising an unforgettable dining experience. Situated at coordinates (33.8776521, 10.092417), "By Omar Coffee Lounge" awaits your presence.
+Plage el Kazma Gabes is a popular beach located at coordinates (33.8776521, 10.092417). It offers a picturesque setting with golden sands and clear waters. The beach is rated 4.3 stars out of 20 reviews, making it a highly recommended spot for sunbathing, swimming, and enjoying the coastal atmosphere.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras El Oueed is a popular tourist attraction located in Gabes, Tunisia, with coordinates of (33.87861, 10.0618). It operates daily from 8 AM to 1 AM and has received an impressive rating of 4.2 from reviewers.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+My House Lounge is a café and grill restaurant situated at V3HR+QMP, Gabes, Tunisia (lon: 10.092417, lat: 33.8776521). The place offers a warm and welcoming ambiance, with a featured image showcasing its cozy atmosphere. The lounge is open daily from 8:00 AM to 11:00 PM, except for special occasions. With 50 reviews and a 4.0 rating, My House Lounge has established a positive reputation among its patrons.
+food club Gabes is a pizzeria located in Gabes, Tunisia. It has received a 5.0 rating from 1 review. The exact location of the pizzeria is (33.8776521, 10.092417).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+"La Crepe Rit" is a creperie located at route de gabes km2, Medenine. It offers a variety of crepes, with both sweet and savory options. The creperie is rated 5.0 out of 5 stars on Google, and is a popular destination for locals and tourists alike. It is situated at the coordinates (33.3497059, 10.4863079).
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+AGIL is a gas station located in Gabes, Tunisia. It offers a range of services including fuel, auto repair, and car wash. The gas station has a 4.0-star rating based on 19 reviews and is owned by AGIL (proprietaire). It is located at the coordinates (33.8962351, 9.811008) and can be found on Google Maps at https://www.google.com/maps/place/AGIL/data=!4m7!3m6!1s0x12556fd9f8d0a1bd:0x89f5287fce312ab3!8m2!3d33.8839304!4d10.0860645!16s%2Fg%2F1hm43dcp2!19sChIJvaHQ-NlvVRIRsyoxzn8o9Yk?authuser=0&amp;hl=fr&amp;rclk=1.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
@@ -11112,14 +15722,75 @@
       </c>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>If you're in gabes and looking for something fun to do, check out Station de Taxis direction Aeroport et Gabes located at PQM6+23J Station de Taxis direction Aeroport et Gabes, Rue de Kairouan. 
-This top-rated destination is perfect for Station de taxis lovers. 
-With a rating of 3.8, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: (34.731195787043, 10.761249591704). For more details, visit their website at or call them at .</t>
+          <t>Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).</t>
         </is>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
-          <t>Where in Gabes can you find a highly-rated Station de taxis destination that is well-regarded by enthusiasts?</t>
+          <t>**Day Plan:**
+**Morning:**
+* Explore the picturesque beach of Plage el Kazma Gabes, enjoying the soft sand and crystal-clear waters.
+**Mid-Morning:**
+* Indulge in traditional Turkish cuisine at Sami Restaurant Turc, savor the authentic flavors, and appreciate its high ratings.
+**Midday:**
+* Visit the awe-inspiring Ras el Oueed, admire its natural beauty, and capture mesmerizing photographs of the surroundings.
+**Afternoon:**
+* Immerse yourself in the tranquility of Oued Griaa, a serene water oasis, and relish the peaceful ambiance.
+**Evening:**
+* Head to Le grain de café for a delightful coffee break, savor its aroma, and enjoy the cozy atmosphere while connecting with locals.
+**Night:**
+* Dine at Chez mon ex, renowned for its savory crepes, and treat your taste buds to authentic and delectable bites.</t>
+        </is>
+      </c>
+      <c r="AB99" t="inlineStr">
+        <is>
+          <t>Given these locations:
+Located in Gabes at coordinates (33.8776521, 10.092417), Le Sky Cafe Lounge is a Cafe that also offers Bar lounge services. It is open from 08:00-22:00 during the week.
+Hotel l'Oasis Gabes is a 4-star hotel located in Gabes, Tunisia, with an average rating of 4.3 based on 182 reviews. It offers its guests a range of amenities and services, including a swimming pool, restaurant, and bar. The hotel is situated at 33.8759875 latitude and 10.0929339 longitude, making it easily accessible for travelers. The hotel is also located near the city center, giving guests easy access to shopping, dining, and other attractions.
+Sami Restaurant Turc is a Turkish restaurant located in Gabes, Tunisia. It has a 4.7 rating on Google and is open from 11:00 to 22:00 during the week, but is closed on Sundays. The restaurant is known for its traditional Turkish cuisine and has received positive reviews for its food and service.
+Plage el Kazma Gabes is a beautiful beach located in Gabes, Tunisia. It offers stunning views of the Mediterranean Sea and is a great place to relax and enjoy the sun. The beach has soft, white sand and clear blue waters, making it perfect for swimming, sunbathing, and building sandcastles. Plage el Kazma Gabes is also a popular spot for fishing and boating. It is located at 33.8776521, 10.092417.
+Port de peche de Gabes in Gabes, Tunisia (lon: 10.1138583, lat: 33.8941017) is a port with a 4.6-star rating based on 18 reviews.
+The Region Maritime de Gabes (OMMP) is a local administration building located in Gabes, Tunisia. It offers various public services and is open from Monday to Friday from 08:15 to 12:15 and 13:00 to 17:15. It is closed on Saturdays and Sundays, and its contact information is 75 270 969.
+Ras el Oueed is a popular tourist destination located in the city of Gabes, Tunisia. It is known for its scenic beauty and its proximity to the Zoo Chenenni. Visitors can enjoy a variety of activities at Ras el Oueed, including hiking, fishing, and swimming. The site is also home to a number of historical and cultural landmarks, including the ruins of an ancient Roman fort. Ras el Oueed is situated at (33.87861, 10.0618) and has a rating of 4.2 out of 5 based on 54 reviews.
+Discover "Oued Griaa", a charming point of water located in the city of Gabes, Tunisia. Immerse yourself in the tranquility of this natural oasis, which boasts a beautiful setting at coordinates (33.888301388934, 10.106418468977). With an impressive 3.8 rating based on 4 reviews, Oued Griaa is a popular destination for locals and tourists alike.
+Discover a natural hidden gem in Gabes, Tunisia, located at the coordinates (39.631738, -75.657103). This unnamed source of water is a refreshing oasis with a rating of 3.7 out of 5 based on 3 reviews. Immerse yourself in the tranquility of nature and enjoy the benefits of this water source in Gabes.
+ATLAS World is an amusement park located in Sfax, Tunisia. It is open 24 hours a day and offers a variety of attractions for families and children, such as rides, games, and a playground. The park also has a restaurant and a gift shop. It is located at (34.7470235, 10.7601774)
+Tunisie, Gabes is a supermarket located in Gabes, Tunisia at the coordinates (33.8776521, 10.092417). It is highly rated with a 5.0 rating after 1 review.
+O'TAKE is a cafe and grill restaurant located in Gabes, Tunisia. It has a rating of 5.0 based on 3 reviews and is open from 7 AM to 11 PM daily, except on Sundays. It is located at V3HX+R54 O'TAKE, Rue tayeb mhiri, Gabes 6001 and can be contacted at 20 271 286.
+BIBO is a pizzeria located in Gabes, Tunisia. It offers a wide variety of pizzas, as well as other Italian dishes. The restaurant is open 24 hours a day, and it has a 4.6-star rating on Google. BIBO is located at Rue Ibn Khaldoun, Gabes, Tunisia. The coordinates are (33.86387169541, 10.113266931251).
+Restaurant Pizzeria PINO is an Italian restaurant located in Gabes, Tunisia. It offers a variety of Italian dishes, including pizzas, pastas, and salads. It is open for lunch and dinner and is located on Avenue Habib Bourguiba.
+"Le grain de café" is a cafeteria located in Gabes, Tunisia. It is open from 6:30 AM to 10 PM and offers a wide variety of coffee and tea drinks. The café also has a selection of pastries and sandwiches. Customers have praised the café's friendly staff, cozy atmosphere, and delicious food and drinks.
+Chez mon ex is a renowned creperie situated in the heart of Gabes, captivating foodies with its delectable crepes. Its prime location at (33.8776521, 10.092417) makes it easily accessible, inviting visitors to indulge in culinary delights. With an impressive rating of 4.8, Chez mon ex boasts an exceptional reputation for its authentic and savory crepes. Operating from 10:30 AM to 11:00 PM, it offers a cozy ambiance for breakfast, lunch, and dinner.
+Cafe-Restaurant Chems is a Diner located in Gabes, Tunisia. Their coordinates are (33.9358789, 10.0689444) and they offer a variety of dishes. They have been reviewed 12 times and have a rating of 4.6 out of 5 stars.
+el ksour is a fast food restaurant located in Gabes, Tunisia. It has a rating of 5.0 and is open from 10:00 to 22:30. The restaurant's phone number is 24 761 469 and its address is V3PV+2PP el ksour, Gabes.
+CUBYGLACONS is a restaurant located in Gabes, Tunisia (lon: 10.1011829, lat: 33.8838235) offering delicious sundaes. With a 5.0 rating based on 1 review, this place is highly recommended by its previous visitors. Open daily from 7 am to 9 pm, CUBYGLACONS is the perfect spot to satisfy your cravings for sweet treats.
+Staroil Gabes is a gas station located in Chenini Nahal, Gabes, Tunisia. It offers fuel, lubricants, and other automotive services. The gas station is well-rated by customers, with an average rating of 5.0 out of 5.0. It is located at latitude 33.8976989 and longitude 10.0824252.
+The Gare de Gabes is a train station located in Gabes, Tunisia. The station offers a variety of services, including ticket sales, baggage check, and currency exchange. It is a major transportation hub for the region, and is served by trains to and from a number of cities in Tunisia, including Tunis, Sfax, and Tozeur. The station is also a popular tourist destination, and is home to a number of shops, restaurants, and cafes.
+Gabes is a train station located in Gabes, Tunisia. Its coordinates are (33.884506881014, 10.1023851976). The station offers train services and is rated 3.1 based on 25 reviews.
+The Kebili bus station is located in the gabes region, Tunisia, at the coordinates (33.7261487, 8.9802199). It offers bus transportation services and has a rating of 3.4 based on 5 reviews.
+Station de Taxis direction Aeroport et Gabes is a taxi rank located in Sfax, Tunisia. It offers taxi services to the airport and to the city of Gabes. The taxi rank is located at the coordinates (34.731195787043, 10.761249591704).
+Generate a good and coherent way to spend the dayduring a trip.
+Your plan should follow this format:
+Day Plan:
+Morning: [Activity]
+Mid-Morning: [Activity]
+Midday: [Activity]
+Afternoon: [Activity]
+Evening: [Activity]
+Night: [Activity]
+Activities can include:
+- Exploring [Location]
+- Trying local cuisine at [Restaurant]
+- Visiting [Landmark]
+- Enjoying [Recreational Activity] at [Park/Beach]
+- Relaxing with [Activity] at [Spa/Hotel]
+- Participating in [Event/Activity] at [Venue]
+- Shopping at [Market/Mall]
+- Taking a guided tour of [Attraction]
+- Engaging in outdoor activities like [Activity] at [Outdoor Location]
+- Experiencing cultural immersion at [Museum/Cultural Site]
+- Enjoying scenic views at [Scenic Spot]
+Feel free to customize the activities based on your preferences and interests.</t>
         </is>
       </c>
     </row>
